--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -44,7 +44,43 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 9:18 AM</t>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>FLUREST N 20 TABS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>Friday, 3 October, 2025 9:51 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -254,10 +290,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -266,7 +302,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,56 +710,103 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>12</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>13</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>14</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>18</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>19</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>20</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>21</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>22</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>11</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>12</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>13</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="P9" s="13">
+        <v>28</v>
+      </c>
+      <c r="Q9" s="13"/>
+    </row>
+    <row r="10" ht="16.5" customHeight="1">
+      <c t="s" r="A10" s="14">
+        <v>23</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c t="s" r="G10" s="15">
+        <v>24</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c t="s" r="K10" s="17">
+        <v>25</v>
+      </c>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="22">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -737,10 +820,15 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="K10:Q10"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -80,7 +80,31 @@
     <t>0:1</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 9:51 AM</t>
+    <t>بيروسول 300 مل</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>حلاوة حرير</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>Friday, 3 October, 2025 11:12 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -775,38 +799,104 @@
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
-      <c r="P9" s="13">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>23</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>24</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>13</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>25</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>26</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>27</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
         <v>28</v>
       </c>
-      <c r="Q9" s="13"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>29</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>16</v>
+      </c>
     </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c t="s" r="A10" s="14">
-        <v>23</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c t="s" r="G10" s="15">
-        <v>24</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c t="s" r="K10" s="17">
-        <v>25</v>
-      </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="P11" s="13">
+        <v>108</v>
+      </c>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12" ht="16.5" customHeight="1">
+      <c t="s" r="A12" s="14">
+        <v>31</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c t="s" r="G12" s="15">
+        <v>32</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c t="s" r="K12" s="17">
+        <v>33</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="32">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -825,10 +915,20 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="K12:Q12"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -104,7 +104,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 11:12 AM</t>
+    <t>Friday, 3 October, 2025 11:40 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -104,7 +104,19 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 11:40 AM</t>
+    <t>راجون احمر 250 مل</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>Friday, 3 October, 2025 11:41 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -865,38 +877,71 @@
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
-      <c r="P11" s="13">
-        <v>108</v>
-      </c>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c t="s" r="A12" s="14">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
         <v>31</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c t="s" r="G12" s="15">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
         <v>32</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c t="s" r="K12" s="17">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
         <v>33</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="P12" s="13">
+        <v>143</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
+        <v>35</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
+        <v>36</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
+        <v>37</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -925,10 +970,15 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -116,7 +116,19 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 11:41 AM</t>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>27:0</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>Friday, 3 October, 2025 11:56 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -910,38 +922,71 @@
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>143</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
         <v>35</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
         <v>36</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
         <v>37</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="P13" s="13">
+        <v>149</v>
+      </c>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1">
+      <c t="s" r="A14" s="14">
+        <v>39</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c t="s" r="G14" s="15">
+        <v>40</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c t="s" r="K14" s="17">
+        <v>41</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="42">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -975,10 +1020,15 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:Q14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -128,7 +128,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 11:56 AM</t>
+    <t>Friday, 3 October, 2025 12:02 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -62,22 +62,34 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>3:5</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>FLUREST N 20 TABS</t>
   </si>
   <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>32.00</t>
   </si>
   <si>
     <t>16.0000</t>
-  </si>
-  <si>
-    <t>0:1</t>
   </si>
   <si>
     <t>بيروسول 300 مل</t>
@@ -841,7 +853,7 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -852,7 +864,7 @@
         <v>26</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -955,38 +967,71 @@
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
-      <c r="P13" s="13">
-        <v>149</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c t="s" r="A14" s="14">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
         <v>39</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c t="s" r="G14" s="15">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
         <v>40</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c t="s" r="K14" s="17">
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
         <v>41</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="P14" s="13">
+        <v>152.84</v>
+      </c>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" ht="16.5" customHeight="1">
+      <c t="s" r="A15" s="14">
+        <v>43</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c t="s" r="G15" s="15">
+        <v>44</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c t="s" r="K15" s="17">
+        <v>45</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="47">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1025,10 +1070,15 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:Q15"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -140,7 +140,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 12:02 PM</t>
+    <t>Friday, 3 October, 2025 12:03 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -62,24 +62,36 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>10:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
     <t>3:5</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>24.00</t>
   </si>
   <si>
     <t>3.8400</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>FLUREST N 20 TABS</t>
   </si>
   <si>
@@ -140,7 +152,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 12:03 PM</t>
+    <t>Friday, 3 October, 2025 1:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -886,7 +898,7 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -897,7 +909,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1000,38 +1012,71 @@
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
-      <c r="P14" s="13">
-        <v>152.84</v>
-      </c>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c t="s" r="A15" s="14">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
         <v>43</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c t="s" r="G15" s="15">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
         <v>44</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c t="s" r="K15" s="17">
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>13</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
         <v>45</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="P15" s="13">
+        <v>168.68000000000001</v>
+      </c>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c t="s" r="A16" s="14">
+        <v>47</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c t="s" r="G16" s="15">
+        <v>48</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c t="s" r="K16" s="17">
+        <v>49</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="52">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1075,10 +1120,15 @@
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K16:Q16"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -152,7 +152,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 1:27 PM</t>
+    <t>Friday, 3 October, 2025 2:39 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -44,6 +44,24 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
@@ -59,16 +77,10 @@
     <t>12.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
     <t>10:2</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>48.00</t>
@@ -843,7 +855,7 @@
         <v>21</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -852,31 +864,31 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>26</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -898,7 +910,7 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -909,7 +921,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -942,7 +954,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -964,7 +976,7 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -997,7 +1009,7 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1030,7 +1042,7 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1045,38 +1057,71 @@
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
-      <c r="P15" s="13">
-        <v>168.68000000000001</v>
-      </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="14">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
         <v>47</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c t="s" r="G16" s="15">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
         <v>48</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c t="s" r="K16" s="17">
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>19</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
         <v>49</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>50</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="P16" s="13">
+        <v>191.68000000000001</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="14">
+        <v>51</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c t="s" r="G17" s="15">
+        <v>52</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c t="s" r="K17" s="17">
+        <v>53</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="57">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1125,10 +1170,15 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -164,7 +164,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 2:39 PM</t>
+    <t>Friday, 3 October, 2025 2:45 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -150,6 +150,15 @@
   </si>
   <si>
     <t>35.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
   </si>
   <si>
     <t xml:space="preserve">شاش 7 سم </t>
@@ -1069,7 +1078,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1079,49 +1088,82 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
         <v>50</v>
       </c>
-      <c t="s" r="Q15" s="12">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>51</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>19</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>52</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="16" ht="25.5" customHeight="1">
-      <c r="P16" s="13">
-        <v>191.68000000000001</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="14">
-        <v>51</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c t="s" r="G17" s="15">
-        <v>52</v>
-      </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c t="s" r="K17" s="17">
-        <v>53</v>
-      </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="P17" s="13">
+        <v>201.68000000000001</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>54</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>55</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>56</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1175,10 +1217,15 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -173,7 +173,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 2:45 PM</t>
+    <t>Friday, 3 October, 2025 3:41 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -77,6 +77,21 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -89,9 +104,6 @@
     <t>15.8400</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -114,6 +126,12 @@
   </si>
   <si>
     <t>16.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>2:2</t>
   </si>
   <si>
     <t>بيروسول 300 مل</t>
@@ -985,7 +1003,7 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -996,7 +1014,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1018,18 +1036,18 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1038,14 +1056,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1055,11 +1073,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1071,14 +1089,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1088,14 +1106,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1104,14 +1122,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1121,49 +1139,115 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>201.68000000000001</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>53</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>42</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>19</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
         <v>54</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
         <v>55</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
+      <c t="s" r="Q17" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
         <v>56</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>57</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>19</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>58</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="P19" s="13">
+        <v>238.31</v>
+      </c>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="14">
+        <v>60</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c t="s" r="G20" s="15">
+        <v>61</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c t="s" r="K20" s="17">
+        <v>62</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="72">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1222,10 +1306,20 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -44,24 +44,33 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>B.B.C. ORAL SPRAY 25 ML</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
     <t>8:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>23.00</t>
   </si>
   <si>
     <t>23.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
@@ -191,7 +200,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 3:41 PM</t>
+    <t>Friday, 3 October, 2025 4:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -849,7 +858,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -858,31 +867,31 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -891,31 +900,31 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -924,14 +933,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -941,14 +950,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -957,14 +966,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -974,14 +983,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -990,14 +999,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1007,14 +1016,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1023,14 +1032,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1040,14 +1049,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1056,31 +1065,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1089,31 +1098,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1122,31 +1131,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1155,20 +1164,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1179,7 +1188,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1195,59 +1204,92 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
         <v>59</v>
       </c>
-      <c t="s" r="Q18" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" ht="25.5" customHeight="1">
-      <c r="P19" s="13">
-        <v>238.31</v>
-      </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="14">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
         <v>60</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c t="s" r="G20" s="15">
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>22</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
         <v>61</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c t="s" r="K20" s="17">
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
         <v>62</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+      <c t="s" r="Q19" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="P20" s="13">
+        <v>287.31</v>
+      </c>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c t="s" r="A21" s="14">
+        <v>63</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c t="s" r="G21" s="15">
+        <v>64</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c t="s" r="K21" s="17">
+        <v>65</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="77">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1316,10 +1358,15 @@
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -200,7 +200,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 4:56 PM</t>
+    <t>Friday, 3 October, 2025 4:57 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -200,7 +200,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 4:57 PM</t>
+    <t>Friday, 3 October, 2025 4:59 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -59,6 +59,18 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>BETASERC 16MG 60 TAB</t>
+  </si>
+  <si>
+    <t>219.00</t>
+  </si>
+  <si>
+    <t>72.2700</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -98,9 +110,6 @@
     <t>20.7900</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -137,12 +146,33 @@
     <t>16.0000</t>
   </si>
   <si>
+    <t>ITOPRIDE 50MG 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
     <t>2:2</t>
   </si>
   <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
     <t>بيروسول 300 مل</t>
   </si>
   <si>
@@ -200,7 +230,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 4:59 PM</t>
+    <t>Friday, 3 October, 2025 5:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -874,7 +904,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -884,14 +914,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>18</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>19</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -913,15 +943,15 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>12</v>
@@ -933,20 +963,20 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -957,7 +987,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -966,14 +996,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -983,14 +1013,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -999,14 +1029,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1016,14 +1046,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1032,14 +1062,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1049,14 +1079,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1065,14 +1095,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1082,14 +1112,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1098,31 +1128,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1131,31 +1161,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1164,28 +1194,28 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1197,31 +1227,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1230,66 +1260,165 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
-      <c r="P20" s="13">
-        <v>287.31</v>
-      </c>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c t="s" r="A21" s="14">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>62</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
         <v>63</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c t="s" r="G21" s="15">
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>26</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
         <v>64</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c t="s" r="K21" s="17">
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
         <v>65</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
+      <c t="s" r="Q20" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>66</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>55</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>26</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>67</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>69</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>70</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>26</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>71</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="P23" s="13">
+        <v>419.39999999999998</v>
+      </c>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c t="s" r="A24" s="14">
+        <v>73</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c t="s" r="G24" s="15">
+        <v>74</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c t="s" r="K24" s="17">
+        <v>75</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="92">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1363,10 +1492,25 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="K24:Q24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -230,7 +230,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 5:06 PM</t>
+    <t>Friday, 3 October, 2025 5:07 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -71,6 +71,21 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -158,6 +173,18 @@
     <t>17.8200</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -179,9 +206,6 @@
     <t>0:0</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
     <t>60.0000</t>
   </si>
   <si>
@@ -215,7 +239,19 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>10.0000</t>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
   </si>
   <si>
     <t xml:space="preserve">شاش 7 سم </t>
@@ -227,10 +263,7 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>Friday, 3 October, 2025 5:07 PM</t>
+    <t>Friday, 3 October, 2025 5:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -954,7 +987,7 @@
         <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -963,20 +996,20 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -1009,18 +1042,18 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1029,14 +1062,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1046,11 +1079,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>19</v>
@@ -1062,14 +1095,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1079,11 +1112,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>19</v>
@@ -1095,14 +1128,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1112,11 +1145,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>19</v>
@@ -1128,14 +1161,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1145,11 +1178,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>19</v>
@@ -1161,14 +1194,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1178,11 +1211,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>19</v>
@@ -1194,14 +1227,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1211,14 +1244,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1227,31 +1260,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1260,28 +1293,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1293,24 +1326,24 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
@@ -1333,24 +1366,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1359,66 +1392,165 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
-      <c r="P23" s="13">
-        <v>419.39999999999998</v>
-      </c>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c t="s" r="A24" s="14">
-        <v>73</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c t="s" r="G24" s="15">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
         <v>74</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c t="s" r="K24" s="17">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>64</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>31</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
         <v>75</v>
       </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>78</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>64</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>31</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>79</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>81</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>82</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>31</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>83</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="P26" s="13">
+        <v>543.39999999999998</v>
+      </c>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="14">
+        <v>84</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c t="s" r="G27" s="15">
+        <v>85</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c t="s" r="K27" s="17">
+        <v>86</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="107">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1507,10 +1639,25 @@
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:Q27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -200,6 +200,15 @@
     <t>42.0000</t>
   </si>
   <si>
+    <t>XORAXON 1GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>112.0000</t>
+  </si>
+  <si>
     <t>بيروسول 300 مل</t>
   </si>
   <si>
@@ -239,31 +248,28 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
     <t>3.00</t>
   </si>
   <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>27:0</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
     <t>6.0000</t>
   </si>
   <si>
-    <t xml:space="preserve">شاش 7 سم </t>
-  </si>
-  <si>
-    <t>27:0</t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>Friday, 3 October, 2025 5:12 PM</t>
+    <t>Friday, 3 October, 2025 5:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1333,24 +1339,24 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1376,11 +1382,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1392,14 +1398,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1409,11 +1415,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1425,14 +1431,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1449,7 +1455,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>77</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1458,14 +1464,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1475,14 +1481,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1491,14 +1497,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1508,49 +1514,82 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>82</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>83</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>31</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>84</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="26" ht="25.5" customHeight="1">
-      <c r="P26" s="13">
-        <v>543.39999999999998</v>
-      </c>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c t="s" r="A27" s="14">
-        <v>84</v>
-      </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c t="s" r="G27" s="15">
-        <v>85</v>
-      </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c t="s" r="K27" s="17">
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="P27" s="13">
+        <v>666.39999999999998</v>
+      </c>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
+      <c t="s" r="A28" s="14">
         <v>86</v>
       </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c t="s" r="G28" s="15">
+        <v>87</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c t="s" r="K28" s="17">
+        <v>88</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="112">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1654,10 +1693,15 @@
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:Q28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -269,7 +269,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 5:20 PM</t>
+    <t>Friday, 3 October, 2025 5:22 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -269,7 +269,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 5:22 PM</t>
+    <t>Friday, 3 October, 2025 5:25 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -269,7 +269,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 5:25 PM</t>
+    <t>Friday, 3 October, 2025 5:26 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -269,7 +269,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 5:26 PM</t>
+    <t>Friday, 3 October, 2025 5:36 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -113,6 +113,18 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
     <t>DOGMATIL 50MG 30 CAPS.</t>
   </si>
   <si>
@@ -200,6 +212,18 @@
     <t>42.0000</t>
   </si>
   <si>
+    <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>XORAXON 1GM I.M. VIAL</t>
   </si>
   <si>
@@ -236,9 +260,6 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
     <t>35.0000</t>
   </si>
   <si>
@@ -269,7 +290,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 5:36 PM</t>
+    <t>Friday, 3 October, 2025 5:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1092,7 +1113,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1257,7 +1278,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>51</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1283,14 +1304,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>19</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1299,14 +1320,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1316,14 +1337,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1332,14 +1353,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1349,14 +1370,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1365,31 +1386,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1398,31 +1419,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1431,14 +1452,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1448,7 +1469,7 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
@@ -1471,7 +1492,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1481,14 +1502,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1497,14 +1518,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1514,14 +1535,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1530,14 +1551,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1547,49 +1568,115 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>86</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>75</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>31</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>87</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>89</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>90</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>31</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>91</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="27" ht="25.5" customHeight="1">
-      <c r="P27" s="13">
-        <v>666.39999999999998</v>
-      </c>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
-        <v>86</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
-        <v>87</v>
-      </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
-        <v>88</v>
-      </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="P29" s="13">
+        <v>802.39999999999998</v>
+      </c>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" ht="16.5" customHeight="1">
+      <c t="s" r="A30" s="14">
+        <v>93</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c t="s" r="G30" s="15">
+        <v>94</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c t="s" r="K30" s="17">
+        <v>95</v>
+      </c>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="122">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1698,10 +1785,20 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="K30:Q30"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -290,7 +290,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 5:41 PM</t>
+    <t>Friday, 3 October, 2025 5:42 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -290,7 +290,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 5:42 PM</t>
+    <t>Friday, 3 October, 2025 5:43 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -149,6 +149,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -212,6 +221,15 @@
     <t>42.0000</t>
   </si>
   <si>
+    <t>URIPAN 5MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
     <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
   </si>
   <si>
@@ -236,9 +254,6 @@
     <t>بيروسول 300 مل</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>60.0000</t>
   </si>
   <si>
@@ -290,7 +305,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 5:43 PM</t>
+    <t>Friday, 3 October, 2025 5:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1195,24 +1210,24 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1221,14 +1236,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1238,11 +1253,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>19</v>
@@ -1254,14 +1269,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1271,11 +1286,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>19</v>
@@ -1287,14 +1302,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1304,14 +1319,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>55</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1320,14 +1335,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1337,14 +1352,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>19</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1353,14 +1368,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1370,14 +1385,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1393,7 +1408,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1403,14 +1418,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1419,14 +1434,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1436,14 +1451,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1452,31 +1467,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1492,24 +1507,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1518,14 +1533,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1535,11 +1550,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1551,14 +1566,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1568,14 +1583,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1591,7 +1606,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1601,14 +1616,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1624,7 +1639,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1634,49 +1649,115 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>91</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>71</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>31</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
         <v>92</v>
       </c>
-      <c t="s" r="Q28" s="12">
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>94</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>95</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>31</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>96</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="29" ht="25.5" customHeight="1">
-      <c r="P29" s="13">
-        <v>802.39999999999998</v>
-      </c>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c t="s" r="A30" s="14">
-        <v>93</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c t="s" r="G30" s="15">
-        <v>94</v>
-      </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c t="s" r="K30" s="17">
-        <v>95</v>
-      </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>928.39999999999998</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
+        <v>98</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>99</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>100</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1795,10 +1876,20 @@
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -257,6 +257,15 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
     <t>حلاوة حرير</t>
   </si>
   <si>
@@ -278,6 +287,12 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>رول اون ريكسونا25</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -287,9 +302,6 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>3.00</t>
-  </si>
-  <si>
     <t>15.0000</t>
   </si>
   <si>
@@ -302,10 +314,7 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>Friday, 3 October, 2025 5:44 PM</t>
+    <t>Friday, 3 October, 2025 5:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1573,7 +1582,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1583,14 +1592,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1599,14 +1608,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1616,7 +1625,7 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -1639,7 +1648,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1649,14 +1658,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1665,14 +1674,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1682,14 +1691,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1705,7 +1714,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1715,49 +1724,115 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>96</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>71</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>31</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>83</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
         <v>97</v>
       </c>
-      <c t="s" r="Q30" s="12">
+      <c t="s" r="Q31" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>98</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>99</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>31</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>100</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>928.39999999999998</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
-        <v>98</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
-        <v>99</v>
-      </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
-        <v>100</v>
-      </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>969.39999999999998</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>101</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>102</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>103</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1886,10 +1961,20 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -228,6 +228,15 @@
   </si>
   <si>
     <t>54.0000</t>
+  </si>
+  <si>
+    <t>VETOCETAMOL 24 TAB.</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
   </si>
   <si>
     <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
@@ -1483,7 +1492,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1493,14 +1502,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1509,14 +1518,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1549,24 +1558,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1575,7 +1584,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1592,14 +1601,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1615,7 +1624,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1625,14 +1634,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1641,14 +1650,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1658,7 +1667,7 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
@@ -1691,11 +1700,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1707,14 +1716,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1724,14 +1733,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1740,7 +1749,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1757,14 +1766,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1773,14 +1782,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1790,49 +1799,82 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>101</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>102</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>31</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>103</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>969.39999999999998</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
-        <v>101</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
-        <v>102</v>
-      </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
-        <v>103</v>
-      </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="P34" s="13">
+        <v>987.39999999999998</v>
+      </c>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1">
+      <c t="s" r="A35" s="14">
+        <v>104</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c t="s" r="G35" s="15">
+        <v>105</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c t="s" r="K35" s="17">
+        <v>106</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="147">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1971,10 +2013,15 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="K35:Q35"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -212,6 +212,15 @@
     <t>2:2</t>
   </si>
   <si>
+    <t>LIPONA 20MG 10 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
@@ -254,6 +263,9 @@
     <t>XORAXON 1GM I.M. VIAL</t>
   </si>
   <si>
+    <t>7:0</t>
+  </si>
+  <si>
     <t>56.00</t>
   </si>
   <si>
@@ -290,9 +302,6 @@
     <t>راجون احمر 250 مل</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>35.0000</t>
   </si>
   <si>
@@ -323,7 +332,7 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 5:46 PM</t>
+    <t>Friday, 3 October, 2025 5:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1426,7 +1435,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1459,7 +1468,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1469,7 +1478,7 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
@@ -1492,7 +1501,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1502,14 +1511,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1525,7 +1534,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1535,14 +1544,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1551,14 +1560,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1591,24 +1600,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1617,14 +1626,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1634,14 +1643,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1650,14 +1659,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1674,7 +1683,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1700,11 +1709,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1716,14 +1725,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1733,11 +1742,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1749,14 +1758,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1766,14 +1775,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1782,14 +1791,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1799,14 +1808,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1815,14 +1824,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1832,49 +1841,82 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>104</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>105</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>31</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>106</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="34" ht="25.5" customHeight="1">
-      <c r="P34" s="13">
-        <v>987.39999999999998</v>
-      </c>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="14">
-        <v>104</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c t="s" r="G35" s="15">
-        <v>105</v>
-      </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c t="s" r="K35" s="17">
-        <v>106</v>
-      </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>1028.4000000000001</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>107</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>108</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>109</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2018,10 +2060,15 @@
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -71,6 +71,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>CARBAMIDE 10% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
@@ -221,6 +230,15 @@
     <t>41.0000</t>
   </si>
   <si>
+    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
@@ -321,6 +339,15 @@
   </si>
   <si>
     <t>15.0000</t>
+  </si>
+  <si>
+    <t>سويت افوفا</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
   </si>
   <si>
     <t xml:space="preserve">شاش 7 سم </t>
@@ -1039,7 +1066,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1049,14 +1076,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1065,14 +1092,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1082,14 +1109,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1098,28 +1125,28 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>12</v>
@@ -1131,31 +1158,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1164,14 +1191,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1181,14 +1208,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1197,14 +1224,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1214,11 +1241,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>19</v>
@@ -1230,20 +1257,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1254,7 +1281,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1270,24 +1297,24 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1296,14 +1323,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1313,11 +1340,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>19</v>
@@ -1329,14 +1356,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1346,11 +1373,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>19</v>
@@ -1362,14 +1389,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1379,14 +1406,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>58</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1395,14 +1422,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1412,14 +1439,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1428,14 +1455,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1445,14 +1472,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1468,7 +1495,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1501,7 +1528,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1511,7 +1538,7 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
@@ -1534,7 +1561,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1551,7 +1578,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1577,14 +1604,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1593,14 +1620,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1610,14 +1637,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1626,31 +1653,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1666,24 +1693,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1692,28 +1719,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1725,31 +1752,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1771,15 +1798,15 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1791,31 +1818,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1824,31 +1851,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1857,66 +1884,165 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>108</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>80</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>34</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>96</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>110</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>33</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>34</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>111</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>1028.4000000000001</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
-        <v>107</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
-        <v>108</v>
-      </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
-        <v>109</v>
-      </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>113</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>114</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>34</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>115</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>1178.4000000000001</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
+        <v>116</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
+        <v>117</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>118</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2065,10 +2191,25 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -359,7 +359,7 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 5:49 PM</t>
+    <t>Friday, 3 October, 2025 5:51 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALL-VENT SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>B.B.C. ORAL SPRAY 25 ML</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>49.00</t>
   </si>
   <si>
@@ -134,6 +146,18 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>DAVALINDI 200.000 I.U./ML 1 I.M AMP.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>112.0000</t>
+  </si>
+  <si>
     <t>DOGMATIL 50MG 30 CAPS.</t>
   </si>
   <si>
@@ -182,9 +206,6 @@
     <t>FLUREST N 20 TABS</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>32.00</t>
   </si>
   <si>
@@ -206,9 +227,6 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -284,12 +302,6 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>112.0000</t>
-  </si>
-  <si>
     <t>بيروسول 300 مل</t>
   </si>
   <si>
@@ -359,7 +371,7 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 5:51 PM</t>
+    <t>Friday, 3 October, 2025 5:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1017,7 +1029,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1026,14 +1038,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1043,14 +1055,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1066,7 +1078,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1083,7 +1095,7 @@
         <v>22</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1092,14 +1104,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1116,7 +1128,7 @@
         <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1125,14 +1137,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1142,14 +1154,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>31</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1171,18 +1183,18 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1191,20 +1203,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1215,7 +1227,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1248,7 +1260,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1281,7 +1293,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1297,24 +1309,24 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1323,14 +1335,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1340,14 +1352,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1356,20 +1368,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1380,7 +1392,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1413,7 +1425,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1429,7 +1441,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1439,14 +1451,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1455,14 +1467,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1472,14 +1484,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1488,7 +1500,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1505,14 +1517,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1521,14 +1533,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1538,14 +1550,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1561,7 +1573,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1578,7 +1590,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1594,7 +1606,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1604,14 +1616,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1627,7 +1639,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1644,7 +1656,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1670,14 +1682,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1686,14 +1698,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1703,14 +1715,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1719,31 +1731,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1759,24 +1771,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1785,31 +1797,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1818,31 +1830,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1851,31 +1863,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1891,24 +1903,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1924,24 +1936,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1957,13 +1969,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -1971,10 +1983,10 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1983,66 +1995,132 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>1178.4000000000001</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>114</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>37</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>38</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>115</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
         <v>116</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
+      <c t="s" r="Q38" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
         <v>117</v>
       </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
         <v>118</v>
       </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>38</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>119</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="P40" s="13">
+        <v>1324.4000000000001</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>120</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
+        <v>121</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
+        <v>122</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2206,10 +2284,20 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -182,6 +182,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>E-MOX 125MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
   </si>
   <si>
@@ -356,12 +365,6 @@
     <t>سويت افوفا</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">شاش 7 سم </t>
   </si>
   <si>
@@ -371,7 +374,7 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 5:55 PM</t>
+    <t>Friday, 3 October, 2025 5:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1375,13 +1378,13 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1408,24 +1411,24 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1434,14 +1437,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1474,7 +1477,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1484,11 +1487,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>23</v>
@@ -1500,14 +1503,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1524,7 +1527,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>68</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1540,7 +1543,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1550,14 +1553,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>23</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1566,14 +1569,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1583,14 +1586,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1639,7 +1642,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1672,7 +1675,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1682,7 +1685,7 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -1705,7 +1708,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1715,14 +1718,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1738,7 +1741,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1748,14 +1751,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1764,14 +1767,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1781,11 +1784,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>31</v>
@@ -1797,31 +1800,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1830,14 +1833,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1847,14 +1850,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1870,7 +1873,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1880,14 +1883,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1896,14 +1899,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1913,11 +1916,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1929,14 +1932,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1946,11 +1949,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -1962,14 +1965,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1979,14 +1982,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1995,14 +1998,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2012,14 +2015,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2028,14 +2031,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2045,14 +2048,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2068,7 +2071,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2078,49 +2081,82 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>1324.4000000000001</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>118</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>119</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>38</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
         <v>120</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>1354.4000000000001</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
         <v>121</v>
       </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
         <v>122</v>
       </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>123</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2294,10 +2330,15 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -257,6 +257,15 @@
     <t>41.0000</t>
   </si>
   <si>
+    <t>PANADOL ACUTE HEAD COLD</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
   </si>
   <si>
@@ -323,58 +332,61 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>حلاوة حرير</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>راجون احمر 250 مل</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>رول اون ريكسونا25</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>سويت افوفا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>27:0</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
     <t>6.0000</t>
   </si>
   <si>
-    <t>حلاوة حرير</t>
-  </si>
-  <si>
-    <t>14:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>راجون احمر 250 مل</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>رول اون ريكسونا25</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>سويت افوفا</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاش 7 سم </t>
-  </si>
-  <si>
-    <t>27:0</t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>Friday, 3 October, 2025 5:59 PM</t>
+    <t>Friday, 3 October, 2025 6:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1642,13 +1654,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1659,7 +1671,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1675,7 +1687,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1708,7 +1720,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1718,7 +1730,7 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
@@ -1741,7 +1753,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1751,14 +1763,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1774,7 +1786,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1784,14 +1796,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1800,14 +1812,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1817,11 +1829,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>31</v>
@@ -1833,31 +1845,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1866,14 +1878,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1883,14 +1895,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1906,7 +1918,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1916,14 +1928,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1932,14 +1944,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1949,11 +1961,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -1965,14 +1977,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1982,11 +1994,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -1998,14 +2010,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2015,14 +2027,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2031,14 +2043,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2048,14 +2060,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2064,14 +2076,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2081,14 +2093,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2097,14 +2109,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>119</v>
+        <v>37</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2114,49 +2126,82 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>1354.4000000000001</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
         <v>121</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
         <v>122</v>
       </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>38</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
         <v>123</v>
       </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="P42" s="13">
+        <v>1388.4000000000001</v>
+      </c>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="14">
+        <v>125</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c t="s" r="G43" s="15">
+        <v>126</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c t="s" r="K43" s="17">
+        <v>127</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="187">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2335,10 +2380,15 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="K43:Q43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -386,7 +386,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 6:05 PM</t>
+    <t>Friday, 3 October, 2025 6:07 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -158,6 +158,15 @@
     <t>112.0000</t>
   </si>
   <si>
+    <t>DECLOPHEN 100MG 5 SUPP</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>DOGMATIL 50MG 30 CAPS.</t>
   </si>
   <si>
@@ -257,6 +266,15 @@
     <t>41.0000</t>
   </si>
   <si>
+    <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
     <t>PANADOL ACUTE HEAD COLD</t>
   </si>
   <si>
@@ -266,6 +284,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
   </si>
   <si>
@@ -326,6 +353,12 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>جونتي عمال</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -386,7 +419,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 6:07 PM</t>
+    <t>Friday, 3 October, 2025 6:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1324,7 +1357,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1334,14 +1367,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1350,14 +1383,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1367,11 +1400,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>23</v>
@@ -1383,14 +1416,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1407,7 +1440,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1423,13 +1456,13 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1456,24 +1489,24 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1482,14 +1515,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1522,7 +1555,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1532,11 +1565,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>23</v>
@@ -1548,14 +1581,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1572,7 +1605,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>71</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1588,7 +1621,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1598,14 +1631,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>23</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1614,14 +1647,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1631,14 +1664,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1654,13 +1687,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1671,7 +1704,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1720,13 +1753,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1737,7 +1770,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1753,24 +1786,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1803,7 +1836,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1819,7 +1852,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1829,14 +1862,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1845,14 +1878,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1862,14 +1895,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1885,24 +1918,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1911,31 +1944,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1944,31 +1977,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1984,7 +2017,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1994,7 +2027,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2027,11 +2060,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2050,7 +2083,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2064,10 +2097,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2076,14 +2109,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2093,14 +2126,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2109,14 +2142,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2126,11 +2159,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2142,14 +2175,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2159,7 +2192,7 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
@@ -2170,38 +2203,170 @@
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
-      <c r="P42" s="13">
-        <v>1388.4000000000001</v>
-      </c>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c t="s" r="A43" s="14">
-        <v>125</v>
-      </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c t="s" r="G43" s="15">
-        <v>126</v>
-      </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c t="s" r="K43" s="17">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
         <v>127</v>
       </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>101</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>38</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>128</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>129</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>101</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>38</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>117</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>131</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>37</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>38</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>61</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>132</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>133</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>38</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>134</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="P46" s="13">
+        <v>1616.4000000000001</v>
+      </c>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="14">
+        <v>136</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c t="s" r="G47" s="15">
+        <v>137</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c t="s" r="K47" s="17">
+        <v>138</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="187">
+  <mergeCells count="207">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2385,10 +2550,30 @@
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -419,7 +419,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 6:35 PM</t>
+    <t>Friday, 3 October, 2025 6:38 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -230,6 +230,15 @@
     <t>16.0000</t>
   </si>
   <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
     <t>ITOPRIDE 50MG 30 SCORED TAB</t>
   </si>
   <si>
@@ -341,6 +350,18 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8203:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>XORAXON 1GM I.M. VIAL</t>
   </si>
   <si>
@@ -395,9 +416,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -419,7 +437,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 6:38 PM</t>
+    <t>Friday, 3 October, 2025 6:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1588,7 +1606,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1598,14 +1616,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1614,14 +1632,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1638,7 +1656,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>74</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1654,7 +1672,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1664,14 +1682,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>23</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1680,14 +1698,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1697,14 +1715,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1753,13 +1771,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1770,7 +1788,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1786,7 +1804,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1819,13 +1837,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1836,7 +1854,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1852,7 +1870,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1885,7 +1903,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1895,7 +1913,7 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
@@ -1918,7 +1936,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1928,14 +1946,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1951,7 +1969,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1961,14 +1979,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1977,14 +1995,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1994,11 +2012,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>31</v>
@@ -2010,31 +2028,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2043,31 +2061,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2076,14 +2094,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2093,14 +2111,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2109,14 +2127,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2126,11 +2144,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2149,7 +2167,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2159,14 +2177,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2175,14 +2193,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2192,11 +2210,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2208,14 +2226,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2225,14 +2243,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2241,14 +2259,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2258,14 +2276,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2274,14 +2292,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2291,14 +2309,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2307,14 +2325,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2324,49 +2342,115 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
-      <c r="P46" s="13">
-        <v>1616.4000000000001</v>
-      </c>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="14">
-        <v>136</v>
-      </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c t="s" r="G47" s="15">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
         <v>137</v>
       </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c t="s" r="K47" s="17">
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>37</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>38</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>61</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
         <v>138</v>
       </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>139</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>38</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>140</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="P48" s="13">
+        <v>1712.4000000000001</v>
+      </c>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" ht="16.5" customHeight="1">
+      <c t="s" r="A49" s="14">
+        <v>142</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c t="s" r="G49" s="15">
+        <v>143</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c t="s" r="K49" s="17">
+        <v>144</v>
+      </c>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="217">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2570,10 +2654,20 @@
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="K49:Q49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -92,6 +92,18 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>CARBIMAZOLE B.P 2007 5 MG 50 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
@@ -131,9 +143,6 @@
     <t>12.00</t>
   </si>
   <si>
-    <t>12.0000</t>
-  </si>
-  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -230,21 +239,21 @@
     <t>16.0000</t>
   </si>
   <si>
-    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
+    <t xml:space="preserve">ISOPTIN SR 240 MG  TAB</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>170.00</t>
+  </si>
+  <si>
+    <t>56.1000</t>
   </si>
   <si>
     <t>ITOPRIDE 50MG 30 SCORED TAB</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>54.00</t>
   </si>
   <si>
@@ -254,9 +263,6 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
     <t>24.0000</t>
   </si>
   <si>
@@ -350,72 +356,63 @@
     <t>70.0000</t>
   </si>
   <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8203:0</t>
+    <t>XORAXON 1GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>بيروسول 300 مل</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>جونتي عمال</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>حلاوة حرير</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>راجون احمر 250 مل</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>رول اون ريكسونا25</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>XORAXON 1GM I.M. VIAL</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>بيروسول 300 مل</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>جونتي عمال</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>9.0000</t>
-  </si>
-  <si>
-    <t>حلاوة حرير</t>
-  </si>
-  <si>
-    <t>14:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>راجون احمر 250 مل</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>رول اون ريكسونا25</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -437,7 +434,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 6:39 PM</t>
+    <t>Friday, 3 October, 2025 6:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1227,7 +1224,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1236,14 +1233,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1253,14 +1250,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>35</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1282,15 +1279,15 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1302,20 +1299,20 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1323,10 +1320,10 @@
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1335,14 +1332,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1352,14 +1349,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1368,14 +1365,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1392,7 +1389,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1408,7 +1405,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1418,14 +1415,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1434,14 +1431,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1451,11 +1448,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>23</v>
@@ -1467,14 +1464,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1491,7 +1488,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1507,13 +1504,13 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1540,24 +1537,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1566,14 +1563,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1606,7 +1603,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1623,7 +1620,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1645,7 +1642,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1672,7 +1669,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1689,7 +1686,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>77</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1705,7 +1702,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1715,14 +1712,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>23</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1738,7 +1735,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1748,14 +1745,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1764,7 +1761,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1781,11 +1778,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1797,31 +1794,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1830,28 +1827,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>23</v>
@@ -1863,31 +1860,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1896,14 +1893,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1913,11 +1910,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1929,14 +1926,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1946,11 +1943,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1962,14 +1959,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1979,14 +1976,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1995,14 +1992,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2012,14 +2009,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2028,14 +2025,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2045,14 +2042,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2061,14 +2058,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2078,14 +2075,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2094,28 +2091,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2127,20 +2124,20 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2160,28 +2157,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2193,28 +2190,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2226,28 +2223,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2259,28 +2256,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2292,31 +2289,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2325,31 +2322,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2358,28 +2355,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2391,28 +2388,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2420,13 +2417,13 @@
     </row>
     <row r="48" ht="24.75" customHeight="1">
       <c r="P48" s="13">
-        <v>1712.4000000000001</v>
+        <v>1684.5</v>
       </c>
       <c r="Q48" s="13"/>
     </row>
     <row r="49" ht="16.5" customHeight="1">
       <c t="s" r="A49" s="14">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -2434,13 +2431,13 @@
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
       <c t="s" r="G49" s="15">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
       <c r="J49" s="16"/>
       <c t="s" r="K49" s="17">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L49" s="17"/>
       <c r="M49" s="17"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -362,6 +362,15 @@
     <t>7:0</t>
   </si>
   <si>
+    <t>ZITHROMAX 900MG/22.5ML (200MG/5ML) SUSP.</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
     <t>بيروسول 300 مل</t>
   </si>
   <si>
@@ -434,7 +443,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 6:44 PM</t>
+    <t>Friday, 3 October, 2025 6:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2104,15 +2113,15 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2124,14 +2133,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2141,11 +2150,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2157,14 +2166,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2174,14 +2183,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2197,7 +2206,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2207,14 +2216,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2223,14 +2232,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2240,11 +2249,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2256,14 +2265,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2277,7 +2286,7 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2289,14 +2298,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2306,14 +2315,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2322,7 +2331,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2339,14 +2348,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2355,14 +2364,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2372,14 +2381,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2388,14 +2397,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2405,49 +2414,82 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>64</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
         <v>140</v>
       </c>
-      <c t="s" r="Q47" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" ht="24.75" customHeight="1">
-      <c r="P48" s="13">
-        <v>1684.5</v>
-      </c>
-      <c r="Q48" s="13"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c t="s" r="A49" s="14">
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
         <v>141</v>
       </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c t="s" r="G49" s="15">
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>42</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
         <v>142</v>
       </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="16"/>
-      <c t="s" r="K49" s="17">
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
         <v>143</v>
       </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
+      <c t="s" r="Q48" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="P49" s="13">
+        <v>1784.5</v>
+      </c>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="14">
+        <v>144</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c t="s" r="G50" s="15">
+        <v>145</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c t="s" r="K50" s="17">
+        <v>146</v>
+      </c>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="217">
+  <mergeCells count="222">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2661,10 +2703,15 @@
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="K50:Q50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -119,6 +119,15 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>CETAFEN 30 TABS</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -290,6 +299,24 @@
     <t>140.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>PANADOL ACUTE HEAD COLD</t>
   </si>
   <si>
@@ -443,7 +470,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 6:50 PM</t>
+    <t>Friday, 3 October, 2025 6:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1282,7 +1309,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1292,14 +1319,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1308,28 +1335,28 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1341,20 +1368,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1362,10 +1389,10 @@
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1374,14 +1401,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1391,11 +1418,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>35</v>
@@ -1407,14 +1434,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1431,7 +1458,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1447,7 +1474,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1457,14 +1484,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1473,14 +1500,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1490,11 +1517,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>23</v>
@@ -1506,14 +1533,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1530,7 +1557,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1546,13 +1573,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1579,24 +1606,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1605,14 +1632,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1645,21 +1672,21 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>23</v>
@@ -1671,20 +1698,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1711,7 +1738,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1721,14 +1748,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>77</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1737,14 +1764,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1754,14 +1781,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>23</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1770,14 +1797,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1787,14 +1814,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1843,13 +1870,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1860,7 +1887,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1876,13 +1903,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1909,7 +1936,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1926,7 +1953,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1942,13 +1969,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1959,7 +1986,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1975,24 +2002,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2025,7 +2052,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2041,7 +2068,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2051,14 +2078,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2067,14 +2094,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2084,14 +2111,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2107,7 +2134,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2124,7 +2151,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2140,24 +2167,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2166,31 +2193,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2199,31 +2226,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2232,24 +2259,24 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2272,21 +2299,21 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2305,24 +2332,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2331,31 +2358,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2364,31 +2391,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2397,28 +2424,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2430,66 +2457,165 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
-      <c r="P49" s="13">
-        <v>1784.5</v>
-      </c>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c t="s" r="A50" s="14">
-        <v>144</v>
-      </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c t="s" r="G50" s="15">
-        <v>145</v>
-      </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="16"/>
-      <c t="s" r="K50" s="17">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
         <v>146</v>
       </c>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>115</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>45</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>134</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>148</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>44</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>45</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>67</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>149</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>150</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>45</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>151</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="P52" s="13">
+        <v>1922.27</v>
+      </c>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c t="s" r="A53" s="14">
+        <v>153</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c t="s" r="G53" s="15">
+        <v>154</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+      <c t="s" r="K53" s="17">
+        <v>155</v>
+      </c>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="222">
+  <mergeCells count="237">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2708,10 +2834,25 @@
     <mergeCell ref="H48:K48"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="K53:Q53"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -200,87 +200,99 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>10:2</t>
+    <t>9:2</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
+    <t>63.8400</t>
+  </si>
+  <si>
+    <t>E-MOX 125MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>3:5</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
+    <t>FLUREST N 20 TABS</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>134.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISOPTIN SR 240 MG  TAB</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>170.00</t>
+  </si>
+  <si>
+    <t>56.1000</t>
+  </si>
+  <si>
+    <t>ITOPRIDE 50MG 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
     <t>15.8400</t>
   </si>
   <si>
-    <t>E-MOX 125MG/5ML SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>3:5</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>3.8400</t>
-  </si>
-  <si>
-    <t>FLUREST N 20 TABS</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISOPTIN SR 240 MG  TAB</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>170.00</t>
-  </si>
-  <si>
-    <t>56.1000</t>
-  </si>
-  <si>
-    <t>ITOPRIDE 50MG 30 SCORED TAB</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
     <t>LIPONA 20MG 10 F.C.TAB.</t>
   </si>
   <si>
@@ -290,6 +302,18 @@
     <t>41.0000</t>
   </si>
   <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
     <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
   </si>
   <si>
@@ -383,6 +407,12 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>XITHRONE 500MG 5 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
     <t>XORAXON 1GM I.M. VIAL</t>
   </si>
   <si>
@@ -407,9 +437,6 @@
     <t>جونتي عمال</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -470,7 +497,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 6:56 PM</t>
+    <t>Friday, 3 October, 2025 7:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1557,7 +1584,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1705,24 +1732,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1731,20 +1758,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1771,7 +1798,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1781,14 +1808,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>80</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1797,14 +1824,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1814,14 +1841,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>23</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1830,14 +1857,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1847,14 +1874,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1863,7 +1890,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1880,11 +1907,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1896,31 +1923,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1929,14 +1956,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1946,14 +1973,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1962,14 +1989,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1979,11 +2006,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>23</v>
@@ -1995,28 +2022,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>23</v>
@@ -2028,31 +2055,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2061,31 +2088,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2094,14 +2121,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2111,11 +2138,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2127,14 +2154,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2144,14 +2171,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2160,14 +2187,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2177,14 +2204,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2193,14 +2220,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2210,14 +2237,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2226,14 +2253,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2243,14 +2270,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2259,28 +2286,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2292,31 +2319,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2325,31 +2352,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2358,14 +2385,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2375,11 +2402,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>29</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2391,14 +2418,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2408,11 +2435,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2431,7 +2458,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2441,14 +2468,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2457,14 +2484,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2474,14 +2501,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2490,14 +2517,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2507,14 +2534,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2523,14 +2550,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2540,11 +2567,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2556,14 +2583,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2573,49 +2600,148 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
-      <c r="P52" s="13">
-        <v>1922.27</v>
-      </c>
-      <c r="Q52" s="13"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c t="s" r="A53" s="14">
-        <v>153</v>
-      </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c t="s" r="G53" s="15">
-        <v>154</v>
-      </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="16"/>
-      <c t="s" r="K53" s="17">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
         <v>155</v>
       </c>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>123</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>45</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>143</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>157</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>44</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>45</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>67</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>158</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>159</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>45</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>160</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="P55" s="13">
+        <v>2247.27</v>
+      </c>
+      <c r="Q55" s="13"/>
+    </row>
+    <row r="56" ht="16.5" customHeight="1">
+      <c t="s" r="A56" s="14">
+        <v>162</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c t="s" r="G56" s="15">
+        <v>163</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c t="s" r="K56" s="17">
+        <v>164</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="237">
+  <mergeCells count="252">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2849,10 +2975,25 @@
     <mergeCell ref="H51:K51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="K56:Q56"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -497,7 +497,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 7:11 PM</t>
+    <t>Friday, 3 October, 2025 7:24 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -83,6 +83,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>BRUFEN 600MG 30 TAB</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
     <t>CARBAMIDE 10% CREAM 30 GM</t>
   </si>
   <si>
@@ -287,9 +299,6 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
-    <t>2:2</t>
-  </si>
-  <si>
     <t>15.8400</t>
   </si>
   <si>
@@ -497,7 +506,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 7:24 PM</t>
+    <t>Friday, 3 October, 2025 7:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1237,7 +1246,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1247,14 +1256,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1263,14 +1272,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1287,7 +1296,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1320,7 +1329,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1329,14 +1338,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1353,7 +1362,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1362,14 +1371,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1386,7 +1395,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1408,15 +1417,15 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1441,18 +1450,18 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1485,7 +1494,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1501,7 +1510,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1511,14 +1520,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1527,14 +1536,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1551,7 +1560,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1584,7 +1593,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>52</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1600,7 +1609,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1610,14 +1619,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1626,28 +1635,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1659,20 +1668,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1683,7 +1692,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1699,7 +1708,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1709,11 +1718,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>23</v>
@@ -1725,14 +1734,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1742,14 +1751,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1758,20 +1767,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1782,7 +1791,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1798,21 +1807,21 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>23</v>
@@ -1824,14 +1833,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1841,14 +1850,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>83</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1857,14 +1866,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1874,14 +1883,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>23</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1890,14 +1899,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1907,14 +1916,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1930,7 +1939,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1940,11 +1949,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1956,14 +1965,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1996,13 +2005,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2013,7 +2022,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2029,13 +2038,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2062,13 +2071,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2095,13 +2104,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2128,13 +2137,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2145,7 +2154,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2161,7 +2170,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2194,7 +2203,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>48</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2204,7 +2213,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2227,7 +2236,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2237,14 +2246,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2260,7 +2269,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2270,14 +2279,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2286,14 +2295,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2307,10 +2316,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2319,14 +2328,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2336,14 +2345,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>53</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2352,14 +2361,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2369,14 +2378,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>57</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2392,21 +2401,21 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2418,28 +2427,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2451,31 +2460,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>29</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2491,24 +2500,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2517,28 +2526,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2550,28 +2559,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2583,31 +2592,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2616,31 +2625,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2649,31 +2658,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>68</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2682,66 +2691,99 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>159</v>
+        <v>48</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>71</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
         <v>161</v>
       </c>
-      <c t="s" r="Q54" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" ht="24.75" customHeight="1">
-      <c r="P55" s="13">
-        <v>2247.27</v>
-      </c>
-      <c r="Q55" s="13"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c t="s" r="A56" s="14">
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
         <v>162</v>
       </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c t="s" r="G56" s="15">
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>49</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
         <v>163</v>
       </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="16"/>
-      <c t="s" r="K56" s="17">
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
         <v>164</v>
       </c>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
+      <c t="s" r="Q55" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="P56" s="13">
+        <v>2279.9400000000001</v>
+      </c>
+      <c r="Q56" s="13"/>
+    </row>
+    <row r="57" ht="16.5" customHeight="1">
+      <c t="s" r="A57" s="14">
+        <v>165</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c t="s" r="G57" s="15">
+        <v>166</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
+      <c t="s" r="K57" s="17">
+        <v>167</v>
+      </c>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="252">
+  <mergeCells count="257">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2990,10 +3032,15 @@
     <mergeCell ref="H54:K54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="K57:Q57"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -506,7 +506,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 7:25 PM</t>
+    <t>Friday, 3 October, 2025 7:30 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t>16.0000</t>
+  </si>
+  <si>
+    <t>GLYCERIN (EL-NILE) INFANTILE 6 SUPP.</t>
   </si>
   <si>
     <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
@@ -1774,7 +1777,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1784,14 +1787,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1800,31 +1803,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1833,28 +1836,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>23</v>
@@ -1866,14 +1869,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1883,14 +1886,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>87</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1899,14 +1902,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1916,14 +1919,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>23</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1932,14 +1935,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1949,14 +1952,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1965,14 +1968,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1982,11 +1985,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1998,14 +2001,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2015,11 +2018,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2031,31 +2034,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2064,7 +2067,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2077,15 +2080,15 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>23</v>
@@ -2097,28 +2100,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>23</v>
@@ -2130,14 +2133,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2147,11 +2150,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>23</v>
@@ -2163,31 +2166,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2196,14 +2199,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2213,11 +2216,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2229,14 +2232,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2246,11 +2249,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2262,14 +2265,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2279,14 +2282,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2295,14 +2298,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2312,14 +2315,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2328,14 +2331,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2345,14 +2348,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2361,14 +2364,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2378,14 +2381,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>57</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2394,14 +2397,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2411,14 +2414,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>57</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2427,28 +2430,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2460,14 +2463,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2477,11 +2480,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2500,7 +2503,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2510,14 +2513,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>29</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2526,14 +2529,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2543,14 +2546,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2559,14 +2562,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2576,11 +2579,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2592,14 +2595,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2609,11 +2612,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2625,14 +2628,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2642,14 +2645,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2658,14 +2661,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2675,14 +2678,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2691,14 +2694,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>48</v>
+        <v>127</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2708,14 +2711,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>71</v>
+        <v>147</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2731,7 +2734,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2741,49 +2744,82 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>71</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>162</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>163</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>49</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
         <v>164</v>
       </c>
-      <c t="s" r="Q55" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" ht="25.5" customHeight="1">
-      <c r="P56" s="13">
-        <v>2279.9400000000001</v>
-      </c>
-      <c r="Q56" s="13"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c t="s" r="A57" s="14">
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
         <v>165</v>
       </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c t="s" r="G57" s="15">
+      <c t="s" r="Q56" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="P57" s="13">
+        <v>2291.9400000000001</v>
+      </c>
+      <c r="Q57" s="13"/>
+    </row>
+    <row r="58" ht="16.5" customHeight="1">
+      <c t="s" r="A58" s="14">
         <v>166</v>
       </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="16"/>
-      <c t="s" r="K57" s="17">
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c t="s" r="G58" s="15">
         <v>167</v>
       </c>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="16"/>
+      <c t="s" r="K58" s="17">
+        <v>168</v>
+      </c>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="257">
+  <mergeCells count="262">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3037,10 +3073,15 @@
     <mergeCell ref="H55:K55"/>
     <mergeCell ref="L55:M55"/>
     <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="K58:Q58"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -251,6 +251,18 @@
     <t>3.8400</t>
   </si>
   <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
     <t>FLUREST N 20 TABS</t>
   </si>
   <si>
@@ -392,9 +404,6 @@
     <t>URIPAN 5MG 30 TAB.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>54.0000</t>
   </si>
   <si>
@@ -509,7 +518,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 7:30 PM</t>
+    <t>Friday, 3 October, 2025 7:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1744,7 +1753,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1754,14 +1763,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1770,14 +1779,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1787,14 +1796,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1803,14 +1812,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1820,14 +1829,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1836,20 +1845,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1860,7 +1869,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1876,21 +1885,21 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>23</v>
@@ -1902,14 +1911,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1919,14 +1928,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>88</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1935,14 +1944,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1952,14 +1961,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>23</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1968,14 +1977,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1985,14 +1994,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2001,14 +2010,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2041,7 +2050,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2051,11 +2060,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2067,31 +2076,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2100,7 +2109,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2113,15 +2122,15 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>23</v>
@@ -2133,28 +2142,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>23</v>
@@ -2166,14 +2175,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2183,11 +2192,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>23</v>
@@ -2199,31 +2208,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2232,14 +2241,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2249,11 +2258,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2265,14 +2274,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>48</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2282,11 +2291,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2298,14 +2307,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2315,14 +2324,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2338,7 +2347,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2348,14 +2357,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2364,14 +2373,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2385,10 +2394,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2397,14 +2406,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2414,14 +2423,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>57</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2430,14 +2439,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2447,14 +2456,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>57</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2470,21 +2479,21 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2496,14 +2505,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2513,11 +2522,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2529,14 +2538,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2546,14 +2555,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>29</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2569,7 +2578,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2579,14 +2588,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2595,14 +2604,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2612,11 +2621,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2628,14 +2637,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2645,11 +2654,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2661,14 +2670,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2678,14 +2687,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2694,14 +2703,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2711,14 +2720,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2727,14 +2736,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2744,14 +2753,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>72</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2760,14 +2769,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>163</v>
+        <v>48</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2777,49 +2786,82 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>71</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
         <v>165</v>
       </c>
-      <c t="s" r="Q56" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="57" ht="25.5" customHeight="1">
-      <c r="P57" s="13">
-        <v>2291.9400000000001</v>
-      </c>
-      <c r="Q57" s="13"/>
-    </row>
-    <row r="58" ht="16.5" customHeight="1">
-      <c t="s" r="A58" s="14">
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
         <v>166</v>
       </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c t="s" r="G58" s="15">
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>49</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
         <v>167</v>
       </c>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="16"/>
-      <c t="s" r="K58" s="17">
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
         <v>168</v>
       </c>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
+      <c t="s" r="Q57" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="P58" s="13">
+        <v>2471.9400000000001</v>
+      </c>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c t="s" r="A59" s="14">
+        <v>169</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c t="s" r="G59" s="15">
+        <v>170</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c t="s" r="K59" s="17">
+        <v>171</v>
+      </c>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="262">
+  <mergeCells count="267">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3078,10 +3120,15 @@
     <mergeCell ref="H56:K56"/>
     <mergeCell ref="L56:M56"/>
     <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="K59:Q59"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>9.1200</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>B.B.C. ORAL SPRAY 25 ML</t>
   </si>
   <si>
@@ -80,9 +92,6 @@
     <t>72.2700</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>BRUFEN 600MG 30 TAB</t>
   </si>
   <si>
@@ -176,12 +185,21 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
     <t>DAVALINDI 200.000 I.U./ML 1 I.M AMP.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>56.00</t>
   </si>
   <si>
@@ -197,6 +215,24 @@
     <t>21.0000</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
     <t>DOGMATIL 50MG 30 CAPS.</t>
   </si>
   <si>
@@ -332,9 +368,6 @@
     <t>4:0</t>
   </si>
   <si>
-    <t>57.00</t>
-  </si>
-  <si>
     <t>57.0000</t>
   </si>
   <si>
@@ -410,9 +443,6 @@
     <t>VETOCETAMOL 24 TAB.</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>18.0000</t>
   </si>
   <si>
@@ -449,6 +479,15 @@
     <t>100.0000</t>
   </si>
   <si>
+    <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
     <t>بيروسول 300 مل</t>
   </si>
   <si>
@@ -518,7 +557,16 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 7:32 PM</t>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>Friday, 3 October, 2025 7:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1192,7 +1240,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1209,7 +1257,7 @@
         <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1218,7 +1266,7 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -1235,14 +1283,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1258,7 +1306,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1268,14 +1316,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1284,14 +1332,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1308,7 +1356,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1324,7 +1372,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1334,14 +1382,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1350,14 +1398,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1367,14 +1415,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1383,14 +1431,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1400,14 +1448,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>42</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>23</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1423,7 +1471,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1433,14 +1481,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1449,28 +1497,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1482,20 +1530,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1503,10 +1551,10 @@
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1515,14 +1563,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1532,14 +1580,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1548,14 +1596,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1572,7 +1620,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1588,7 +1636,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1598,14 +1646,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1614,14 +1662,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1631,14 +1679,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1647,14 +1695,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1664,14 +1712,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1680,31 +1728,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1713,14 +1761,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1730,14 +1778,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1746,14 +1794,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1763,14 +1811,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1779,14 +1827,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1796,14 +1844,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1812,28 +1860,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1852,7 +1900,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1862,14 +1910,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1878,31 +1926,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1911,14 +1959,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1928,14 +1976,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1944,14 +1992,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1961,14 +2009,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>92</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1984,7 +2032,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1994,14 +2042,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2010,31 +2058,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2043,14 +2091,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2060,14 +2108,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2076,14 +2124,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2093,14 +2141,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2116,24 +2164,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2142,14 +2190,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2159,14 +2207,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2175,31 +2223,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2208,31 +2256,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2241,31 +2289,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2274,14 +2322,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2291,14 +2339,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2307,31 +2355,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2347,13 +2395,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2364,7 +2412,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2380,7 +2428,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2390,14 +2438,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2406,14 +2454,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2423,11 +2471,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2446,7 +2494,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2456,14 +2504,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>58</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2479,7 +2527,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2489,14 +2537,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>70</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2505,31 +2553,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>33</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2538,28 +2586,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2571,31 +2619,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>63</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2604,20 +2652,20 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>153</v>
+        <v>93</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2644,21 +2692,21 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2670,28 +2718,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>137</v>
+        <v>36</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2703,31 +2751,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>32</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>155</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2743,24 +2791,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2769,28 +2817,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>71</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2802,66 +2850,297 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>171</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>172</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>52</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>147</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>173</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>93</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>52</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>174</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
         <v>168</v>
       </c>
-      <c t="s" r="Q57" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" ht="24.75" customHeight="1">
-      <c r="P58" s="13">
-        <v>2471.9400000000001</v>
-      </c>
-      <c r="Q58" s="13"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c t="s" r="A59" s="14">
-        <v>169</v>
-      </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c t="s" r="G59" s="15">
-        <v>170</v>
-      </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
-      <c t="s" r="K59" s="17">
-        <v>171</v>
-      </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
+      <c t="s" r="Q59" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>175</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>93</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>52</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>163</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>176</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>177</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>51</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>52</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>83</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>178</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>179</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>52</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>180</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>182</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>93</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>52</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>183</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>176</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>184</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>179</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>52</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>90</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="P65" s="13">
+        <v>2674.8449999999998</v>
+      </c>
+      <c r="Q65" s="13"/>
+    </row>
+    <row r="66" ht="16.5" customHeight="1">
+      <c t="s" r="A66" s="14">
+        <v>185</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c t="s" r="G66" s="15">
+        <v>186</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="16"/>
+      <c t="s" r="K66" s="17">
+        <v>187</v>
+      </c>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="267">
+  <mergeCells count="302">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3125,10 +3404,45 @@
     <mergeCell ref="H57:K57"/>
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="K66:Q66"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ANTINAL 200MG 24 CAPSULES</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
@@ -71,9 +86,6 @@
     <t>9.1200</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>B.B.C. ORAL SPRAY 25 ML</t>
   </si>
   <si>
@@ -557,6 +569,15 @@
     <t>6.0000</t>
   </si>
   <si>
+    <t>قياس سكر</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -566,7 +587,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 7:35 PM</t>
+    <t>Friday, 3 October, 2025 7:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1240,7 +1261,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1250,14 +1271,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1266,14 +1287,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1283,14 +1304,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1299,7 +1320,7 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -1316,14 +1337,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1332,14 +1353,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1356,7 +1377,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1372,7 +1393,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1382,14 +1403,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1398,14 +1419,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1422,7 +1443,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1455,7 +1476,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1464,14 +1485,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1488,7 +1509,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1497,14 +1518,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1521,7 +1542,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1543,15 +1564,15 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1576,18 +1597,18 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1620,7 +1641,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1636,7 +1657,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1646,14 +1667,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1662,14 +1683,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1679,14 +1700,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1695,14 +1716,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1719,7 +1740,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1745,14 +1766,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1761,14 +1782,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1778,14 +1799,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1818,7 +1839,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1834,7 +1855,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1844,14 +1865,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1860,28 +1881,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1893,20 +1914,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1917,7 +1938,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1950,7 +1971,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1966,7 +1987,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1976,14 +1997,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1992,14 +2013,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2009,14 +2030,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2025,14 +2046,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2042,14 +2063,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2058,20 +2079,20 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2082,7 +2103,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2098,24 +2119,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2124,14 +2145,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2141,14 +2162,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>104</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2157,14 +2178,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2174,14 +2195,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2190,14 +2211,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2207,14 +2228,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2223,14 +2244,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2240,11 +2261,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2256,14 +2277,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2273,11 +2294,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2289,31 +2310,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2322,31 +2343,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2355,31 +2376,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2388,31 +2409,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2421,31 +2442,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2454,14 +2475,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2471,11 +2492,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2487,14 +2508,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2504,11 +2525,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2520,14 +2541,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2537,14 +2558,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2553,14 +2574,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2570,14 +2591,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2593,7 +2614,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2603,14 +2624,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2619,14 +2640,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2636,14 +2657,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>63</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2652,14 +2673,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2669,14 +2690,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>67</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2685,14 +2706,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2702,11 +2723,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2718,28 +2739,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2751,28 +2772,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>33</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2784,31 +2805,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>36</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2817,20 +2838,20 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2841,7 +2862,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2857,21 +2878,21 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2883,28 +2904,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2916,31 +2937,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>93</v>
+        <v>176</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2949,31 +2970,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2982,31 +3003,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>83</v>
+        <v>167</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>84</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3015,28 +3036,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>179</v>
+        <v>55</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>87</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3055,21 +3076,21 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>93</v>
+        <v>183</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3081,66 +3102,132 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>179</v>
+        <v>97</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>90</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>111</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
-      <c r="P65" s="13">
-        <v>2674.8449999999998</v>
-      </c>
-      <c r="Q65" s="13"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c t="s" r="A66" s="14">
-        <v>185</v>
-      </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c t="s" r="G66" s="15">
-        <v>186</v>
-      </c>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="16"/>
-      <c t="s" r="K66" s="17">
-        <v>187</v>
-      </c>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>189</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>97</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>56</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>190</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>191</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>183</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>56</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>94</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="P67" s="13">
+        <v>2710.8449999999998</v>
+      </c>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="14">
+        <v>192</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c t="s" r="G68" s="15">
+        <v>193</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c t="s" r="K68" s="17">
+        <v>194</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="302">
+  <mergeCells count="312">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3439,10 +3526,20 @@
     <mergeCell ref="H64:K64"/>
     <mergeCell ref="L64:M64"/>
     <mergeCell ref="N64:O64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="K68:Q68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -587,7 +587,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 7:52 PM</t>
+    <t>Friday, 3 October, 2025 8:03 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -62,6 +62,33 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ALPHACHYMOTRYPSIN 5MG 3 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>ALPHATHROMB 5MG TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ANTINAL 200MG 24 CAPSULES</t>
   </si>
   <si>
@@ -74,9 +101,6 @@
     <t>26.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
@@ -152,6 +176,18 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>CEREBROLYSIN 215.2MG/ML I.M./I.V. 5 AMPS (5ML)</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>740.00</t>
+  </si>
+  <si>
+    <t>148.0000</t>
+  </si>
+  <si>
     <t>CETAFEN 30 TABS</t>
   </si>
   <si>
@@ -179,9 +215,6 @@
     <t>5:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>12.00</t>
   </si>
   <si>
@@ -194,9 +227,6 @@
     <t>33.00</t>
   </si>
   <si>
-    <t>66.0000</t>
-  </si>
-  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
@@ -302,9 +332,6 @@
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>180.00</t>
   </si>
   <si>
@@ -359,6 +386,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>LASILACTONE 50/20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -518,6 +554,18 @@
     <t>9.0000</t>
   </si>
   <si>
+    <t>حفاضات كبار سن جير ميني 36ق</t>
+  </si>
+  <si>
+    <t>0:13</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>22.5000</t>
+  </si>
+  <si>
     <t>حلاوة حرير</t>
   </si>
   <si>
@@ -548,46 +596,52 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>13:0</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>سويت افوفا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>27:0</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>قياس سكر</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
     <t>15.0000</t>
   </si>
   <si>
-    <t>سويت افوفا</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاش 7 سم </t>
-  </si>
-  <si>
-    <t>27:0</t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>قياس سكر</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 8:03 PM</t>
+    <t>Friday, 3 October, 2025 8:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1278,7 +1332,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1287,20 +1341,20 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -1311,7 +1365,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1320,14 +1374,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1337,14 +1391,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1353,14 +1407,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1370,14 +1424,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1386,14 +1440,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1403,14 +1457,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1419,7 +1473,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1436,14 +1490,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1452,14 +1506,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1469,14 +1523,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1485,14 +1539,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1509,7 +1563,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1518,14 +1572,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1542,7 +1596,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1575,7 +1629,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1584,20 +1638,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1605,10 +1659,10 @@
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1617,14 +1671,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1641,7 +1695,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1674,7 +1728,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1690,24 +1744,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1723,7 +1777,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1733,14 +1787,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1773,7 +1827,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1789,7 +1843,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1799,14 +1853,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1815,14 +1869,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1839,7 +1893,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1872,7 +1926,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>63</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1888,7 +1942,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1898,14 +1952,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1914,20 +1968,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1938,7 +1992,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1971,7 +2025,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1987,7 +2041,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1997,11 +2051,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2013,31 +2067,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2046,14 +2100,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2063,14 +2117,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2079,14 +2133,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2096,14 +2150,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2112,31 +2166,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2145,14 +2199,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2162,14 +2216,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2178,7 +2232,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2195,14 +2249,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>108</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2218,24 +2272,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2244,14 +2298,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2261,14 +2315,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2277,14 +2331,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2294,14 +2348,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2310,14 +2364,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2327,14 +2381,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2343,31 +2397,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2383,7 +2437,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2400,7 +2454,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2416,24 +2470,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>31</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2449,13 +2503,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2466,7 +2520,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2482,13 +2536,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2499,7 +2553,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2515,7 +2569,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2532,7 +2586,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2548,24 +2602,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2574,31 +2628,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2607,14 +2661,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2624,14 +2678,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2640,14 +2694,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2657,11 +2711,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2673,14 +2727,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2690,14 +2744,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>68</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2706,14 +2760,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2723,14 +2777,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2739,14 +2793,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2756,14 +2810,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2772,28 +2826,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2805,31 +2859,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2838,31 +2892,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2871,28 +2925,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>51</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2904,28 +2958,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>151</v>
+        <v>48</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2937,28 +2991,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>151</v>
+        <v>44</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2970,31 +3024,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3003,31 +3057,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>97</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>55</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3036,28 +3090,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>55</v>
+        <v>186</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>87</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>88</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3069,28 +3123,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3102,28 +3156,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>97</v>
+        <v>192</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3135,31 +3189,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>180</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>195</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3168,66 +3222,231 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>183</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>94</v>
+        <v>179</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>115</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>197</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
-      <c r="P67" s="13">
-        <v>2710.8449999999998</v>
-      </c>
-      <c r="Q67" s="13"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="14">
-        <v>192</v>
-      </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c t="s" r="G68" s="15">
-        <v>193</v>
-      </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
-      <c t="s" r="K68" s="17">
-        <v>194</v>
-      </c>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>198</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>67</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>22</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>97</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>199</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>200</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>22</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>201</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>203</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>18</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>22</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>204</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>205</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>206</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>18</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>22</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>207</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>208</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>209</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>200</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>22</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>104</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="P72" s="13">
+        <v>3062.9250000000002</v>
+      </c>
+      <c r="Q72" s="13"/>
+    </row>
+    <row r="73" ht="16.5" customHeight="1">
+      <c t="s" r="A73" s="14">
+        <v>210</v>
+      </c>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c t="s" r="G73" s="15">
+        <v>211</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c t="s" r="K73" s="17">
+        <v>212</v>
+      </c>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="337">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3536,10 +3755,35 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="K73:Q73"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -425,7 +425,7 @@
     <t>140.00</t>
   </si>
   <si>
-    <t>140.0000</t>
+    <t>280.0000</t>
   </si>
   <si>
     <t xml:space="preserve">MOVXIR 50/500  TAB </t>
@@ -2503,7 +2503,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2520,7 +2520,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -3416,7 +3416,7 @@
     </row>
     <row r="72" ht="25.5" customHeight="1">
       <c r="P72" s="13">
-        <v>3062.9250000000002</v>
+        <v>3202.9250000000002</v>
       </c>
       <c r="Q72" s="13"/>
     </row>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -618,6 +618,15 @@
   </si>
   <si>
     <t>6.0000</t>
+  </si>
+  <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
   </si>
   <si>
     <t>قياس سكر</t>
@@ -3328,7 +3337,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3338,14 +3347,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3394,7 +3403,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>200</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3404,49 +3413,82 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>104</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>124</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
-      <c r="P72" s="13">
-        <v>3202.9250000000002</v>
-      </c>
-      <c r="Q72" s="13"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c t="s" r="A73" s="14">
-        <v>210</v>
-      </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c t="s" r="G73" s="15">
-        <v>211</v>
-      </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="16"/>
-      <c t="s" r="K73" s="17">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
         <v>212</v>
       </c>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>200</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>22</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>104</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="P73" s="13">
+        <v>3302.9250000000002</v>
+      </c>
+      <c r="Q73" s="13"/>
+    </row>
+    <row r="74" ht="16.5" customHeight="1">
+      <c t="s" r="A74" s="14">
+        <v>213</v>
+      </c>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c t="s" r="G74" s="15">
+        <v>214</v>
+      </c>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16"/>
+      <c t="s" r="K74" s="17">
+        <v>215</v>
+      </c>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="337">
+  <mergeCells count="342">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3780,10 +3822,15 @@
     <mergeCell ref="H71:K71"/>
     <mergeCell ref="L71:M71"/>
     <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="K74:Q74"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -89,6 +89,21 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>AMPOFER 20MG/ML 5 AMP. FOR I.V. INJ./INF.</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>ANTINAL 200MG 24 CAPSULES</t>
   </si>
   <si>
@@ -272,7 +287,7 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>2:3</t>
+    <t>23.7600</t>
   </si>
   <si>
     <t>DOGMATIL 50MG 30 CAPS.</t>
@@ -362,9 +377,6 @@
     <t xml:space="preserve">ISOPTIN SR 240 MG  TAB</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>170.00</t>
   </si>
   <si>
@@ -542,6 +554,18 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>27:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>جونتي عمال</t>
   </si>
   <si>
@@ -572,12 +596,6 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>راجون احمر 250 مل</t>
   </si>
   <si>
@@ -602,18 +620,12 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>سويت افوفا</t>
   </si>
   <si>
     <t xml:space="preserve">شاش 7 سم </t>
   </si>
   <si>
-    <t>27:0</t>
-  </si>
-  <si>
     <t>6.00</t>
   </si>
   <si>
@@ -644,13 +656,16 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 8:14 PM</t>
+    <t>26:0</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>Friday, 3 October, 2025 8:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1407,7 +1422,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1416,14 +1431,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1433,11 +1448,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>25</v>
@@ -1449,14 +1464,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1466,14 +1481,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1482,7 +1497,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1499,14 +1514,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1515,14 +1530,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1532,11 +1547,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>25</v>
@@ -1548,14 +1563,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1565,14 +1580,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1581,14 +1596,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1598,14 +1613,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1614,14 +1629,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1631,14 +1646,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>54</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1671,7 +1686,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1680,14 +1695,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1697,11 +1712,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>25</v>
@@ -1713,14 +1728,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1730,14 +1745,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1746,28 +1761,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1779,31 +1794,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1812,14 +1827,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1829,14 +1844,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1845,14 +1860,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1862,14 +1877,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>54</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1878,14 +1893,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1895,14 +1910,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1911,14 +1926,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1928,14 +1943,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1944,14 +1959,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1961,11 +1976,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>25</v>
@@ -1977,14 +1992,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1994,14 +2009,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2010,14 +2025,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2027,14 +2042,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>73</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2043,14 +2058,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2060,14 +2075,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2076,28 +2091,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2109,31 +2124,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2142,14 +2157,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2159,14 +2174,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2175,14 +2190,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2192,14 +2207,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2208,14 +2223,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2225,14 +2240,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2241,14 +2256,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2258,14 +2273,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2274,31 +2289,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2307,28 +2322,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>25</v>
@@ -2340,14 +2355,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2357,14 +2372,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>117</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2373,14 +2388,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2390,14 +2405,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2406,14 +2421,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2423,11 +2438,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>25</v>
@@ -2439,14 +2454,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2456,14 +2471,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2472,14 +2487,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2489,11 +2504,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2505,14 +2520,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2522,14 +2537,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>36</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2538,31 +2553,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2571,28 +2586,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>25</v>
@@ -2604,28 +2619,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>25</v>
@@ -2637,14 +2652,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2654,11 +2669,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>25</v>
@@ -2670,31 +2685,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2703,14 +2718,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2720,11 +2735,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2736,14 +2751,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2753,11 +2768,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2769,14 +2784,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2786,14 +2801,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2802,14 +2817,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2819,14 +2834,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>54</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2842,7 +2857,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>166</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2852,14 +2867,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>53</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2868,14 +2883,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>168</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2885,14 +2900,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2901,14 +2916,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>172</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2918,14 +2933,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2934,14 +2949,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2951,11 +2966,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2967,28 +2982,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>48</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3000,14 +3015,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3017,11 +3032,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3033,14 +3048,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3050,14 +3065,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3066,14 +3081,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>138</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3083,14 +3098,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>49</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>117</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3099,14 +3114,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>186</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3123,7 +3138,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3139,7 +3154,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3149,14 +3164,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3165,14 +3180,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3182,11 +3197,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3198,14 +3213,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>172</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3215,14 +3230,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>195</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3231,14 +3246,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>198</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3248,14 +3263,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>197</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3264,14 +3279,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3281,14 +3296,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>97</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3297,14 +3312,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>200</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3314,14 +3329,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3337,7 +3352,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>204</v>
+        <v>72</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3347,14 +3362,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>102</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>171</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3363,14 +3378,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3380,11 +3395,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3396,14 +3411,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>208</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3413,14 +3428,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3429,14 +3444,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>200</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3446,49 +3461,115 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>104</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>124</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
-      <c r="P73" s="13">
-        <v>3302.9250000000002</v>
-      </c>
-      <c r="Q73" s="13"/>
-    </row>
-    <row r="74" ht="16.5" customHeight="1">
-      <c t="s" r="A74" s="14">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
         <v>213</v>
       </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c t="s" r="G74" s="15">
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>18</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>22</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
         <v>214</v>
       </c>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="16"/>
-      <c t="s" r="K74" s="17">
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
         <v>215</v>
       </c>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>216</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>22</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>109</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>217</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="P75" s="13">
+        <v>3486.8049999999998</v>
+      </c>
+      <c r="Q75" s="13"/>
+    </row>
+    <row r="76" ht="16.5" customHeight="1">
+      <c t="s" r="A76" s="14">
+        <v>218</v>
+      </c>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c t="s" r="G76" s="15">
+        <v>219</v>
+      </c>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="16"/>
+      <c t="s" r="K76" s="17">
+        <v>220</v>
+      </c>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="342">
+  <mergeCells count="352">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3827,10 +3908,20 @@
     <mergeCell ref="H72:K72"/>
     <mergeCell ref="L72:M72"/>
     <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="K74:Q74"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="K76:Q76"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -665,7 +665,7 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 8:15 PM</t>
+    <t>Friday, 3 October, 2025 8:17 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -458,6 +458,15 @@
     <t>76.0000</t>
   </si>
   <si>
+    <t>NIZODERM 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>PANADOL ACUTE HEAD COLD</t>
   </si>
   <si>
@@ -488,10 +497,16 @@
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
+    <t>4:4</t>
+  </si>
+  <si>
     <t>42.00</t>
   </si>
   <si>
-    <t>42.0000</t>
+    <t>55.8600</t>
+  </si>
+  <si>
+    <t>1:2</t>
   </si>
   <si>
     <t>URIPAN 5MG 30 TAB.</t>
@@ -653,9 +668,6 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -665,7 +677,7 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 8:17 PM</t>
+    <t>Friday, 3 October, 2025 8:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2659,13 +2671,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2676,7 +2688,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2692,7 +2704,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2725,13 +2737,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2742,7 +2754,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2758,7 +2770,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2791,7 +2803,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2801,14 +2813,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2817,14 +2829,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2834,14 +2846,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2850,14 +2862,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>166</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2867,14 +2879,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>59</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2883,14 +2895,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>171</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2900,14 +2912,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>58</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2916,14 +2928,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>172</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2933,14 +2945,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2949,14 +2961,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>177</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2966,14 +2978,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2982,14 +2994,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2999,11 +3011,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3015,28 +3027,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>53</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3048,14 +3060,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>182</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3065,11 +3077,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>53</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3081,14 +3093,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>138</v>
+        <v>187</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3098,11 +3110,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>50</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3114,14 +3126,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3131,14 +3143,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>49</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3147,14 +3159,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>190</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3164,14 +3176,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3180,14 +3192,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3197,14 +3209,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3213,14 +3225,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3230,11 +3242,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3246,14 +3258,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3263,11 +3275,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3279,14 +3291,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>203</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3296,14 +3308,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>34</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>201</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3312,7 +3324,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3329,14 +3341,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>172</v>
+        <v>206</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3345,14 +3357,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3362,14 +3374,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>102</v>
+        <v>192</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>177</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3378,14 +3390,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>182</v>
+        <v>72</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3395,11 +3407,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>102</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3411,14 +3423,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3428,14 +3440,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3444,14 +3456,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>213</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3461,14 +3473,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3477,7 +3489,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3494,14 +3506,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>103</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3510,14 +3522,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>216</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3527,49 +3539,82 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>59</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
-      <c r="P75" s="13">
-        <v>3486.8049999999998</v>
-      </c>
-      <c r="Q75" s="13"/>
-    </row>
-    <row r="76" ht="16.5" customHeight="1">
-      <c t="s" r="A76" s="14">
-        <v>218</v>
-      </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c t="s" r="G76" s="15">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
         <v>219</v>
       </c>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="16"/>
-      <c t="s" r="K76" s="17">
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
         <v>220</v>
       </c>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>22</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>109</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>221</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="P76" s="13">
+        <v>3515.665</v>
+      </c>
+      <c r="Q76" s="13"/>
+    </row>
+    <row r="77" ht="16.5" customHeight="1">
+      <c t="s" r="A77" s="14">
+        <v>222</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c t="s" r="G77" s="15">
+        <v>223</v>
+      </c>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+      <c t="s" r="K77" s="17">
+        <v>224</v>
+      </c>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="352">
+  <mergeCells count="357">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3918,10 +3963,15 @@
     <mergeCell ref="H74:K74"/>
     <mergeCell ref="L74:M74"/>
     <mergeCell ref="N74:O74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="K76:Q76"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="K77:Q77"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -365,6 +365,15 @@
     <t>GLYCERIN (EL-NILE) INFANTILE 6 SUPP.</t>
   </si>
   <si>
+    <t>IKSARONT 2.5 MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>330.00</t>
+  </si>
+  <si>
+    <t>330.0000</t>
+  </si>
+  <si>
     <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
   </si>
   <si>
@@ -677,7 +686,7 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 8:36 PM</t>
+    <t>Friday, 3 October, 2025 8:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2308,7 +2317,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2325,7 +2334,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2341,13 +2350,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2358,7 +2367,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2380,7 +2389,7 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2407,7 +2416,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2417,14 +2426,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2433,14 +2442,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2450,14 +2459,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>53</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2473,7 +2482,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2483,11 +2492,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>25</v>
@@ -2499,14 +2508,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2516,14 +2525,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2539,7 +2548,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2549,7 +2558,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2572,7 +2581,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2582,14 +2591,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>36</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2605,13 +2614,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2622,7 +2631,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2644,7 +2653,7 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2671,7 +2680,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2688,7 +2697,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2704,13 +2713,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2721,7 +2730,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2737,7 +2746,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2770,13 +2779,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2787,7 +2796,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2803,7 +2812,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2813,14 +2822,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>165</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2829,14 +2838,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2846,14 +2855,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2862,14 +2871,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2879,14 +2888,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2895,14 +2904,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>171</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2912,14 +2921,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>89</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>59</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2928,14 +2937,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2949,10 +2958,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>58</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2961,14 +2970,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>177</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2978,14 +2987,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>82</v>
+        <v>178</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2994,14 +3003,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3011,14 +3020,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>82</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3034,7 +3043,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3067,21 +3076,21 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>53</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3093,14 +3102,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>187</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3110,11 +3119,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3126,14 +3135,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3143,11 +3152,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>49</v>
+        <v>191</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>50</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3159,14 +3168,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3176,14 +3185,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>49</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3199,7 +3208,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>195</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3209,14 +3218,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3225,14 +3234,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3242,14 +3251,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3258,14 +3267,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3275,11 +3284,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3291,14 +3300,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3308,11 +3317,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3324,14 +3333,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>206</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3341,14 +3350,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>34</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>206</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3374,14 +3383,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>177</v>
+        <v>209</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3390,14 +3399,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3407,14 +3416,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>102</v>
+        <v>195</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>180</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3423,14 +3432,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>187</v>
+        <v>72</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3440,11 +3449,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>102</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3463,7 +3472,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3473,14 +3482,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3496,7 +3505,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3506,14 +3515,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3539,14 +3548,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>150</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>103</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3555,14 +3564,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>220</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3572,49 +3581,82 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>59</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
-      <c r="P76" s="13">
-        <v>3515.665</v>
-      </c>
-      <c r="Q76" s="13"/>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c t="s" r="A77" s="14">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
         <v>222</v>
       </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c t="s" r="G77" s="15">
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
         <v>223</v>
       </c>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="16"/>
-      <c t="s" r="K77" s="17">
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>22</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>109</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
         <v>224</v>
       </c>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
+      <c t="s" r="Q76" s="12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="P77" s="13">
+        <v>3845.665</v>
+      </c>
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" ht="16.5" customHeight="1">
+      <c t="s" r="A78" s="14">
+        <v>225</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c t="s" r="G78" s="15">
+        <v>226</v>
+      </c>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c t="s" r="K78" s="17">
+        <v>227</v>
+      </c>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="357">
+  <mergeCells count="362">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3968,10 +4010,15 @@
     <mergeCell ref="H75:K75"/>
     <mergeCell ref="L75:M75"/>
     <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="K78:Q78"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -368,10 +368,13 @@
     <t>IKSARONT 2.5 MG 30 F.C. TABLETS</t>
   </si>
   <si>
+    <t>-7:0</t>
+  </si>
+  <si>
     <t>330.00</t>
   </si>
   <si>
-    <t>330.0000</t>
+    <t>2640.0000</t>
   </si>
   <si>
     <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
@@ -407,6 +410,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>LASILACTONE 50/20MG 30 TAB.</t>
   </si>
   <si>
@@ -524,6 +536,15 @@
     <t>54.0000</t>
   </si>
   <si>
+    <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
     <t>VETOCETAMOL 24 TAB.</t>
   </si>
   <si>
@@ -686,7 +707,7 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 8:38 PM</t>
+    <t>Friday, 3 October, 2025 8:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2317,7 +2338,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2327,14 +2348,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2343,7 +2364,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2360,11 +2381,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>59</v>
@@ -2376,7 +2397,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2393,11 +2414,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>25</v>
@@ -2409,7 +2430,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2426,11 +2447,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>25</v>
@@ -2442,7 +2463,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2463,7 +2484,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>30</v>
@@ -2475,14 +2496,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2492,11 +2513,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>25</v>
@@ -2508,14 +2529,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2525,11 +2546,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>25</v>
@@ -2541,14 +2562,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2558,14 +2579,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2574,14 +2595,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2591,11 +2612,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2607,14 +2628,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2624,14 +2645,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2640,31 +2661,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2673,7 +2694,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2686,15 +2707,15 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>25</v>
@@ -2706,14 +2727,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2723,14 +2744,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2739,31 +2760,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2772,14 +2793,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2789,11 +2810,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>25</v>
@@ -2805,31 +2826,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2838,14 +2859,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>165</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2862,7 +2883,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>168</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2871,14 +2892,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2888,14 +2909,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2904,14 +2925,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2921,14 +2942,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2937,14 +2958,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2954,14 +2975,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>176</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2970,7 +2991,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2987,14 +3008,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>178</v>
+        <v>89</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>58</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3003,14 +3024,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3020,11 +3041,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>82</v>
+        <v>182</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>83</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>59</v>
@@ -3036,14 +3057,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3053,11 +3074,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>183</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3069,14 +3090,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>56</v>
+        <v>187</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3086,14 +3107,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>185</v>
+        <v>82</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>186</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3102,7 +3123,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3115,15 +3136,15 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>53</v>
+        <v>189</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3135,28 +3156,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>190</v>
+        <v>56</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3168,14 +3189,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3185,11 +3206,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>50</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3201,14 +3222,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>197</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3218,14 +3239,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3234,14 +3255,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>198</v>
+        <v>145</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3251,14 +3272,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3274,7 +3295,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>202</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3284,14 +3305,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3300,14 +3321,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3317,14 +3338,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3333,14 +3354,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3350,11 +3371,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3366,14 +3387,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>187</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3383,14 +3404,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>34</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>209</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3399,14 +3420,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>213</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3416,14 +3437,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>86</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>180</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3432,14 +3453,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3449,14 +3470,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>102</v>
+        <v>215</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>216</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3465,14 +3486,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>190</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3482,14 +3503,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>187</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3498,14 +3519,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>216</v>
+        <v>72</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3515,14 +3536,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>102</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>183</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3531,14 +3552,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>197</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3548,11 +3569,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3564,14 +3585,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>223</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3581,11 +3602,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>103</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>59</v>
@@ -3597,14 +3618,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>223</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3614,49 +3635,115 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>109</v>
+        <v>226</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>228</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>18</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>22</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>157</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q77" s="12">
         <v>59</v>
       </c>
     </row>
-    <row r="77" ht="25.5" customHeight="1">
-      <c r="P77" s="13">
-        <v>3845.665</v>
-      </c>
-      <c r="Q77" s="13"/>
-    </row>
-    <row r="78" ht="16.5" customHeight="1">
-      <c t="s" r="A78" s="14">
-        <v>225</v>
-      </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c t="s" r="G78" s="15">
-        <v>226</v>
-      </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="16"/>
-      <c t="s" r="K78" s="17">
-        <v>227</v>
-      </c>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>229</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>230</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>22</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>109</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>231</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="P79" s="13">
+        <v>6203.665</v>
+      </c>
+      <c r="Q79" s="13"/>
+    </row>
+    <row r="80" ht="16.5" customHeight="1">
+      <c t="s" r="A80" s="14">
+        <v>232</v>
+      </c>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c t="s" r="G80" s="15">
+        <v>233</v>
+      </c>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="16"/>
+      <c t="s" r="K80" s="17">
+        <v>234</v>
+      </c>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="362">
+  <mergeCells count="372">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4015,10 +4102,20 @@
     <mergeCell ref="H76:K76"/>
     <mergeCell ref="L76:M76"/>
     <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="K80:Q80"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -89,6 +89,21 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>-28.7100</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>AMPOFER 20MG/ML 5 AMP. FOR I.V. INJ./INF.</t>
   </si>
   <si>
@@ -146,9 +161,6 @@
     <t>BRUFEN 600MG 30 TAB</t>
   </si>
   <si>
-    <t>2:2</t>
-  </si>
-  <si>
     <t>99.00</t>
   </si>
   <si>
@@ -407,7 +419,10 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>24.0000</t>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>0.0000</t>
   </si>
   <si>
     <t>LARYPRO 20 LOZENGES</t>
@@ -659,7 +674,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>13:0</t>
+    <t>29.3200</t>
+  </si>
+  <si>
+    <t>14:1</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -707,7 +725,7 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 8:51 PM</t>
+    <t>Friday, 3 October, 2025 8:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1497,7 +1515,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1506,14 +1524,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1523,11 +1541,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>25</v>
@@ -1539,14 +1557,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1556,14 +1574,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1572,7 +1590,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1589,14 +1607,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1605,14 +1623,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1622,11 +1640,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>25</v>
@@ -1638,14 +1656,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1655,14 +1673,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1671,14 +1689,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1695,7 +1713,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1728,7 +1746,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>59</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1737,14 +1755,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1754,14 +1772,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>63</v>
-      </c>
-      <c t="s" r="Q19" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1777,7 +1795,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1787,11 +1805,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>25</v>
@@ -1803,14 +1821,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1827,7 +1845,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1849,7 +1867,7 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1857,7 +1875,7 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1869,31 +1887,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1902,14 +1920,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1919,14 +1937,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1942,7 +1960,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1952,14 +1970,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>59</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1968,14 +1986,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1985,14 +2003,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2001,14 +2019,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2025,7 +2043,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2041,7 +2059,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2051,14 +2069,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2067,14 +2085,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2084,14 +2102,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2124,7 +2142,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>78</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2140,7 +2158,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2150,14 +2168,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2166,28 +2184,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2199,20 +2217,20 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2223,7 +2241,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2239,7 +2257,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2249,14 +2267,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2265,14 +2283,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2282,14 +2300,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2298,14 +2316,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2315,14 +2333,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2331,14 +2349,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2348,14 +2366,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2371,7 +2389,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2381,14 +2399,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2397,31 +2415,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2430,28 +2448,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>25</v>
@@ -2463,14 +2481,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2480,14 +2498,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2496,14 +2514,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2513,14 +2531,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>57</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2529,14 +2547,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2546,11 +2564,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>25</v>
@@ -2562,14 +2580,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2579,11 +2597,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>25</v>
@@ -2595,14 +2613,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2612,14 +2630,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2628,14 +2646,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2645,11 +2663,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>36</v>
+        <v>147</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2661,14 +2679,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2678,14 +2696,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>41</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2694,31 +2712,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2727,28 +2745,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>25</v>
@@ -2760,14 +2778,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2777,14 +2795,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2793,31 +2811,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2826,14 +2844,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2843,11 +2861,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>25</v>
@@ -2859,31 +2877,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2892,14 +2910,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2909,14 +2927,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>172</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2932,7 +2950,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>174</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2942,14 +2960,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>177</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2958,14 +2976,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2975,11 +2993,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2991,14 +3009,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>181</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3008,14 +3026,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>179</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3024,14 +3042,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3041,14 +3059,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>182</v>
+        <v>93</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>59</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3057,14 +3075,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3074,14 +3092,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>58</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3090,14 +3108,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>187</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3107,14 +3125,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3123,14 +3141,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3140,14 +3158,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>189</v>
+        <v>86</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>190</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3156,14 +3174,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3173,11 +3191,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3189,28 +3207,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3222,14 +3240,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>197</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3239,11 +3257,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>198</v>
+        <v>57</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3255,14 +3273,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>145</v>
+        <v>202</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3272,11 +3290,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>49</v>
+        <v>203</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>50</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3288,14 +3306,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3305,14 +3323,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>202</v>
+        <v>53</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>203</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3321,14 +3339,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>205</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3338,14 +3356,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3354,14 +3372,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3371,14 +3389,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3387,14 +3405,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3404,11 +3422,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3420,14 +3438,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3437,11 +3455,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3453,14 +3471,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>218</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3470,14 +3488,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>34</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>216</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3486,7 +3504,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3503,14 +3521,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>86</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>187</v>
+        <v>222</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3519,14 +3537,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3536,14 +3554,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>102</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>192</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3552,14 +3570,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>197</v>
+        <v>76</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3569,11 +3587,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3585,14 +3603,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3602,14 +3620,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>190</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3618,14 +3636,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>229</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3635,14 +3653,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3651,7 +3669,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3668,14 +3686,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>157</v>
+        <v>232</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>103</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3684,14 +3702,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>230</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3701,49 +3719,82 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
-      <c r="P79" s="13">
-        <v>6203.665</v>
-      </c>
-      <c r="Q79" s="13"/>
-    </row>
-    <row r="80" ht="16.5" customHeight="1">
-      <c t="s" r="A80" s="14">
-        <v>232</v>
-      </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c t="s" r="G80" s="15">
-        <v>233</v>
-      </c>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="16"/>
-      <c t="s" r="K80" s="17">
-        <v>234</v>
-      </c>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>235</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>236</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>22</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>113</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>237</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="P80" s="13">
+        <v>6154.2749999999996</v>
+      </c>
+      <c r="Q80" s="13"/>
+    </row>
+    <row r="81" ht="16.5" customHeight="1">
+      <c t="s" r="A81" s="14">
+        <v>238</v>
+      </c>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c t="s" r="G81" s="15">
+        <v>239</v>
+      </c>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="16"/>
+      <c t="s" r="K81" s="17">
+        <v>240</v>
+      </c>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="372">
+  <mergeCells count="377">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4112,10 +4163,15 @@
     <mergeCell ref="H78:K78"/>
     <mergeCell ref="L78:M78"/>
     <mergeCell ref="N78:O78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="K80:Q80"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="K81:Q81"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -545,6 +545,15 @@
     <t>1:2</t>
   </si>
   <si>
+    <t>RICHI PANTHENOL ADVANCE GEL</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>URIPAN 5MG 30 TAB.</t>
   </si>
   <si>
@@ -716,6 +725,18 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>لزق حبوب</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -725,7 +746,7 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 8:56 PM</t>
+    <t>Friday, 3 October, 2025 8:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2983,21 +3004,21 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3009,14 +3030,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>181</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3026,11 +3047,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3049,7 +3070,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>184</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3059,14 +3080,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>93</v>
+        <v>185</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>184</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3075,14 +3096,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3092,14 +3113,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>187</v>
+        <v>93</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>63</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3108,14 +3129,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3129,10 +3150,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>62</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3141,14 +3162,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>192</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3158,14 +3179,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>86</v>
+        <v>193</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3174,14 +3195,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>195</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3191,14 +3212,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>194</v>
+        <v>86</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>195</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3214,7 +3235,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3247,21 +3268,21 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>57</v>
+        <v>200</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3273,14 +3294,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>202</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3290,11 +3311,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>203</v>
+        <v>57</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3306,14 +3327,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>150</v>
+        <v>205</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3323,11 +3344,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>53</v>
+        <v>206</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>54</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3339,14 +3360,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3356,14 +3377,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>207</v>
+        <v>53</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>208</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3379,7 +3400,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>210</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3389,14 +3410,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3405,14 +3426,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3422,14 +3443,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3438,14 +3459,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3455,11 +3476,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3471,14 +3492,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3488,11 +3509,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3504,14 +3525,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>221</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3521,14 +3542,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>222</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3537,7 +3558,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3554,14 +3575,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>90</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>192</v>
+        <v>225</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3570,14 +3591,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3587,14 +3608,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>106</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>195</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3603,14 +3624,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3620,11 +3641,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>226</v>
+        <v>106</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>227</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3643,7 +3664,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3653,14 +3674,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3676,7 +3697,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>232</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3686,14 +3707,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3719,14 +3740,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>162</v>
+        <v>235</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>107</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3735,14 +3756,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>236</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3752,49 +3773,115 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>237</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>63</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
-      <c r="P80" s="13">
-        <v>6154.2749999999996</v>
-      </c>
-      <c r="Q80" s="13"/>
-    </row>
-    <row r="81" ht="16.5" customHeight="1">
-      <c t="s" r="A81" s="14">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
         <v>238</v>
       </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c t="s" r="G81" s="15">
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
         <v>239</v>
       </c>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="16"/>
-      <c t="s" r="K81" s="17">
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>22</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
         <v>240</v>
       </c>
-      <c r="L81" s="17"/>
-      <c r="M81" s="17"/>
-      <c r="N81" s="17"/>
-      <c r="O81" s="17"/>
-      <c r="P81" s="17"/>
-      <c r="Q81" s="17"/>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>241</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>242</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>243</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>22</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>113</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>244</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="P82" s="13">
+        <v>6284.2749999999996</v>
+      </c>
+      <c r="Q82" s="13"/>
+    </row>
+    <row r="83" ht="16.5" customHeight="1">
+      <c t="s" r="A83" s="14">
+        <v>245</v>
+      </c>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c t="s" r="G83" s="15">
+        <v>246</v>
+      </c>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+      <c t="s" r="K83" s="17">
+        <v>247</v>
+      </c>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="377">
+  <mergeCells count="387">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4168,10 +4255,20 @@
     <mergeCell ref="H79:K79"/>
     <mergeCell ref="L79:M79"/>
     <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="K81:Q81"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="K83:Q83"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -746,7 +746,7 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 8:58 PM</t>
+    <t>Friday, 3 October, 2025 8:59 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -735,6 +735,15 @@
   </si>
   <si>
     <t>45.0000</t>
+  </si>
+  <si>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
   </si>
   <si>
     <t>محلول ملح</t>
@@ -3829,7 +3838,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>243</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3839,49 +3848,82 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>113</v>
+        <v>243</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>244</v>
       </c>
       <c t="s" r="Q81" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>245</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>246</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>22</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>113</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>247</v>
+      </c>
+      <c t="s" r="Q82" s="12">
         <v>63</v>
       </c>
     </row>
-    <row r="82" ht="25.5" customHeight="1">
-      <c r="P82" s="13">
-        <v>6284.2749999999996</v>
-      </c>
-      <c r="Q82" s="13"/>
-    </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c t="s" r="A83" s="14">
-        <v>245</v>
-      </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c t="s" r="G83" s="15">
-        <v>246</v>
-      </c>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="16"/>
-      <c t="s" r="K83" s="17">
-        <v>247</v>
-      </c>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="P83" s="13">
+        <v>6292.2749999999996</v>
+      </c>
+      <c r="Q83" s="13"/>
+    </row>
+    <row r="84" ht="16.5" customHeight="1">
+      <c t="s" r="A84" s="14">
+        <v>248</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c t="s" r="G84" s="15">
+        <v>249</v>
+      </c>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c t="s" r="K84" s="17">
+        <v>250</v>
+      </c>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="387">
+  <mergeCells count="392">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4265,10 +4307,15 @@
     <mergeCell ref="H81:K81"/>
     <mergeCell ref="L81:M81"/>
     <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="K84:Q84"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -245,6 +245,15 @@
     <t>12.00</t>
   </si>
   <si>
+    <t>CHOLEROSE 10MG 21 F.C.TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -317,13 +326,16 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>9:2</t>
+    <t>9:1</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>63.8400</t>
+    <t>79.6800</t>
+  </si>
+  <si>
+    <t>1:2</t>
   </si>
   <si>
     <t>E-MOX 125MG/5ML SUSP. 60ML</t>
@@ -374,6 +386,15 @@
     <t>16.0000</t>
   </si>
   <si>
+    <t>GABALEPSY 300MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
     <t>GLYCERIN (EL-NILE) INFANTILE 6 SUPP.</t>
   </si>
   <si>
@@ -512,6 +533,12 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -530,6 +557,15 @@
     <t>80.0000</t>
   </si>
   <si>
+    <t>PURGATON 20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>14.8500</t>
+  </si>
+  <si>
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
@@ -542,9 +578,6 @@
     <t>55.8600</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>RICHI PANTHENOL ADVANCE GEL</t>
   </si>
   <si>
@@ -731,9 +764,6 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>45.00</t>
-  </si>
-  <si>
     <t>45.0000</t>
   </si>
   <si>
@@ -755,7 +785,7 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 8:59 PM</t>
+    <t>Friday, 3 October, 2025 9:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1957,7 +1987,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1967,14 +1997,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>63</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2004,10 +2034,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2016,14 +2046,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2040,7 +2070,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>63</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2056,7 +2086,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2073,7 +2103,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2089,7 +2119,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2099,14 +2129,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2115,14 +2145,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2132,14 +2162,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2148,14 +2178,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2165,14 +2195,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2181,14 +2211,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2198,14 +2228,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>82</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2214,14 +2244,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2238,7 +2268,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2247,28 +2277,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2280,20 +2310,20 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2304,7 +2334,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2320,7 +2350,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2330,14 +2360,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2346,14 +2376,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2363,14 +2393,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2379,14 +2409,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2396,14 +2426,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2412,14 +2442,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2429,14 +2459,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2445,14 +2475,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2462,14 +2492,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2485,24 +2515,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>35</v>
+        <v>130</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2511,14 +2541,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2528,14 +2558,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2544,31 +2574,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>57</v>
+        <v>137</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2577,14 +2607,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2594,11 +2624,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>25</v>
@@ -2610,14 +2640,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2627,14 +2657,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>142</v>
+        <v>57</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2643,14 +2673,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2660,11 +2690,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>25</v>
@@ -2676,14 +2706,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2693,14 +2723,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2709,14 +2739,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2726,14 +2756,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2742,14 +2772,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2759,14 +2789,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2775,31 +2805,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>156</v>
+        <v>41</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2808,14 +2838,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2825,14 +2855,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2841,31 +2871,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2874,28 +2904,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>25</v>
@@ -2907,31 +2937,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2940,31 +2970,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2973,14 +3003,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2994,10 +3024,10 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>176</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>177</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3006,14 +3036,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3023,14 +3053,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3039,14 +3069,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3056,11 +3086,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>133</v>
+        <v>180</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3072,14 +3102,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>184</v>
+        <v>108</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3089,14 +3119,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>39</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3105,14 +3135,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3122,14 +3152,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>93</v>
+        <v>187</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3138,20 +3168,20 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>189</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3162,7 +3192,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3178,7 +3208,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3188,11 +3218,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>193</v>
+        <v>140</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>62</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3221,14 +3251,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>86</v>
+        <v>196</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3237,14 +3267,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3254,14 +3284,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>197</v>
+        <v>96</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>198</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3277,7 +3307,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3287,14 +3317,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3303,28 +3333,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>57</v>
+        <v>204</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>203</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3336,31 +3366,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>206</v>
+        <v>89</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>207</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3369,28 +3399,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>53</v>
+        <v>208</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>54</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3402,31 +3432,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3435,14 +3465,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>213</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3452,14 +3482,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>214</v>
+        <v>57</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3468,14 +3498,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3485,11 +3515,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3501,14 +3531,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>195</v>
+        <v>157</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3518,11 +3548,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>190</v>
+        <v>53</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>219</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3541,7 +3571,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>221</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3551,14 +3581,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3567,14 +3597,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>224</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3584,14 +3614,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>225</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3600,14 +3630,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>228</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3617,14 +3647,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>90</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>195</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3633,14 +3663,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>76</v>
+        <v>206</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3650,11 +3680,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>106</v>
+        <v>201</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>107</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3666,14 +3696,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3683,7 +3713,7 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
@@ -3699,14 +3729,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>232</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3716,14 +3746,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>198</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>63</v>
+        <v>236</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3732,7 +3762,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3749,14 +3779,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>236</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>206</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3765,14 +3795,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3782,14 +3812,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3798,14 +3828,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3838,7 +3868,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>243</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3848,14 +3878,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3871,7 +3901,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>246</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3881,49 +3911,181 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>113</v>
+        <v>246</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>247</v>
       </c>
       <c t="s" r="Q82" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>248</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>18</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>22</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>169</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q83" s="12">
         <v>63</v>
       </c>
     </row>
-    <row r="83" ht="24.75" customHeight="1">
-      <c r="P83" s="13">
-        <v>6292.2749999999996</v>
-      </c>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c t="s" r="A84" s="14">
-        <v>248</v>
-      </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c t="s" r="G84" s="15">
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
         <v>249</v>
       </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="16"/>
-      <c t="s" r="K84" s="17">
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
         <v>250</v>
       </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>22</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>183</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>251</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>252</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>18</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>22</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>253</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>254</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>255</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>256</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>22</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>117</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>257</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="P87" s="13">
+        <v>6424.1750000000002</v>
+      </c>
+      <c r="Q87" s="13"/>
+    </row>
+    <row r="88" ht="16.5" customHeight="1">
+      <c t="s" r="A88" s="14">
+        <v>258</v>
+      </c>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c t="s" r="G88" s="15">
+        <v>259</v>
+      </c>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+      <c t="s" r="K88" s="17">
+        <v>260</v>
+      </c>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="412">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4312,10 +4474,30 @@
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="K88:Q88"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -785,7 +785,7 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 9:00 PM</t>
+    <t>Friday, 3 October, 2025 9:02 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -338,6 +338,15 @@
     <t>1:2</t>
   </si>
   <si>
+    <t>DURICEF 500MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>E-MOX 125MG/5ML SUSP. 60ML</t>
   </si>
   <si>
@@ -437,6 +446,9 @@
     <t>17.8200</t>
   </si>
   <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -500,9 +512,6 @@
     <t xml:space="preserve">MOVXIR 50/500  TAB </t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
     <t>39.0000</t>
   </si>
   <si>
@@ -524,6 +533,15 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
     <t>PANADOL ACUTE HEAD COLD</t>
   </si>
   <si>
@@ -620,6 +638,21 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8203:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>XILONE 5MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
     <t>XITHRONE 500MG 5 F.C.TAB.</t>
   </si>
   <si>
@@ -713,9 +746,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>29.3200</t>
   </si>
   <si>
@@ -785,7 +815,7 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 9:02 PM</t>
+    <t>Friday, 3 October, 2025 9:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2284,7 +2314,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2317,13 +2347,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2350,24 +2380,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2376,14 +2406,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2400,7 +2430,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2416,7 +2446,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2433,7 +2463,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2449,7 +2479,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2482,7 +2512,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2492,14 +2522,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2508,14 +2538,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2525,14 +2555,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2541,14 +2571,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2565,7 +2595,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2581,13 +2611,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2598,7 +2628,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2620,7 +2650,7 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2647,7 +2677,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>143</v>
+        <v>35</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2657,14 +2687,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>57</v>
+        <v>143</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>144</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2680,7 +2710,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2690,14 +2720,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>147</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2706,14 +2736,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2723,14 +2753,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>149</v>
+        <v>57</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2739,14 +2769,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2756,11 +2786,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>25</v>
@@ -2772,14 +2802,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2789,14 +2819,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2805,14 +2835,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2822,14 +2852,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2838,14 +2868,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2855,14 +2885,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2871,31 +2901,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>85</v>
+        <v>161</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>163</v>
+        <v>41</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2904,14 +2934,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2921,14 +2951,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2937,31 +2967,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>169</v>
+        <v>110</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2970,28 +3000,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>25</v>
@@ -3003,14 +3033,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3020,14 +3050,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>74</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3036,31 +3066,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3069,31 +3099,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3102,14 +3132,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3119,11 +3149,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>25</v>
@@ -3135,31 +3165,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>108</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3168,7 +3198,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3181,15 +3211,15 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3201,14 +3231,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3218,14 +3248,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3234,14 +3264,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3251,14 +3281,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>39</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3267,7 +3297,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3280,18 +3310,18 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>96</v>
+        <v>196</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3300,14 +3330,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>200</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3317,14 +3347,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>201</v>
+        <v>143</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3333,14 +3363,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>201</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3350,11 +3380,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3366,14 +3396,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>206</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3383,14 +3413,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>90</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>63</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3399,14 +3429,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>206</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3416,14 +3446,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3432,14 +3462,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3456,7 +3486,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3472,21 +3502,21 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>214</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3498,28 +3528,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>216</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>218</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3531,31 +3561,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>157</v>
+        <v>217</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3564,7 +3594,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3577,18 +3607,18 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3597,31 +3627,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>224</v>
+        <v>60</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3630,14 +3660,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>228</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3647,11 +3677,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>57</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3663,14 +3693,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3680,11 +3710,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3696,14 +3726,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>232</v>
+        <v>161</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3713,11 +3743,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>201</v>
+        <v>53</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>230</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3729,7 +3759,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3746,14 +3776,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>236</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3762,14 +3792,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>235</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3779,14 +3809,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>93</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>206</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3802,7 +3832,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>76</v>
+        <v>239</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3812,11 +3842,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>111</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3828,14 +3858,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3845,7 +3875,7 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
@@ -3878,14 +3908,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3894,7 +3924,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3911,14 +3941,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>246</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3927,7 +3957,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3944,14 +3974,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>169</v>
+        <v>232</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>63</v>
+        <v>217</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3960,14 +3990,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>250</v>
+        <v>76</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3977,11 +4007,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>183</v>
+        <v>113</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>251</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3993,14 +4023,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>227</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4010,11 +4040,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4026,14 +4056,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4043,49 +4073,214 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>117</v>
+        <v>254</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>63</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
-      <c r="P87" s="13">
-        <v>6424.1750000000002</v>
-      </c>
-      <c r="Q87" s="13"/>
-    </row>
-    <row r="88" ht="16.5" customHeight="1">
-      <c t="s" r="A88" s="14">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>255</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>18</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>22</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>256</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>257</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
         <v>258</v>
       </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c t="s" r="G88" s="15">
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>18</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>22</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>172</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
         <v>259</v>
       </c>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="16"/>
-      <c t="s" r="K88" s="17">
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
         <v>260</v>
       </c>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>22</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>189</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>261</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>262</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>18</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>22</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>263</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>264</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>265</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>266</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>22</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>120</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>267</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="P92" s="13">
+        <v>6676.1750000000002</v>
+      </c>
+      <c r="Q92" s="13"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="14">
+        <v>268</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c t="s" r="G93" s="15">
+        <v>269</v>
+      </c>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c t="s" r="K93" s="17">
+        <v>270</v>
+      </c>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="412">
+  <mergeCells count="437">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4494,10 +4689,35 @@
     <mergeCell ref="H86:K86"/>
     <mergeCell ref="L86:M86"/>
     <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="K88:Q88"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="K93:Q93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -815,7 +815,7 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 9:12 PM</t>
+    <t>Friday, 3 October, 2025 9:17 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -395,6 +395,15 @@
     <t>16.0000</t>
   </si>
   <si>
+    <t>FUSI-ZON CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>GABALEPSY 300MG 30 CAPS.</t>
   </si>
   <si>
@@ -494,12 +503,15 @@
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>57.0000</t>
   </si>
   <si>
+    <t>MEPAFURAN 100 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
   </si>
   <si>
@@ -563,9 +575,6 @@
     <t>108.00</t>
   </si>
   <si>
-    <t>27.0000</t>
-  </si>
-  <si>
     <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
   </si>
   <si>
@@ -605,18 +614,30 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t>URINEX 24 CAPS</t>
+  </si>
+  <si>
     <t>URIPAN 5MG 30 TAB.</t>
   </si>
   <si>
     <t>54.0000</t>
   </si>
   <si>
+    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>26.00</t>
   </si>
   <si>
@@ -770,12 +791,15 @@
     <t>صوفي طويل جدا</t>
   </si>
   <si>
-    <t>16:0</t>
-  </si>
-  <si>
     <t>50.00</t>
   </si>
   <si>
+    <t>150.0000</t>
+  </si>
+  <si>
+    <t>قطن ازن كبير</t>
+  </si>
+  <si>
     <t>قياس سكر</t>
   </si>
   <si>
@@ -812,10 +836,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>Friday, 3 October, 2025 9:17 PM</t>
+    <t>Friday, 3 October, 2025 9:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2512,7 +2533,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2522,14 +2543,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>130</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2545,7 +2566,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2555,14 +2576,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>58</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2571,14 +2592,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2588,14 +2609,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2604,14 +2625,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2628,7 +2649,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2644,13 +2665,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2661,7 +2682,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2683,7 +2704,7 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2710,7 +2731,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2720,14 +2741,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2736,14 +2757,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2753,14 +2774,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2776,7 +2797,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2786,14 +2807,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>150</v>
+        <v>57</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2809,7 +2830,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2842,7 +2863,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2852,11 +2873,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>25</v>
@@ -2868,14 +2889,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2885,14 +2906,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>158</v>
+        <v>106</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2908,7 +2929,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2918,7 +2939,7 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -2941,7 +2962,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2951,14 +2972,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2967,28 +2988,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -3000,14 +3021,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3017,14 +3038,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3033,31 +3054,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>110</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3066,14 +3087,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3083,14 +3104,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3099,31 +3120,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3132,14 +3153,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3149,14 +3170,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>74</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3165,14 +3186,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3182,11 +3203,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>25</v>
@@ -3198,14 +3219,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3215,14 +3236,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>187</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3231,28 +3252,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>25</v>
@@ -3264,14 +3285,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>192</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3281,14 +3302,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3297,31 +3318,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3330,14 +3351,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>195</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3347,14 +3368,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>143</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3363,28 +3384,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>201</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>39</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3396,14 +3417,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3413,11 +3434,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>96</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>204</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>25</v>
@@ -3429,14 +3450,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>206</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3446,14 +3467,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>207</v>
+        <v>146</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3462,14 +3483,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3479,14 +3500,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3495,14 +3516,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>205</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3512,11 +3533,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>14</v>
+        <v>209</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3528,7 +3549,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3545,14 +3566,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>215</v>
+        <v>96</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>62</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3561,14 +3582,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3578,11 +3599,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>89</v>
+        <v>214</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>90</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>63</v>
@@ -3594,14 +3615,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>217</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3611,14 +3632,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3627,14 +3648,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3644,11 +3665,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>222</v>
+        <v>14</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>223</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3660,28 +3681,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>57</v>
+        <v>222</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>225</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3693,31 +3714,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>228</v>
+        <v>89</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>229</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3726,28 +3747,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>161</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>53</v>
+        <v>226</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>54</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3759,31 +3780,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3792,14 +3813,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>235</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3809,14 +3830,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>236</v>
+        <v>57</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3825,14 +3846,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3842,11 +3863,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3858,14 +3879,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>217</v>
+        <v>129</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3875,11 +3896,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>207</v>
+        <v>53</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>241</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3891,14 +3912,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>243</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3908,14 +3929,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3924,14 +3945,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3941,14 +3962,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>246</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3957,14 +3978,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>246</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3974,14 +3995,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>93</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>217</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3990,14 +4011,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4007,11 +4028,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>113</v>
+        <v>214</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>114</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4030,7 +4051,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4040,11 +4061,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4056,14 +4077,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>253</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4073,14 +4094,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>63</v>
+        <v>253</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4089,7 +4110,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4106,14 +4127,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>257</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>224</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4122,14 +4143,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4139,14 +4160,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>172</v>
+        <v>113</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4155,14 +4176,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4172,11 +4193,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>189</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4188,14 +4209,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>250</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4205,14 +4226,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4221,14 +4242,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>266</v>
+        <v>213</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4238,49 +4259,214 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>120</v>
+        <v>235</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
+        <v>236</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>263</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>18</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>22</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>264</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>265</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>266</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>18</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>22</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>176</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
         <v>267</v>
       </c>
-      <c t="s" r="Q91" s="12">
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>268</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>22</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>192</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>269</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>270</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>18</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>22</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>271</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>272</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>273</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>274</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>22</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>120</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q96" s="12">
         <v>63</v>
       </c>
     </row>
-    <row r="92" ht="25.5" customHeight="1">
-      <c r="P92" s="13">
-        <v>6676.1750000000002</v>
-      </c>
-      <c r="Q92" s="13"/>
-    </row>
-    <row r="93" ht="16.5" customHeight="1">
-      <c t="s" r="A93" s="14">
-        <v>268</v>
-      </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c t="s" r="G93" s="15">
-        <v>269</v>
-      </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="16"/>
-      <c t="s" r="K93" s="17">
-        <v>270</v>
-      </c>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="P97" s="13">
+        <v>6880.1750000000002</v>
+      </c>
+      <c r="Q97" s="13"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="14">
+        <v>275</v>
+      </c>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c t="s" r="G98" s="15">
+        <v>276</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c t="s" r="K98" s="17">
+        <v>277</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="437">
+  <mergeCells count="462">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4714,10 +4900,35 @@
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
     <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="K93:Q93"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="K98:Q98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -836,7 +836,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 9:39 PM</t>
+    <t>Friday, 3 October, 2025 10:07 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -836,7 +836,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 10:07 PM</t>
+    <t>Friday, 3 October, 2025 10:10 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -239,117 +239,123 @@
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>CHOLEROSE 10MG 21 F.C.TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DAVALINDI 200.000 I.U./ML 1 I.M AMP.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>112.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 100MG 5 SUPP</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>9:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>79.6800</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>DURICEF 500MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>E-MOX 125MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
     <t>5:0</t>
   </si>
   <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>CHOLEROSE 10MG 21 F.C.TAB</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DAVALINDI 200.000 I.U./ML 1 I.M AMP.</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>112.0000</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 100MG 5 SUPP</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>7:1</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>DOGMATIL 50MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>9:1</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>79.6800</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>DURICEF 500MG/5ML SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>E-MOX 125MG/5ML SUSP. 60ML</t>
-  </si>
-  <si>
     <t>30.00</t>
   </si>
   <si>
@@ -398,9 +404,6 @@
     <t>FUSI-ZON CREAM 15 GM</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>48.0000</t>
   </si>
   <si>
@@ -458,6 +461,18 @@
     <t>IVY ZAD SYRUP 120 ML</t>
   </si>
   <si>
+    <t>JOYPOX 60MG 3 TAB</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -836,7 +851,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 10:10 PM</t>
+    <t>Friday, 3 October, 2025 10:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2019,10 +2034,10 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2031,7 +2046,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2048,11 +2063,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>25</v>
@@ -2064,14 +2079,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2081,7 +2096,7 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
@@ -2097,14 +2112,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2114,11 +2129,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>25</v>
@@ -2130,14 +2145,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2147,11 +2162,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>63</v>
@@ -2163,7 +2178,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2180,11 +2195,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2196,14 +2211,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2213,11 +2228,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>25</v>
@@ -2229,7 +2244,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2246,11 +2261,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>35</v>
@@ -2262,14 +2277,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2279,11 +2294,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>25</v>
@@ -2295,14 +2310,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2312,14 +2327,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2328,7 +2343,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2345,11 +2360,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2361,14 +2376,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2378,11 +2393,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2394,7 +2409,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2411,11 +2426,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2427,14 +2442,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2444,11 +2459,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>25</v>
@@ -2460,7 +2475,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2477,11 +2492,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2493,14 +2508,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2510,11 +2525,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>25</v>
@@ -2526,14 +2541,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2543,11 +2558,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2559,7 +2574,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2576,11 +2591,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>25</v>
@@ -2592,7 +2607,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2625,14 +2640,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2642,11 +2657,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>72</v>
@@ -2658,7 +2673,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2675,11 +2690,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>63</v>
@@ -2691,7 +2706,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2708,11 +2723,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>25</v>
@@ -2724,7 +2739,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2741,11 +2756,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>25</v>
@@ -2757,7 +2772,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2790,14 +2805,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2807,14 +2822,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>57</v>
+        <v>152</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q47" s="12">
         <v>151</v>
-      </c>
-      <c t="s" r="Q47" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2823,14 +2838,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>25</v>
+        <v>155</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2840,14 +2855,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>153</v>
+        <v>57</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2856,14 +2871,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2873,11 +2888,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>25</v>
@@ -2889,14 +2904,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2906,11 +2921,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>25</v>
@@ -2922,14 +2937,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2939,14 +2954,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>161</v>
+        <v>107</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2955,14 +2970,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2972,11 +2987,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2988,14 +3003,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3005,14 +3020,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>146</v>
+        <v>41</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3021,14 +3036,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3038,14 +3053,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>63</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3054,31 +3069,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>110</v>
+        <v>173</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3087,28 +3102,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>111</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>25</v>
@@ -3120,14 +3135,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3137,14 +3152,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3153,7 +3168,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3170,11 +3185,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3186,31 +3201,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3219,28 +3234,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>74</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>25</v>
@@ -3252,28 +3267,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>166</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>25</v>
@@ -3285,31 +3300,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3318,14 +3333,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3335,14 +3350,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3351,14 +3366,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3368,14 +3383,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>108</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3384,31 +3399,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3417,31 +3432,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>93</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3450,14 +3465,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3467,14 +3482,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3483,14 +3498,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>205</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3500,11 +3515,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>206</v>
+        <v>147</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3516,14 +3531,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3533,11 +3548,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>39</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3549,14 +3564,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>210</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3566,14 +3581,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>96</v>
+        <v>214</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3582,14 +3597,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>213</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3599,14 +3614,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>214</v>
+        <v>97</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>63</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3615,14 +3630,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3632,11 +3647,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>63</v>
@@ -3648,14 +3663,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>222</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3665,14 +3680,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>14</v>
+        <v>223</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>15</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3681,7 +3696,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3698,11 +3713,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>222</v>
+        <v>14</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3714,14 +3729,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>224</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3731,14 +3746,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>89</v>
+        <v>227</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3747,14 +3762,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>229</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3764,14 +3779,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>226</v>
+        <v>90</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3780,14 +3795,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3797,11 +3812,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3813,28 +3828,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>57</v>
+        <v>234</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3846,14 +3861,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>234</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3863,11 +3878,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>235</v>
+        <v>57</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3879,14 +3894,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3896,11 +3911,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>53</v>
+        <v>240</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>54</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3912,14 +3927,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3929,14 +3944,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>239</v>
+        <v>53</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>240</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3945,14 +3960,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>242</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3962,14 +3977,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3978,14 +3993,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3995,14 +4010,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4011,14 +4026,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4028,11 +4043,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4044,14 +4059,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4061,11 +4076,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4077,14 +4092,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>255</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4094,14 +4109,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>253</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4110,7 +4125,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4127,14 +4142,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>93</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>224</v>
+        <v>258</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4143,14 +4158,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4160,14 +4175,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>113</v>
+        <v>244</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>229</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4176,14 +4191,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>234</v>
+        <v>114</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4193,11 +4208,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>115</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>258</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4209,14 +4224,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4226,14 +4241,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4242,14 +4257,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4259,14 +4274,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4275,14 +4290,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>18</v>
+        <v>218</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4292,11 +4307,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4308,7 +4323,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4325,14 +4340,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>176</v>
+        <v>269</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>114</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4341,14 +4356,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>268</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4358,14 +4373,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4374,14 +4389,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>18</v>
+        <v>273</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4391,11 +4406,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>271</v>
+        <v>197</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4407,14 +4422,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>274</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4424,49 +4439,82 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>120</v>
+        <v>276</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>130</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q96" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>278</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>279</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>22</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>122</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q97" s="12">
         <v>63</v>
       </c>
     </row>
-    <row r="97" ht="25.5" customHeight="1">
-      <c r="P97" s="13">
-        <v>6880.1750000000002</v>
-      </c>
-      <c r="Q97" s="13"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c t="s" r="A98" s="14">
-        <v>275</v>
-      </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c t="s" r="G98" s="15">
-        <v>276</v>
-      </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="16"/>
-      <c t="s" r="K98" s="17">
-        <v>277</v>
-      </c>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="P98" s="13">
+        <v>6945.1750000000002</v>
+      </c>
+      <c r="Q98" s="13"/>
+    </row>
+    <row r="99" ht="16.5" customHeight="1">
+      <c t="s" r="A99" s="14">
+        <v>280</v>
+      </c>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c t="s" r="G99" s="15">
+        <v>281</v>
+      </c>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="16"/>
+      <c t="s" r="K99" s="17">
+        <v>282</v>
+      </c>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="17"/>
+      <c r="P99" s="17"/>
+      <c r="Q99" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="462">
+  <mergeCells count="467">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4925,10 +4973,15 @@
     <mergeCell ref="H96:K96"/>
     <mergeCell ref="L96:M96"/>
     <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="K99:Q99"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -851,7 +851,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 10:11 PM</t>
+    <t>Friday, 3 October, 2025 10:15 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -149,6 +149,18 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>BETAFOS 1 AMP. 2ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>BETASERC 16MG 60 TAB</t>
   </si>
   <si>
@@ -200,9 +212,6 @@
     <t>86.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>CEREBROLYSIN 215.2MG/ML I.M./I.V. 5 AMPS (5ML)</t>
   </si>
   <si>
@@ -266,12 +275,21 @@
     <t>33.00</t>
   </si>
   <si>
+    <t>CONVENTIN XR 300MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>142.50</t>
   </si>
   <si>
@@ -314,6 +332,15 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>DIXVIT 10.000 I.U. 30 TABS.</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>39.6000</t>
+  </si>
+  <si>
     <t>DOGMATIL 50MG 30 CAPS.</t>
   </si>
   <si>
@@ -410,12 +437,6 @@
     <t>GABALEPSY 300MG 30 CAPS.</t>
   </si>
   <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>44.5500</t>
-  </si>
-  <si>
     <t>GLYCERIN (EL-NILE) INFANTILE 6 SUPP.</t>
   </si>
   <si>
@@ -536,6 +557,15 @@
     <t>280.0000</t>
   </si>
   <si>
+    <t>MOODAPEX 50MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>36.6300</t>
+  </si>
+  <si>
     <t xml:space="preserve">MOVXIR 50/500  TAB </t>
   </si>
   <si>
@@ -575,7 +605,7 @@
     <t>62.00</t>
   </si>
   <si>
-    <t>31.0000</t>
+    <t>93.0000</t>
   </si>
   <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
@@ -584,6 +614,9 @@
     <t>92.00</t>
   </si>
   <si>
+    <t>46.0000</t>
+  </si>
+  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -629,6 +662,15 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t>SORAL 30 MG 30CAPS</t>
+  </si>
+  <si>
+    <t>129.00</t>
+  </si>
+  <si>
+    <t>42.5700</t>
+  </si>
+  <si>
     <t>URINEX 24 CAPS</t>
   </si>
   <si>
@@ -719,6 +761,15 @@
     <t>84.0000</t>
   </si>
   <si>
+    <t>ZYROVAZET 10/20MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>294.00</t>
+  </si>
+  <si>
+    <t>97.0200</t>
+  </si>
+  <si>
     <t>بيروسول 300 مل</t>
   </si>
   <si>
@@ -851,7 +902,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 10:15 PM</t>
+    <t>Friday, 3 October, 2025 10:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1756,7 +1807,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1766,14 +1817,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1782,14 +1833,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1799,11 +1850,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>25</v>
@@ -1815,14 +1866,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1832,14 +1883,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1848,14 +1899,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1872,7 +1923,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1905,7 +1956,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>63</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1914,14 +1965,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1931,14 +1982,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1947,14 +1998,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1987,7 +2038,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1997,14 +2048,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2013,31 +2064,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2046,20 +2097,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -2070,7 +2121,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2086,7 +2137,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2096,14 +2147,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>63</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2133,10 +2184,10 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2145,14 +2196,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2169,7 +2220,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>63</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2185,7 +2236,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2202,7 +2253,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2218,7 +2269,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2228,14 +2279,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2244,14 +2295,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2261,14 +2312,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2317,7 +2368,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2327,14 +2378,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>109</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2343,14 +2394,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2360,14 +2411,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2376,14 +2427,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2393,14 +2444,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2409,31 +2460,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2442,14 +2493,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>121</v>
+        <v>47</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2459,14 +2510,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2475,14 +2526,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2492,11 +2543,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2508,31 +2559,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2541,14 +2592,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2558,14 +2609,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2574,14 +2625,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2591,14 +2642,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2607,14 +2658,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2624,14 +2675,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2640,14 +2691,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2657,14 +2708,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2673,14 +2724,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2690,14 +2741,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>63</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2706,31 +2757,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>145</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2739,14 +2790,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2756,14 +2807,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2772,14 +2823,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2789,14 +2840,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>20</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2812,24 +2863,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>151</v>
+        <v>35</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>151</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2838,14 +2889,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>155</v>
+        <v>35</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2855,14 +2906,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>57</v>
+        <v>154</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2871,14 +2922,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2888,14 +2939,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>159</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2904,14 +2955,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>37</v>
+        <v>158</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2921,14 +2972,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2937,14 +2988,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>27</v>
+        <v>162</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2954,14 +3005,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2970,14 +3021,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2987,14 +3038,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3003,14 +3054,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3020,14 +3071,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>169</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3043,7 +3094,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3053,7 +3104,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -3076,7 +3127,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3093,7 +3144,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3109,24 +3160,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3142,7 +3193,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3152,11 +3203,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>25</v>
@@ -3168,7 +3219,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3185,14 +3236,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3201,7 +3252,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3218,14 +3269,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3234,14 +3285,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3251,11 +3302,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>187</v>
+        <v>120</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>25</v>
@@ -3267,14 +3318,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3284,11 +3335,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>74</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>25</v>
@@ -3300,31 +3351,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3340,7 +3391,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3373,13 +3424,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3390,7 +3441,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3406,7 +3457,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3416,14 +3467,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>109</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3432,14 +3483,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3449,14 +3500,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3465,14 +3516,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3482,14 +3533,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>94</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3505,7 +3556,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3515,14 +3566,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3531,14 +3582,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3548,14 +3599,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>118</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3564,28 +3615,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>210</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>39</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3597,7 +3648,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3610,15 +3661,15 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>97</v>
+        <v>218</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>25</v>
@@ -3630,14 +3681,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>218</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3647,14 +3698,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>63</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3670,7 +3721,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>222</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3680,14 +3731,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>223</v>
+        <v>154</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3696,14 +3747,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>224</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3713,11 +3764,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>14</v>
+        <v>225</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>15</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3729,14 +3780,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>224</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3746,11 +3797,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3762,14 +3813,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>229</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3779,14 +3830,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>91</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>63</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3795,14 +3846,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>232</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3812,14 +3863,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3828,14 +3879,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>60</v>
+        <v>236</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3845,14 +3896,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3861,28 +3912,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>237</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3894,28 +3945,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>239</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>241</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3934,24 +3985,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>76</v>
+        <v>243</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3960,7 +4011,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3973,18 +4024,18 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3993,20 +4044,20 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>247</v>
+        <v>64</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
@@ -4017,7 +4068,7 @@
         <v>249</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4033,24 +4084,24 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>251</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4059,14 +4110,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>229</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4076,11 +4127,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>219</v>
+        <v>61</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4092,14 +4143,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4109,11 +4160,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>219</v>
+        <v>257</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4125,14 +4176,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4142,14 +4193,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>223</v>
+        <v>57</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>257</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>258</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4158,7 +4209,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4175,14 +4226,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>94</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>229</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4191,14 +4242,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>114</v>
+        <v>264</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4208,14 +4259,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>115</v>
+        <v>265</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>116</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4224,14 +4275,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4241,11 +4292,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4257,14 +4308,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4274,14 +4325,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4290,14 +4341,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>218</v>
+        <v>272</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4307,11 +4358,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4323,7 +4374,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4340,14 +4391,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>275</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4356,7 +4407,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4373,14 +4424,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>181</v>
+        <v>261</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>63</v>
+        <v>243</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4389,14 +4440,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>273</v>
+        <v>123</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4406,11 +4457,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>197</v>
+        <v>124</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>274</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4422,14 +4473,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>256</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4439,11 +4490,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4455,14 +4506,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4472,49 +4523,247 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>122</v>
+        <v>282</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
+        <v>283</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>284</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>232</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>22</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>257</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>258</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>285</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>18</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>22</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>286</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>287</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>288</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>18</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>22</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>191</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>289</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>290</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>22</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>208</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>291</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>292</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>18</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>22</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>293</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>294</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>295</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>296</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>22</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
         <v>131</v>
       </c>
-      <c t="s" r="Q97" s="12">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="98" ht="24.75" customHeight="1">
-      <c r="P98" s="13">
-        <v>6945.1750000000002</v>
-      </c>
-      <c r="Q98" s="13"/>
-    </row>
-    <row r="99" ht="16.5" customHeight="1">
-      <c t="s" r="A99" s="14">
-        <v>280</v>
-      </c>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c t="s" r="G99" s="15">
-        <v>281</v>
-      </c>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="16"/>
-      <c t="s" r="K99" s="17">
-        <v>282</v>
-      </c>
-      <c r="L99" s="17"/>
-      <c r="M99" s="17"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="17"/>
-      <c r="P99" s="17"/>
-      <c r="Q99" s="17"/>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="P104" s="13">
+        <v>7321.5450000000001</v>
+      </c>
+      <c r="Q104" s="13"/>
+    </row>
+    <row r="105" ht="16.5" customHeight="1">
+      <c t="s" r="A105" s="14">
+        <v>297</v>
+      </c>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c t="s" r="G105" s="15">
+        <v>298</v>
+      </c>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="16"/>
+      <c t="s" r="K105" s="17">
+        <v>299</v>
+      </c>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="17"/>
+      <c r="P105" s="17"/>
+      <c r="Q105" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="467">
+  <mergeCells count="497">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4978,10 +5227,40 @@
     <mergeCell ref="H97:K97"/>
     <mergeCell ref="L97:M97"/>
     <mergeCell ref="N97:O97"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="K99:Q99"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="K105:Q105"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -599,6 +599,9 @@
     <t>71.0000</t>
   </si>
   <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
     <t>PANADOL ACUTE HEAD COLD</t>
   </si>
   <si>
@@ -671,6 +674,15 @@
     <t>42.5700</t>
   </si>
   <si>
+    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>URINEX 24 CAPS</t>
   </si>
   <si>
@@ -857,9 +869,6 @@
     <t>صوفي طويل جدا</t>
   </si>
   <si>
-    <t>50.00</t>
-  </si>
-  <si>
     <t>150.0000</t>
   </si>
   <si>
@@ -902,7 +911,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 10:29 PM</t>
+    <t>Friday, 3 October, 2025 10:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3424,24 +3433,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>197</v>
+        <v>48</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>198</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3450,31 +3459,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>35</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3483,7 +3492,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3496,18 +3505,18 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3516,31 +3525,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3549,14 +3558,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3566,14 +3575,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3582,14 +3591,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>211</v>
+        <v>118</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3599,14 +3608,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>118</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3615,31 +3624,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>212</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>118</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3648,7 +3657,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3665,14 +3674,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3681,28 +3690,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>25</v>
@@ -3721,7 +3730,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3731,11 +3740,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>154</v>
+        <v>222</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3747,14 +3756,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>224</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3764,14 +3773,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>226</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3780,14 +3789,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>224</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3797,11 +3806,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>228</v>
+        <v>154</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>39</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3813,14 +3822,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>228</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3830,14 +3839,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>103</v>
+        <v>229</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>230</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3853,7 +3862,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3863,14 +3872,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>234</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3879,14 +3888,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>236</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3896,14 +3905,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>237</v>
+        <v>103</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3912,14 +3921,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>236</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3929,14 +3938,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>14</v>
+        <v>237</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>15</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3945,14 +3954,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>240</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3966,10 +3975,10 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>66</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3978,14 +3987,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>243</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3995,14 +4004,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4018,7 +4027,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4032,7 +4041,7 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>246</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4044,14 +4053,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>64</v>
+        <v>247</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4061,14 +4070,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>248</v>
+        <v>96</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>249</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4077,14 +4086,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4094,14 +4103,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4110,28 +4119,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>61</v>
+        <v>252</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4143,31 +4152,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4176,14 +4185,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4193,11 +4202,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4209,14 +4218,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4233,7 +4242,7 @@
         <v>262</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4249,7 +4258,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>264</v>
+        <v>79</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4259,14 +4268,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>265</v>
+        <v>57</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>266</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4275,14 +4284,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>268</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4292,14 +4301,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4308,14 +4317,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4325,14 +4334,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>270</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4358,11 +4367,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4381,7 +4390,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>18</v>
+        <v>247</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4398,7 +4407,7 @@
         <v>274</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>275</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4407,14 +4416,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>276</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4424,14 +4433,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>100</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>243</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4447,7 +4456,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4457,14 +4466,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>124</v>
+        <v>241</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>125</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>279</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4473,14 +4482,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>256</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4490,14 +4499,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>247</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4513,7 +4522,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>272</v>
+        <v>123</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4523,14 +4532,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>282</v>
+        <v>124</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>283</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4539,14 +4548,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4556,11 +4565,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4579,7 +4588,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>18</v>
+        <v>276</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4589,14 +4598,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>286</v>
+        <v>222</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4605,14 +4614,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>18</v>
+        <v>236</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4622,14 +4631,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>191</v>
+        <v>261</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>125</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4638,14 +4647,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>290</v>
+        <v>18</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4655,11 +4664,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>208</v>
+        <v>289</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4671,7 +4680,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4688,14 +4697,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>293</v>
+        <v>191</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>294</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4704,14 +4713,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4721,49 +4730,115 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>131</v>
+        <v>209</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
+        <v>294</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>295</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>18</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>22</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>296</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>297</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>298</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>299</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>22</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>131</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
         <v>140</v>
       </c>
-      <c t="s" r="Q103" s="12">
+      <c t="s" r="Q105" s="12">
         <v>47</v>
       </c>
     </row>
-    <row r="104" ht="25.5" customHeight="1">
-      <c r="P104" s="13">
-        <v>7321.5450000000001</v>
-      </c>
-      <c r="Q104" s="13"/>
-    </row>
-    <row r="105" ht="16.5" customHeight="1">
-      <c t="s" r="A105" s="14">
-        <v>297</v>
-      </c>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c t="s" r="G105" s="15">
-        <v>298</v>
-      </c>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="16"/>
-      <c t="s" r="K105" s="17">
-        <v>299</v>
-      </c>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="17"/>
-      <c r="Q105" s="17"/>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="P106" s="13">
+        <v>7402.5450000000001</v>
+      </c>
+      <c r="Q106" s="13"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c t="s" r="A107" s="14">
+        <v>300</v>
+      </c>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c t="s" r="G107" s="15">
+        <v>301</v>
+      </c>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c t="s" r="K107" s="17">
+        <v>302</v>
+      </c>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="497">
+  <mergeCells count="507">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5257,10 +5332,20 @@
     <mergeCell ref="H103:K103"/>
     <mergeCell ref="L103:M103"/>
     <mergeCell ref="N103:O103"/>
-    <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="K105:Q105"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="K107:Q107"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -608,7 +608,7 @@
     <t>62.00</t>
   </si>
   <si>
-    <t>93.0000</t>
+    <t>124.0000</t>
   </si>
   <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
@@ -755,6 +755,9 @@
     <t>7:0</t>
   </si>
   <si>
+    <t>ZISROCIN 500MG 3 CAP</t>
+  </si>
+  <si>
     <t>ZITHROMAX 900MG/22.5ML (200MG/5ML) SUSP.</t>
   </si>
   <si>
@@ -911,7 +914,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 10:31 PM</t>
+    <t>Friday, 3 October, 2025 10:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3466,7 +3469,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3483,7 +3486,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>89</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -4103,11 +4106,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>249</v>
+        <v>194</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4119,14 +4122,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4136,11 +4139,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4152,14 +4155,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4169,14 +4172,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4185,31 +4188,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>61</v>
+        <v>256</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4218,14 +4221,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>260</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4235,11 +4238,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>261</v>
+        <v>61</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4251,14 +4254,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>79</v>
+        <v>261</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4268,11 +4271,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>57</v>
+        <v>262</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>58</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4291,7 +4294,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4301,14 +4304,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>265</v>
+        <v>57</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>266</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4317,14 +4320,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>268</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4334,14 +4337,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4350,14 +4353,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4367,14 +4370,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4383,14 +4386,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4400,11 +4403,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4416,14 +4419,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4437,7 +4440,7 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4449,14 +4452,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>18</v>
+        <v>277</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4466,14 +4469,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>279</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4482,7 +4485,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4499,14 +4502,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>100</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>247</v>
+        <v>280</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4522,7 +4525,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4532,14 +4535,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>124</v>
+        <v>266</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>247</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4555,7 +4558,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>260</v>
+        <v>123</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4565,11 +4568,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>283</v>
+        <v>124</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>284</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4581,14 +4584,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4598,14 +4601,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>222</v>
+        <v>284</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4614,14 +4617,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>236</v>
+        <v>277</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4631,14 +4634,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4654,7 +4657,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>18</v>
+        <v>236</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4664,11 +4667,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4680,7 +4683,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4697,14 +4700,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>191</v>
+        <v>290</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>125</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4720,7 +4723,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>293</v>
+        <v>18</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4730,14 +4733,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>294</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4746,14 +4749,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>18</v>
+        <v>294</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4763,11 +4766,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>296</v>
+        <v>209</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4779,14 +4782,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>299</v>
+        <v>18</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4796,49 +4799,82 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>131</v>
+        <v>297</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
+        <v>298</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>299</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>300</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>22</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>131</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
         <v>140</v>
       </c>
-      <c t="s" r="Q105" s="12">
+      <c t="s" r="Q106" s="12">
         <v>47</v>
       </c>
     </row>
-    <row r="106" ht="25.5" customHeight="1">
-      <c r="P106" s="13">
-        <v>7402.5450000000001</v>
-      </c>
-      <c r="Q106" s="13"/>
-    </row>
-    <row r="107" ht="16.5" customHeight="1">
-      <c t="s" r="A107" s="14">
-        <v>300</v>
-      </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c t="s" r="G107" s="15">
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="P107" s="13">
+        <v>7504.5450000000001</v>
+      </c>
+      <c r="Q107" s="13"/>
+    </row>
+    <row r="108" ht="16.5" customHeight="1">
+      <c t="s" r="A108" s="14">
         <v>301</v>
       </c>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="16"/>
-      <c t="s" r="K107" s="17">
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c t="s" r="G108" s="15">
         <v>302</v>
       </c>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="16"/>
+      <c t="s" r="K108" s="17">
+        <v>303</v>
+      </c>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="17"/>
+      <c r="P108" s="17"/>
+      <c r="Q108" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="507">
+  <mergeCells count="512">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5342,10 +5378,15 @@
     <mergeCell ref="H105:K105"/>
     <mergeCell ref="L105:M105"/>
     <mergeCell ref="N105:O105"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="K107:Q107"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="K108:Q108"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -536,6 +536,15 @@
     <t>41.0000</t>
   </si>
   <si>
+    <t>MALINDA SKIN CLEANSER GEL 200ML</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>300.0000</t>
+  </si>
+  <si>
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
   </si>
   <si>
@@ -914,7 +923,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 10:32 PM</t>
+    <t>Friday, 3 October, 2025 10:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3172,7 +3181,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3182,11 +3191,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>41</v>
+        <v>176</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3198,14 +3207,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3215,14 +3224,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>154</v>
+        <v>41</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3231,14 +3240,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3248,14 +3257,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3288,7 +3297,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3304,21 +3313,21 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>120</v>
+        <v>186</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>25</v>
@@ -3330,7 +3339,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3343,11 +3352,11 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>188</v>
+        <v>120</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3370,7 +3379,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3387,7 +3396,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3436,7 +3445,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3446,11 +3455,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>48</v>
+        <v>197</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>49</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3462,31 +3471,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>48</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3502,13 +3511,13 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3519,7 +3528,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3541,7 +3550,7 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3549,10 +3558,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3561,31 +3570,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3601,7 +3610,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3618,7 +3627,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3634,7 +3643,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>212</v>
+        <v>118</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3644,14 +3653,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>118</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3660,20 +3669,20 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3684,7 +3693,7 @@
         <v>217</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>118</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3717,7 +3726,7 @@
         <v>220</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3733,13 +3742,13 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3750,7 +3759,7 @@
         <v>223</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3766,7 +3775,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3776,14 +3785,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3792,14 +3801,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3809,14 +3818,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>226</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3825,14 +3834,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>228</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3842,11 +3851,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>229</v>
+        <v>154</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3858,14 +3867,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3879,7 +3888,7 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>39</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3891,14 +3900,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>231</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3908,14 +3917,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>103</v>
+        <v>235</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>234</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3924,14 +3933,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>236</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3941,14 +3950,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>237</v>
+        <v>103</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3957,14 +3966,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3974,11 +3983,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>47</v>
@@ -3990,14 +3999,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>243</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4007,14 +4016,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4023,7 +4032,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4040,11 +4049,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>245</v>
+        <v>14</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4056,14 +4065,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>247</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4073,14 +4082,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>96</v>
+        <v>248</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4089,14 +4098,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>250</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4106,14 +4115,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>194</v>
+        <v>96</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>195</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4122,7 +4131,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4139,11 +4148,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>250</v>
+        <v>197</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>251</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4162,7 +4171,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4195,7 +4204,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4212,7 +4221,7 @@
         <v>257</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4228,24 +4237,24 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>61</v>
+        <v>259</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4254,14 +4263,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>261</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4271,11 +4280,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>262</v>
+        <v>61</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4287,14 +4296,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4304,11 +4313,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>57</v>
+        <v>265</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>58</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4320,14 +4329,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4337,14 +4346,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>266</v>
+        <v>57</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>267</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4360,7 +4369,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>269</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4370,14 +4379,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4386,14 +4395,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4403,14 +4412,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4419,14 +4428,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4436,11 +4445,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4452,14 +4461,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4469,11 +4478,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4485,14 +4494,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>280</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4502,14 +4511,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>280</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4535,14 +4544,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>100</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>247</v>
+        <v>283</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4551,14 +4560,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4568,14 +4577,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>124</v>
+        <v>269</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>250</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4584,14 +4593,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>261</v>
+        <v>123</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4601,11 +4610,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>284</v>
+        <v>124</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>285</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4624,7 +4633,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4634,14 +4643,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>222</v>
+        <v>287</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4650,14 +4659,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>236</v>
+        <v>280</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4667,14 +4676,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4683,14 +4692,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>18</v>
+        <v>239</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4700,11 +4709,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4733,14 +4742,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>191</v>
+        <v>293</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>125</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4749,14 +4758,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>294</v>
+        <v>18</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4766,14 +4775,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>295</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4789,7 +4798,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>18</v>
+        <v>297</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4799,7 +4808,7 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>297</v>
+        <v>212</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
@@ -4822,7 +4831,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>300</v>
+        <v>18</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4832,49 +4841,82 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>131</v>
+        <v>300</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
+        <v>301</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>302</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>303</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>22</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>131</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
         <v>140</v>
       </c>
-      <c t="s" r="Q106" s="12">
+      <c t="s" r="Q107" s="12">
         <v>47</v>
       </c>
     </row>
-    <row r="107" ht="25.5" customHeight="1">
-      <c r="P107" s="13">
-        <v>7504.5450000000001</v>
-      </c>
-      <c r="Q107" s="13"/>
-    </row>
-    <row r="108" ht="16.5" customHeight="1">
-      <c t="s" r="A108" s="14">
-        <v>301</v>
-      </c>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c t="s" r="G108" s="15">
-        <v>302</v>
-      </c>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="16"/>
-      <c t="s" r="K108" s="17">
-        <v>303</v>
-      </c>
-      <c r="L108" s="17"/>
-      <c r="M108" s="17"/>
-      <c r="N108" s="17"/>
-      <c r="O108" s="17"/>
-      <c r="P108" s="17"/>
-      <c r="Q108" s="17"/>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="P108" s="13">
+        <v>7804.5450000000001</v>
+      </c>
+      <c r="Q108" s="13"/>
+    </row>
+    <row r="109" ht="16.5" customHeight="1">
+      <c t="s" r="A109" s="14">
+        <v>304</v>
+      </c>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c t="s" r="G109" s="15">
+        <v>305</v>
+      </c>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="16"/>
+      <c t="s" r="K109" s="17">
+        <v>306</v>
+      </c>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="17"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="512">
+  <mergeCells count="517">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5383,10 +5425,15 @@
     <mergeCell ref="H106:K106"/>
     <mergeCell ref="L106:M106"/>
     <mergeCell ref="N106:O106"/>
-    <mergeCell ref="P107:Q107"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="K108:Q108"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="K109:Q109"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -200,6 +200,15 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
@@ -611,6 +620,15 @@
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
+    <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>PANADOL ACUTE HEAD COLD</t>
   </si>
   <si>
@@ -623,10 +641,13 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
+    <t>2:3</t>
+  </si>
+  <si>
     <t>92.00</t>
   </si>
   <si>
-    <t>46.0000</t>
+    <t>69.0000</t>
   </si>
   <si>
     <t>PANADOL EXTRA 48 TAB</t>
@@ -683,6 +704,9 @@
     <t>42.5700</t>
   </si>
   <si>
+    <t>TEGRETOL CR 400MG 20 F.C. DIVITABS</t>
+  </si>
+  <si>
     <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
   </si>
   <si>
@@ -755,9 +779,6 @@
     <t>XITHRONE 500MG 5 F.C.TAB.</t>
   </si>
   <si>
-    <t>86.00</t>
-  </si>
-  <si>
     <t>XORAXON 1GM I.M. VIAL</t>
   </si>
   <si>
@@ -806,12 +827,6 @@
     <t>27:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>جونتي عمال</t>
   </si>
   <si>
@@ -923,7 +938,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 10:33 PM</t>
+    <t>Friday, 3 October, 2025 10:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1993,7 +2008,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2003,14 +2018,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2019,14 +2034,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2036,14 +2051,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2052,14 +2067,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2092,7 +2107,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2102,14 +2117,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2118,31 +2133,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2151,20 +2166,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -2175,7 +2190,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2191,7 +2206,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2201,14 +2216,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2238,10 +2253,10 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2250,14 +2265,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2290,7 +2305,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2307,7 +2322,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2323,7 +2338,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2340,7 +2355,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2356,7 +2371,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2366,14 +2381,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2382,14 +2397,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2399,14 +2414,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2415,14 +2430,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2432,14 +2447,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2455,7 +2470,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2465,11 +2480,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>25</v>
@@ -2481,14 +2496,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2498,14 +2513,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>118</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2514,14 +2529,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2531,14 +2546,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>121</v>
-      </c>
-      <c t="s" r="Q36" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2554,7 +2569,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2564,11 +2579,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2580,20 +2595,20 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2620,24 +2635,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2646,14 +2661,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2670,7 +2685,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2686,7 +2701,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2703,7 +2718,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2719,7 +2734,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2729,14 +2744,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2745,14 +2760,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2762,14 +2777,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2778,14 +2793,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2795,14 +2810,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2811,14 +2826,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2828,14 +2843,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>146</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2844,14 +2859,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2868,7 +2883,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>47</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2884,13 +2899,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2901,7 +2916,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2923,7 +2938,7 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2950,7 +2965,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2960,14 +2975,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2976,14 +2991,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2993,14 +3008,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>158</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3009,14 +3024,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3026,14 +3041,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>61</v>
+        <v>162</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>163</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3049,7 +3064,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3059,14 +3074,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>165</v>
+        <v>61</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>166</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3082,7 +3097,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3115,7 +3130,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3125,11 +3140,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>116</v>
+        <v>171</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>25</v>
@@ -3141,14 +3156,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3158,14 +3173,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>173</v>
+        <v>119</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>174</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3181,7 +3196,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3214,7 +3229,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3224,11 +3239,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3240,14 +3255,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3257,14 +3272,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>154</v>
+        <v>41</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3273,14 +3288,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3290,14 +3305,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3330,7 +3345,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3346,21 +3361,21 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>120</v>
+        <v>189</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>25</v>
@@ -3372,24 +3387,24 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>191</v>
+        <v>123</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3412,7 +3427,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3429,7 +3444,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3478,7 +3493,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3488,11 +3503,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>48</v>
+        <v>200</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>49</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3504,31 +3519,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>48</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3544,7 +3559,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3561,7 +3576,7 @@
         <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3577,7 +3592,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3591,10 +3606,10 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3603,14 +3618,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>210</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3620,14 +3635,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>161</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3636,28 +3651,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>25</v>
@@ -3669,14 +3684,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>215</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3693,7 +3708,7 @@
         <v>217</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>118</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3709,13 +3724,13 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3726,7 +3741,7 @@
         <v>220</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3742,24 +3757,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>222</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3768,28 +3783,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3801,28 +3816,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>25</v>
@@ -3834,14 +3849,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3851,14 +3866,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>229</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3867,14 +3882,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>231</v>
+        <v>78</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3884,11 +3899,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3900,14 +3915,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>231</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3917,14 +3932,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3940,7 +3955,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3950,14 +3965,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>237</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3990,7 +4005,7 @@
         <v>241</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4006,7 +4021,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4016,14 +4031,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>245</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4032,7 +4047,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4049,14 +4064,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4065,14 +4080,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>247</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4086,10 +4101,10 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>66</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4098,14 +4113,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4115,11 +4130,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>96</v>
+        <v>252</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>97</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>47</v>
@@ -4131,14 +4146,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4148,11 +4163,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>197</v>
+        <v>14</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>198</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4164,14 +4179,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4181,11 +4196,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>253</v>
+        <v>64</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>254</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4197,14 +4212,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>64</v>
+        <v>257</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4214,14 +4229,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>256</v>
+        <v>99</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>257</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4237,7 +4252,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4247,14 +4262,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>259</v>
+        <v>200</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>260</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4263,7 +4278,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4276,15 +4291,15 @@
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>61</v>
+        <v>260</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4296,28 +4311,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>264</v>
+        <v>67</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4329,31 +4344,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>57</v>
+        <v>266</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>58</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4379,14 +4394,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>269</v>
+        <v>61</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4395,14 +4410,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4412,14 +4427,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>273</v>
+        <v>204</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>274</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4428,14 +4443,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>276</v>
+        <v>82</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4445,11 +4460,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>265</v>
+        <v>57</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4461,14 +4476,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>250</v>
+        <v>18</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4478,14 +4493,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4494,14 +4509,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4511,14 +4526,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>240</v>
+        <v>278</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4527,14 +4542,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>18</v>
+        <v>281</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4544,14 +4559,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>282</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>283</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4560,14 +4575,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>18</v>
+        <v>257</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4577,14 +4592,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>100</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>250</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4593,14 +4608,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>123</v>
+        <v>285</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4610,11 +4625,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>124</v>
+        <v>248</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>125</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4633,7 +4648,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>264</v>
+        <v>18</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4643,14 +4658,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
+        <v>287</v>
+      </c>
+      <c t="s" r="Q100" s="12">
         <v>288</v>
-      </c>
-      <c t="s" r="Q100" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4666,7 +4681,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>280</v>
+        <v>18</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4676,14 +4691,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>225</v>
+        <v>274</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>290</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>257</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4692,14 +4707,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>239</v>
+        <v>126</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4709,11 +4724,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>265</v>
+        <v>127</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>266</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4725,14 +4740,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>18</v>
+        <v>271</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4742,11 +4757,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4758,14 +4773,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>18</v>
+        <v>285</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4775,14 +4790,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>194</v>
+        <v>233</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>125</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4798,7 +4813,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>297</v>
+        <v>247</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4808,11 +4823,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>298</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4824,7 +4839,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4841,11 +4856,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4857,14 +4872,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>303</v>
+        <v>18</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4874,49 +4889,148 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>47</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
-      <c r="P108" s="13">
-        <v>7804.5450000000001</v>
-      </c>
-      <c r="Q108" s="13"/>
-    </row>
-    <row r="109" ht="16.5" customHeight="1">
-      <c t="s" r="A109" s="14">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>301</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>302</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>22</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>219</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>303</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
         <v>304</v>
       </c>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c t="s" r="G109" s="15">
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>18</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>22</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
         <v>305</v>
       </c>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="16"/>
-      <c t="s" r="K109" s="17">
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
         <v>306</v>
       </c>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="17"/>
-      <c r="O109" s="17"/>
-      <c r="P109" s="17"/>
-      <c r="Q109" s="17"/>
+      <c t="s" r="Q109" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>307</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>308</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>22</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>134</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="P111" s="13">
+        <v>7943.5450000000001</v>
+      </c>
+      <c r="Q111" s="13"/>
+    </row>
+    <row r="112" ht="16.5" customHeight="1">
+      <c t="s" r="A112" s="14">
+        <v>309</v>
+      </c>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c t="s" r="G112" s="15">
+        <v>310</v>
+      </c>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="16"/>
+      <c t="s" r="K112" s="17">
+        <v>311</v>
+      </c>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="17"/>
+      <c r="P112" s="17"/>
+      <c r="Q112" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="517">
+  <mergeCells count="532">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5430,10 +5544,25 @@
     <mergeCell ref="H107:K107"/>
     <mergeCell ref="L107:M107"/>
     <mergeCell ref="N107:O107"/>
-    <mergeCell ref="P108:Q108"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="K109:Q109"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="K112:Q112"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -938,7 +938,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 10:35 PM</t>
+    <t>Friday, 3 October, 2025 10:37 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -677,13 +677,13 @@
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
-    <t>4:4</t>
+    <t>4:2</t>
   </si>
   <si>
     <t>42.00</t>
   </si>
   <si>
-    <t>55.8600</t>
+    <t>69.7200</t>
   </si>
   <si>
     <t>RICHI PANTHENOL ADVANCE GEL</t>
@@ -815,6 +815,12 @@
     <t>97.0200</t>
   </si>
   <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
     <t>بيروسول 300 مل</t>
   </si>
   <si>
@@ -938,7 +944,10 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 10:37 PM</t>
+    <t>مس جانتينا سبراي</t>
+  </si>
+  <si>
+    <t>Friday, 3 October, 2025 10:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3774,7 +3783,7 @@
         <v>224</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>121</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -4384,7 +4393,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>18</v>
+        <v>269</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4394,11 +4403,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>269</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4417,7 +4426,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>271</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4427,11 +4436,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>204</v>
+        <v>61</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>205</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4450,7 +4459,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>82</v>
+        <v>273</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4460,11 +4469,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>57</v>
+        <v>204</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>58</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4476,14 +4485,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4493,14 +4502,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>274</v>
+        <v>57</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>275</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4509,14 +4518,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>277</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4526,14 +4535,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4542,14 +4551,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4559,14 +4568,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>204</v>
+        <v>280</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>205</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4582,7 +4591,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4592,11 +4601,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>248</v>
+        <v>204</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>283</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4615,7 +4624,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4629,7 +4638,7 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4648,7 +4657,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>18</v>
+        <v>287</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4658,14 +4667,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>288</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4674,7 +4683,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4691,14 +4700,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>103</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>257</v>
+        <v>290</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4707,14 +4716,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4724,14 +4733,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>127</v>
+        <v>276</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>257</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4740,14 +4749,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>271</v>
+        <v>126</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4757,11 +4766,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>292</v>
+        <v>127</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>293</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4773,14 +4782,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4790,14 +4799,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>233</v>
+        <v>294</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
         <v>295</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4813,7 +4822,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4823,14 +4832,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>205</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4839,14 +4848,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>18</v>
+        <v>247</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4856,11 +4865,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>298</v>
+        <v>204</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>299</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4872,7 +4881,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4889,14 +4898,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>197</v>
+        <v>300</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>128</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4905,14 +4914,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>302</v>
+        <v>18</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4922,14 +4931,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>303</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4938,14 +4947,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>18</v>
+        <v>304</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4955,11 +4964,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>305</v>
+        <v>219</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4971,14 +4980,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>308</v>
+        <v>18</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4988,49 +4997,115 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>134</v>
+        <v>307</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
+        <v>308</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>309</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>310</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>22</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>134</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
         <v>143</v>
       </c>
-      <c t="s" r="Q110" s="12">
+      <c t="s" r="Q111" s="12">
         <v>47</v>
       </c>
     </row>
-    <row r="111" ht="25.5" customHeight="1">
-      <c r="P111" s="13">
-        <v>7943.5450000000001</v>
-      </c>
-      <c r="Q111" s="13"/>
-    </row>
-    <row r="112" ht="16.5" customHeight="1">
-      <c t="s" r="A112" s="14">
-        <v>309</v>
-      </c>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c t="s" r="G112" s="15">
-        <v>310</v>
-      </c>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="16"/>
-      <c t="s" r="K112" s="17">
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
         <v>311</v>
       </c>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="17"/>
-      <c r="O112" s="17"/>
-      <c r="P112" s="17"/>
-      <c r="Q112" s="17"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>16</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>22</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>204</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>205</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="P113" s="13">
+        <v>8007.4049999999997</v>
+      </c>
+      <c r="Q113" s="13"/>
+    </row>
+    <row r="114" ht="16.5" customHeight="1">
+      <c t="s" r="A114" s="14">
+        <v>312</v>
+      </c>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c t="s" r="G114" s="15">
+        <v>313</v>
+      </c>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+      <c t="s" r="K114" s="17">
+        <v>314</v>
+      </c>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="532">
+  <mergeCells count="542">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5559,10 +5634,20 @@
     <mergeCell ref="H110:K110"/>
     <mergeCell ref="L110:M110"/>
     <mergeCell ref="N110:O110"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="K112:Q112"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="K114:Q114"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -446,6 +446,15 @@
     <t>GABALEPSY 300MG 30 CAPS.</t>
   </si>
   <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>GLYCERIN (EL-NILE) INFANTILE 6 SUPP.</t>
   </si>
   <si>
@@ -518,9 +527,6 @@
     <t>44.00</t>
   </si>
   <si>
-    <t>22.0000</t>
-  </si>
-  <si>
     <t>LASILACTONE 50/20MG 30 TAB.</t>
   </si>
   <si>
@@ -590,6 +596,15 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
   </si>
   <si>
@@ -818,7 +833,10 @@
     <t xml:space="preserve">برفان القصاص </t>
   </si>
   <si>
-    <t>17:0</t>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>90.0000</t>
   </si>
   <si>
     <t>بيروسول 300 مل</t>
@@ -870,9 +888,6 @@
   </si>
   <si>
     <t>رول اون ريكسونا25</t>
-  </si>
-  <si>
-    <t>15:0</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -2852,11 +2867,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>62</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2868,14 +2883,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2885,14 +2900,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>148</v>
+        <v>83</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>149</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2901,14 +2916,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2925,7 +2940,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>47</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2941,13 +2956,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2958,7 +2973,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2980,7 +2995,7 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -3007,7 +3022,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3017,14 +3032,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>19</v>
+        <v>160</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3033,14 +3048,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3050,14 +3065,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>162</v>
+        <v>19</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>163</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>161</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3066,14 +3081,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3083,14 +3098,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>61</v>
+        <v>165</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>166</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3106,7 +3121,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>25</v>
+        <v>168</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3116,14 +3131,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>168</v>
+        <v>61</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>169</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3139,7 +3154,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3153,7 +3168,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>25</v>
@@ -3165,14 +3180,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3182,7 +3197,7 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>119</v>
+        <v>173</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -3205,7 +3220,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3215,14 +3230,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>176</v>
+        <v>119</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3231,14 +3246,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3248,11 +3263,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3264,14 +3279,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3281,7 +3296,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3304,7 +3319,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3314,14 +3329,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>157</v>
+        <v>41</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3337,7 +3352,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3347,14 +3362,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3363,7 +3378,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3380,14 +3395,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3396,24 +3411,24 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>123</v>
+        <v>191</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3442,15 +3457,15 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>194</v>
+        <v>123</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>25</v>
@@ -3462,14 +3477,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3479,14 +3494,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3495,14 +3510,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3512,14 +3527,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3528,14 +3543,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3545,11 +3560,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>48</v>
+        <v>202</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>49</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3561,14 +3576,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3578,11 +3593,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3594,31 +3609,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>207</v>
+        <v>48</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>208</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3627,14 +3642,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>210</v>
+        <v>82</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3644,14 +3659,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>161</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3660,14 +3675,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3677,14 +3692,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3693,14 +3708,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3717,7 +3732,7 @@
         <v>217</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>164</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3733,13 +3748,13 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3747,7 +3762,7 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>25</v>
@@ -3759,14 +3774,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>222</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3776,14 +3791,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3792,31 +3807,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3825,31 +3840,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>227</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3858,31 +3873,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>162</v>
+        <v>231</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>163</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3891,31 +3906,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3924,14 +3939,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3941,11 +3956,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>165</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>103</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>25</v>
@@ -3957,14 +3972,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3974,11 +3989,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>157</v>
+        <v>238</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3990,14 +4005,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>239</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4007,14 +4022,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>241</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4023,14 +4038,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4040,11 +4055,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>243</v>
+        <v>160</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>39</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4056,14 +4071,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>244</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4073,14 +4088,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>106</v>
+        <v>245</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4089,14 +4104,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4110,10 +4125,10 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>249</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4122,14 +4137,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>251</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4139,14 +4154,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>252</v>
+        <v>106</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4155,14 +4170,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>252</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4172,14 +4187,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>14</v>
+        <v>253</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>15</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4195,7 +4210,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4205,14 +4220,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>64</v>
+        <v>257</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>69</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4221,14 +4236,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>257</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4238,14 +4253,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4254,14 +4269,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4271,11 +4286,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>200</v>
+        <v>64</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>201</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4287,14 +4302,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>262</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4304,14 +4319,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>260</v>
+        <v>99</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>261</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4320,14 +4335,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4337,11 +4352,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>263</v>
+        <v>205</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>264</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4353,14 +4368,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4370,14 +4385,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4386,28 +4401,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>269</v>
+        <v>67</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>127</v>
+        <v>268</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>128</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4426,24 +4441,24 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>61</v>
+        <v>271</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4452,14 +4467,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4469,14 +4484,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>204</v>
+        <v>127</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>205</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4485,14 +4500,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4502,11 +4517,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>58</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4518,14 +4533,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>279</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4535,14 +4550,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>276</v>
+        <v>209</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>277</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4551,14 +4566,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>279</v>
+        <v>82</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4568,14 +4583,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>280</v>
+        <v>57</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>281</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4584,14 +4599,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>283</v>
+        <v>18</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4601,14 +4616,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>204</v>
+        <v>282</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>205</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4624,7 +4639,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4634,14 +4649,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4650,14 +4665,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4667,11 +4682,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>285</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4683,14 +4698,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>18</v>
+        <v>262</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4700,14 +4715,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>290</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4716,14 +4731,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>18</v>
+        <v>274</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4733,14 +4748,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>103</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>257</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4749,14 +4764,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4766,14 +4781,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>127</v>
+        <v>257</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>128</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>295</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4782,14 +4797,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>273</v>
+        <v>18</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4799,14 +4814,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>295</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>262</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4815,14 +4830,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>287</v>
+        <v>126</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4832,14 +4847,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>233</v>
+        <v>127</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>297</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4855,7 +4870,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4865,11 +4880,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>204</v>
+        <v>299</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>205</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4881,14 +4896,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>18</v>
+        <v>274</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4898,14 +4913,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>300</v>
+        <v>238</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4914,14 +4929,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>18</v>
+        <v>252</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4931,14 +4946,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>128</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4947,14 +4962,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>304</v>
+        <v>18</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4964,11 +4979,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>219</v>
+        <v>305</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4980,7 +4995,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -4997,14 +5012,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>307</v>
+        <v>202</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>308</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5013,14 +5028,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5030,14 +5045,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>134</v>
+        <v>224</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>143</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5053,7 +5068,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5063,49 +5078,115 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>204</v>
+        <v>312</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>205</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
-      <c r="P113" s="13">
-        <v>8007.4049999999997</v>
-      </c>
-      <c r="Q113" s="13"/>
-    </row>
-    <row r="114" ht="16.5" customHeight="1">
-      <c t="s" r="A114" s="14">
-        <v>312</v>
-      </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c t="s" r="G114" s="15">
-        <v>313</v>
-      </c>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="16"/>
-      <c t="s" r="K114" s="17">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
         <v>314</v>
       </c>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>315</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>22</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>134</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>316</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>16</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>22</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>209</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>210</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="P115" s="13">
+        <v>8122.4049999999997</v>
+      </c>
+      <c r="Q115" s="13"/>
+    </row>
+    <row r="116" ht="16.5" customHeight="1">
+      <c t="s" r="A116" s="14">
+        <v>317</v>
+      </c>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c t="s" r="G116" s="15">
+        <v>318</v>
+      </c>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="16"/>
+      <c t="s" r="K116" s="17">
+        <v>319</v>
+      </c>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="542">
+  <mergeCells count="552">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5644,10 +5725,20 @@
     <mergeCell ref="H112:K112"/>
     <mergeCell ref="L112:M112"/>
     <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="K114:Q114"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="K116:Q116"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -962,7 +962,7 @@
     <t>مس جانتينا سبراي</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 10:44 PM</t>
+    <t>Friday, 3 October, 2025 10:49 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -92,87 +92,84 @@
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>AMPOFER 20MG/ML 5 AMP. FOR I.V. INJ./INF.</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>ANTINAL 200MG 24 CAPSULES</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>9.1200</t>
+  </si>
+  <si>
+    <t>B.B.C. ORAL SPRAY 25 ML</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>BETAFOS 1 AMP. 2ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>BETASERC 16MG 60 TAB</t>
+  </si>
+  <si>
+    <t>219.00</t>
+  </si>
+  <si>
+    <t>72.2700</t>
+  </si>
+  <si>
+    <t>BRUFEN 600MG 30 TAB</t>
+  </si>
+  <si>
     <t>2:2</t>
   </si>
   <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>-28.7100</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>AMPOFER 20MG/ML 5 AMP. FOR I.V. INJ./INF.</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>275.00</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>ANTINAL 200MG 24 CAPSULES</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>9.1200</t>
-  </si>
-  <si>
-    <t>B.B.C. ORAL SPRAY 25 ML</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>BETAFOS 1 AMP. 2ML</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>BETASERC 16MG 60 TAB</t>
-  </si>
-  <si>
-    <t>219.00</t>
-  </si>
-  <si>
-    <t>72.2700</t>
-  </si>
-  <si>
-    <t>BRUFEN 600MG 30 TAB</t>
-  </si>
-  <si>
     <t>99.00</t>
   </si>
   <si>
@@ -458,6 +455,15 @@
     <t>GLYCERIN (EL-NILE) INFANTILE 6 SUPP.</t>
   </si>
   <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
     <t>IKSARONT 2.5 MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -518,9 +524,6 @@
     <t>3:2</t>
   </si>
   <si>
-    <t>0.0000</t>
-  </si>
-  <si>
     <t>LARYPRO 20 LOZENGES</t>
   </si>
   <si>
@@ -962,7 +965,7 @@
     <t>مس جانتينا سبراي</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 10:49 PM</t>
+    <t>Friday, 3 October, 2025 10:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1719,7 +1722,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1728,14 +1731,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1745,14 +1748,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>34</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>35</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1761,14 +1764,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1778,11 +1781,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>25</v>
@@ -1794,7 +1797,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1811,11 +1814,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>25</v>
@@ -1827,7 +1830,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1844,11 +1847,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1860,14 +1863,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1877,11 +1880,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1893,7 +1896,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1910,11 +1913,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>25</v>
@@ -1926,14 +1929,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1943,11 +1946,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>25</v>
@@ -1959,7 +1962,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1976,11 +1979,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1992,14 +1995,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2009,11 +2012,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>25</v>
@@ -2025,7 +2028,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -2042,11 +2045,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>25</v>
@@ -2058,14 +2061,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2075,14 +2078,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2091,14 +2094,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2108,11 +2111,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>25</v>
@@ -2124,7 +2127,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -2141,11 +2144,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>25</v>
@@ -2157,14 +2160,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2174,11 +2177,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2190,14 +2193,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2207,14 +2210,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2223,7 +2226,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2240,11 +2243,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>25</v>
@@ -2256,14 +2259,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2273,14 +2276,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>24</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2289,14 +2292,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2306,11 +2309,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>25</v>
@@ -2322,14 +2325,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2339,11 +2342,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>25</v>
@@ -2355,14 +2358,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2372,14 +2375,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2388,7 +2391,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2405,11 +2408,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2421,14 +2424,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2438,11 +2441,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>25</v>
@@ -2454,14 +2457,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2471,14 +2474,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2487,14 +2490,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2504,11 +2507,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>25</v>
@@ -2520,14 +2523,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2537,11 +2540,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>25</v>
@@ -2553,14 +2556,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2570,14 +2573,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>120</v>
-      </c>
-      <c t="s" r="Q36" s="12">
-        <v>121</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2586,14 +2589,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2603,11 +2606,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2619,14 +2622,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2636,11 +2639,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2652,14 +2655,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2669,11 +2672,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2685,14 +2688,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2702,11 +2705,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>25</v>
@@ -2718,7 +2721,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2735,11 +2738,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2751,14 +2754,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2768,11 +2771,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>25</v>
@@ -2784,14 +2787,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2801,11 +2804,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2817,14 +2820,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2834,11 +2837,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>25</v>
@@ -2850,7 +2853,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2867,11 +2870,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2883,7 +2886,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2900,11 +2903,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2916,14 +2919,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2933,14 +2936,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>78</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2949,14 +2952,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2966,14 +2969,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>47</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2982,31 +2985,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3015,28 +3018,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>25</v>
@@ -3048,14 +3051,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3065,14 +3068,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>19</v>
+        <v>162</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3081,14 +3084,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3098,14 +3101,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>165</v>
+        <v>19</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>166</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>164</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3114,14 +3117,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3131,14 +3134,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>61</v>
+        <v>167</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3147,14 +3150,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3164,14 +3167,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>147</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3180,14 +3183,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3197,11 +3200,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>25</v>
@@ -3213,7 +3216,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3230,11 +3233,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>119</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>25</v>
@@ -3246,14 +3249,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3263,14 +3266,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>178</v>
+        <v>118</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3279,14 +3282,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3296,11 +3299,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3312,14 +3315,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3329,11 +3332,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3345,14 +3348,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3362,14 +3365,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>160</v>
+        <v>39</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3378,14 +3381,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3395,14 +3398,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3411,7 +3414,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3428,14 +3431,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3444,28 +3447,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>123</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>25</v>
@@ -3477,31 +3480,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>122</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>164</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3510,14 +3513,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3527,14 +3530,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3543,14 +3546,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3560,14 +3563,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3576,7 +3579,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3593,11 +3596,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3609,14 +3612,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3626,11 +3629,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>48</v>
+        <v>206</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>49</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3649,7 +3652,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3659,11 +3662,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>209</v>
+        <v>46</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>210</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3675,31 +3678,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3708,31 +3711,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>215</v>
+        <v>25</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>164</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3741,31 +3744,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>216</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>166</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3774,31 +3777,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3807,14 +3810,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3824,14 +3827,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3840,14 +3843,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>227</v>
+        <v>120</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3857,14 +3860,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3873,31 +3876,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>228</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3906,7 +3909,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3923,14 +3926,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3939,28 +3942,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>166</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>25</v>
@@ -3979,7 +3982,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3989,14 +3992,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>238</v>
+        <v>167</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4005,14 +4008,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4022,14 +4025,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>103</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4045,7 +4048,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4055,14 +4058,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>160</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>242</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4071,14 +4074,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>244</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4088,11 +4091,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>245</v>
+        <v>162</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4104,14 +4107,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4121,11 +4124,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>39</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4137,14 +4140,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>245</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4154,14 +4157,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>106</v>
+        <v>249</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>250</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4170,14 +4173,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>252</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4187,14 +4190,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>253</v>
+        <v>105</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4203,14 +4206,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4220,14 +4223,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4236,14 +4239,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>257</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4253,14 +4256,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>14</v>
+        <v>258</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>15</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4286,11 +4289,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4309,7 +4312,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>262</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4319,14 +4322,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4335,14 +4338,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>263</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4352,14 +4355,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>205</v>
+        <v>98</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>206</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4385,11 +4388,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>265</v>
+        <v>206</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>266</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4401,14 +4404,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4418,11 +4421,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4434,14 +4437,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4451,14 +4454,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4467,31 +4470,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>274</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>127</v>
+        <v>272</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4500,14 +4503,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>18</v>
+        <v>275</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4517,14 +4520,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4533,14 +4536,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>279</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4550,11 +4553,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>209</v>
+        <v>60</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>210</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4566,14 +4569,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>82</v>
+        <v>280</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4583,11 +4586,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>57</v>
+        <v>210</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>58</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4606,7 +4609,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4616,14 +4619,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>282</v>
+        <v>56</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>283</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4632,14 +4635,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>285</v>
+        <v>18</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4649,14 +4652,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4665,14 +4668,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4682,14 +4685,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>209</v>
+        <v>287</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>210</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4698,14 +4701,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4715,11 +4718,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>253</v>
+        <v>210</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>291</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4731,14 +4734,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4748,11 +4751,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4771,7 +4774,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>18</v>
+        <v>275</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4781,14 +4784,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>295</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4797,7 +4800,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4814,14 +4817,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>103</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>262</v>
+        <v>296</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4837,7 +4840,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4847,14 +4850,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>127</v>
+        <v>283</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>263</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4870,7 +4873,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>279</v>
+        <v>125</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4880,11 +4883,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>299</v>
+        <v>126</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>300</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4896,14 +4899,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4913,14 +4916,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4929,14 +4932,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4946,14 +4949,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>210</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4969,7 +4972,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>18</v>
+        <v>253</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4979,11 +4982,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>305</v>
+        <v>210</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>306</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4995,7 +4998,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5012,14 +5015,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>202</v>
+        <v>306</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>128</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5035,7 +5038,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>309</v>
+        <v>18</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5045,14 +5048,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>310</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5061,14 +5064,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>18</v>
+        <v>310</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5078,11 +5081,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>312</v>
+        <v>225</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5094,14 +5097,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>315</v>
+        <v>18</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5111,14 +5114,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>134</v>
+        <v>313</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>143</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5127,14 +5130,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>16</v>
+        <v>316</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5144,49 +5147,82 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>209</v>
+        <v>133</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>317</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>16</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>22</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
         <v>210</v>
       </c>
-      <c t="s" r="Q114" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="115" ht="24.75" customHeight="1">
-      <c r="P115" s="13">
-        <v>8122.4049999999997</v>
-      </c>
-      <c r="Q115" s="13"/>
-    </row>
-    <row r="116" ht="16.5" customHeight="1">
-      <c t="s" r="A116" s="14">
-        <v>317</v>
-      </c>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c t="s" r="G116" s="15">
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>211</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="P116" s="13">
+        <v>8237.6149999999998</v>
+      </c>
+      <c r="Q116" s="13"/>
+    </row>
+    <row r="117" ht="16.5" customHeight="1">
+      <c t="s" r="A117" s="14">
         <v>318</v>
       </c>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="16"/>
-      <c t="s" r="K116" s="17">
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c t="s" r="G117" s="15">
         <v>319</v>
       </c>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="17"/>
-      <c r="O116" s="17"/>
-      <c r="P116" s="17"/>
-      <c r="Q116" s="17"/>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="16"/>
+      <c t="s" r="K117" s="17">
+        <v>320</v>
+      </c>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="552">
+  <mergeCells count="557">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5735,10 +5771,15 @@
     <mergeCell ref="H114:K114"/>
     <mergeCell ref="L114:M114"/>
     <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="K116:Q116"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="K117:Q117"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -965,7 +965,7 @@
     <t>مس جانتينا سبراي</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 10:50 PM</t>
+    <t>Friday, 3 October, 2025 10:52 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -638,6 +638,9 @@
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
+    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
     <t>OTRIVIN BABY SALINE NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -713,6 +716,15 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t>SHAAN FACIAL CLEANSER 250 ML</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
+  </si>
+  <si>
     <t>SORAL 30 MG 30CAPS</t>
   </si>
   <si>
@@ -965,7 +977,7 @@
     <t>مس جانتينا سبراي</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 10:52 PM</t>
+    <t>Friday, 3 October, 2025 10:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3685,7 +3697,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3695,11 +3707,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>133</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3711,31 +3723,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3744,31 +3756,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>216</v>
+        <v>25</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>166</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3777,31 +3789,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>217</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>166</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3810,31 +3822,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3843,14 +3855,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3860,14 +3872,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3876,14 +3888,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>228</v>
+        <v>120</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3893,14 +3905,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>59</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3909,31 +3921,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>229</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3942,7 +3954,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3959,14 +3971,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3975,14 +3987,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3992,14 +4004,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>167</v>
+        <v>236</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>168</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4015,13 +4027,13 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
@@ -4032,7 +4044,7 @@
         <v>240</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4048,7 +4060,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4058,11 +4070,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>102</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>25</v>
@@ -4081,7 +4093,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4091,11 +4103,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>162</v>
+        <v>243</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4107,14 +4119,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>245</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4124,14 +4136,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>247</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4140,14 +4152,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>245</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4157,11 +4169,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>249</v>
+        <v>162</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>37</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4173,14 +4185,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>249</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4190,14 +4202,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>105</v>
+        <v>250</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4213,7 +4225,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4223,14 +4235,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>255</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4239,14 +4251,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>257</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4256,14 +4268,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>258</v>
+        <v>105</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4272,14 +4284,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>257</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4289,14 +4301,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>14</v>
+        <v>258</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>15</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4305,14 +4317,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>261</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4322,14 +4334,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>63</v>
+        <v>262</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>68</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4338,14 +4350,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>263</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4355,14 +4367,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4371,14 +4383,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4388,11 +4400,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>206</v>
+        <v>63</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4404,14 +4416,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>18</v>
+        <v>267</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4421,14 +4433,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>266</v>
+        <v>98</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>267</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4444,7 +4456,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4454,11 +4466,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>269</v>
+        <v>206</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>270</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4470,14 +4482,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4487,14 +4499,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4503,31 +4515,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>275</v>
+        <v>66</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>126</v>
+        <v>273</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4536,31 +4548,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>60</v>
+        <v>276</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4569,14 +4581,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4586,14 +4598,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>210</v>
+        <v>126</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>211</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4609,7 +4621,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4619,11 +4631,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>57</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4635,14 +4647,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>18</v>
+        <v>284</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4652,14 +4664,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>283</v>
+        <v>211</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>284</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4675,7 +4687,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>286</v>
+        <v>81</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4685,14 +4697,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>287</v>
+        <v>56</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>288</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4701,14 +4713,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>290</v>
+        <v>18</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4718,14 +4730,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>210</v>
+        <v>287</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>211</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4734,14 +4746,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4751,14 +4763,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>254</v>
+        <v>291</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
         <v>292</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4774,7 +4786,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4784,11 +4796,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>254</v>
+        <v>211</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>292</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4800,14 +4812,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>18</v>
+        <v>267</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4821,10 +4833,10 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>296</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4840,7 +4852,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>18</v>
+        <v>279</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4850,14 +4862,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>102</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>263</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4873,7 +4885,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4883,14 +4895,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>126</v>
+        <v>262</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>127</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4899,14 +4911,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>280</v>
+        <v>18</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4916,14 +4928,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>301</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>267</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4939,7 +4951,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>275</v>
+        <v>125</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4949,14 +4961,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>239</v>
+        <v>126</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>303</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4965,14 +4977,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4982,11 +4994,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>210</v>
+        <v>304</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>211</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4998,14 +5010,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>18</v>
+        <v>279</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5015,14 +5027,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>306</v>
+        <v>243</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
         <v>307</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5038,7 +5050,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>18</v>
+        <v>257</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5048,14 +5060,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>127</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5071,7 +5083,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>310</v>
+        <v>18</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5081,7 +5093,7 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>225</v>
+        <v>310</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
@@ -5114,14 +5126,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>313</v>
+        <v>203</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>314</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5130,14 +5142,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5147,14 +5159,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>133</v>
+        <v>226</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>142</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5163,14 +5175,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5180,49 +5192,115 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>210</v>
+        <v>317</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
+        <v>318</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>319</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>320</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>22</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>133</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>321</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>16</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>22</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
         <v>211</v>
       </c>
-      <c t="s" r="Q115" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="116" ht="25.5" customHeight="1">
-      <c r="P116" s="13">
-        <v>8237.6149999999998</v>
-      </c>
-      <c r="Q116" s="13"/>
-    </row>
-    <row r="117" ht="16.5" customHeight="1">
-      <c t="s" r="A117" s="14">
-        <v>318</v>
-      </c>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c t="s" r="G117" s="15">
-        <v>319</v>
-      </c>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="16"/>
-      <c t="s" r="K117" s="17">
-        <v>320</v>
-      </c>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
-      <c r="P117" s="17"/>
-      <c r="Q117" s="17"/>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>212</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="P118" s="13">
+        <v>8436.6149999999998</v>
+      </c>
+      <c r="Q118" s="13"/>
+    </row>
+    <row r="119" ht="16.5" customHeight="1">
+      <c t="s" r="A119" s="14">
+        <v>322</v>
+      </c>
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c t="s" r="G119" s="15">
+        <v>323</v>
+      </c>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="16"/>
+      <c t="s" r="K119" s="17">
+        <v>324</v>
+      </c>
+      <c r="L119" s="17"/>
+      <c r="M119" s="17"/>
+      <c r="N119" s="17"/>
+      <c r="O119" s="17"/>
+      <c r="P119" s="17"/>
+      <c r="Q119" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="557">
+  <mergeCells count="567">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5776,10 +5854,20 @@
     <mergeCell ref="H115:K115"/>
     <mergeCell ref="L115:M115"/>
     <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="K117:Q117"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="G119:I119"/>
+    <mergeCell ref="K119:Q119"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -293,6 +293,36 @@
     <t>44.5500</t>
   </si>
   <si>
+    <t>CURAM 1GM 12 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>182.00</t>
+  </si>
+  <si>
+    <t>182.0000</t>
+  </si>
+  <si>
+    <t>CURAM 312.5 MG/5ML PD. FOR ORAL SUSP. 75ML</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>CURAM 457MG/5ML PD. FOR ORAL SUSP. 70ML</t>
+  </si>
+  <si>
+    <t>97.00</t>
+  </si>
+  <si>
+    <t>97.0000</t>
+  </si>
+  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
@@ -371,9 +401,6 @@
     <t>79.6800</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>DURICEF 500MG/5ML SUSP. 60ML</t>
   </si>
   <si>
@@ -977,7 +1004,7 @@
     <t>مس جانتينا سبراي</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 10:53 PM</t>
+    <t>Friday, 3 October, 2025 11:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2344,7 +2371,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2354,14 +2381,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2370,14 +2397,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2387,14 +2414,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2403,14 +2430,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2420,11 +2447,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2436,14 +2463,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2476,7 +2503,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2486,14 +2513,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2502,14 +2529,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2519,14 +2546,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2535,14 +2562,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2552,11 +2579,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>25</v>
@@ -2568,14 +2595,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2585,14 +2612,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>120</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2601,14 +2628,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2618,14 +2645,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2634,14 +2661,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2651,14 +2678,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2667,31 +2694,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2700,14 +2727,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2717,14 +2744,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2733,14 +2760,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2750,11 +2777,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2766,31 +2793,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2799,14 +2826,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2816,14 +2843,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2832,14 +2859,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2849,14 +2876,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>93</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2865,14 +2892,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2882,14 +2909,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2898,14 +2925,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2915,11 +2942,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2931,14 +2958,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2948,11 +2975,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>25</v>
@@ -2964,14 +2991,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2981,14 +3008,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2997,14 +3024,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3014,14 +3041,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>156</v>
+        <v>82</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>157</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3030,28 +3057,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>25</v>
@@ -3063,14 +3090,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3087,7 +3114,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3103,7 +3130,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3113,14 +3140,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>19</v>
+        <v>165</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3129,31 +3156,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>166</v>
+        <v>34</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>166</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3162,14 +3189,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3179,14 +3206,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>60</v>
+        <v>171</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3195,14 +3222,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3212,14 +3239,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3228,14 +3255,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3245,14 +3272,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q56" s="12">
         <v>175</v>
-      </c>
-      <c t="s" r="Q56" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3261,14 +3288,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>52</v>
+        <v>179</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3278,14 +3305,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3294,14 +3321,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3311,14 +3338,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3327,14 +3354,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3344,14 +3371,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3360,14 +3387,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3377,14 +3404,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>39</v>
+        <v>128</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3393,14 +3420,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3410,14 +3437,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3426,7 +3453,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3443,14 +3470,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3459,14 +3486,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3476,14 +3503,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>39</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3492,28 +3519,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>122</v>
+        <v>171</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>25</v>
@@ -3525,14 +3552,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3542,14 +3569,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>166</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3558,14 +3585,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3575,11 +3602,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>25</v>
@@ -3591,31 +3618,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>131</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3631,7 +3658,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3648,7 +3675,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>175</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3664,7 +3691,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3674,14 +3701,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>46</v>
+        <v>209</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>47</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3690,14 +3717,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3707,11 +3734,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>133</v>
+        <v>212</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>83</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3723,14 +3750,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3740,11 +3767,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3756,31 +3783,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>46</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3789,14 +3816,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>217</v>
+        <v>45</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3806,14 +3833,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>142</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>166</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3822,31 +3849,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3862,13 +3889,13 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3879,7 +3906,7 @@
         <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3895,7 +3922,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>120</v>
+        <v>226</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3905,14 +3932,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>175</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3921,20 +3948,20 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>229</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
@@ -3942,10 +3969,10 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>59</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3954,7 +3981,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3967,15 +3994,15 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3987,14 +4014,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4004,14 +4031,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4020,20 +4047,20 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>238</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
@@ -4044,7 +4071,7 @@
         <v>240</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4060,24 +4087,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>168</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4086,14 +4113,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4103,11 +4130,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4119,28 +4146,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>102</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>25</v>
@@ -4152,14 +4179,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4169,14 +4196,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>247</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4185,14 +4212,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4202,11 +4229,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4218,14 +4245,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4235,14 +4262,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4251,14 +4278,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4268,14 +4295,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4284,14 +4311,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4301,14 +4328,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4317,14 +4344,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4338,10 +4365,10 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>263</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4350,7 +4377,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4367,14 +4394,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>15</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4390,7 +4417,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>266</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4400,14 +4427,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>63</v>
+        <v>267</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4416,14 +4443,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4433,11 +4460,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>98</v>
+        <v>271</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>99</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>45</v>
@@ -4449,14 +4476,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4466,11 +4493,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>206</v>
+        <v>14</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>207</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4482,14 +4509,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4499,11 +4526,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>270</v>
+        <v>63</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>271</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4515,14 +4542,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>66</v>
+        <v>276</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4532,14 +4559,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>273</v>
+        <v>108</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>274</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4548,14 +4575,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4565,14 +4592,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>276</v>
+        <v>215</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>277</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4588,24 +4615,24 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>279</v>
+        <v>18</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>126</v>
+        <v>279</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
         <v>280</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4621,21 +4648,21 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>60</v>
+        <v>282</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4647,31 +4674,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>284</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>211</v>
+        <v>285</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>212</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4680,14 +4707,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>81</v>
+        <v>288</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4697,14 +4724,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>56</v>
+        <v>135</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>57</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4713,7 +4740,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4730,14 +4757,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>287</v>
+        <v>60</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4746,14 +4773,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4763,14 +4790,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>291</v>
+        <v>220</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>292</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4779,14 +4806,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>294</v>
+        <v>81</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4796,11 +4823,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>211</v>
+        <v>56</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>212</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4819,7 +4846,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>267</v>
+        <v>18</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4829,14 +4856,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4845,14 +4872,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4862,14 +4889,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>258</v>
+        <v>300</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4878,14 +4905,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>18</v>
+        <v>303</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4895,14 +4922,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>262</v>
+        <v>220</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>299</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>300</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4911,14 +4938,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>18</v>
+        <v>276</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4928,14 +4955,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>102</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>267</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4944,14 +4971,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>125</v>
+        <v>288</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4961,11 +4988,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>126</v>
+        <v>267</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>127</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4977,14 +5004,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>284</v>
+        <v>18</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4994,14 +5021,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>309</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5010,14 +5037,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>279</v>
+        <v>18</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5027,14 +5054,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>243</v>
+        <v>296</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>307</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5043,14 +5070,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>257</v>
+        <v>134</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5060,11 +5087,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>211</v>
+        <v>135</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5076,14 +5103,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>18</v>
+        <v>293</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5093,11 +5120,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5109,14 +5136,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>18</v>
+        <v>288</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5126,14 +5153,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>203</v>
+        <v>252</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>127</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5142,14 +5169,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5159,11 +5186,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>315</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5175,7 +5202,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5192,11 +5219,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5208,14 +5235,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>320</v>
+        <v>18</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5225,11 +5252,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>133</v>
+        <v>212</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>45</v>
@@ -5241,14 +5268,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>16</v>
+        <v>323</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5258,49 +5285,148 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>212</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
-      <c r="P118" s="13">
-        <v>8436.6149999999998</v>
-      </c>
-      <c r="Q118" s="13"/>
-    </row>
-    <row r="119" ht="16.5" customHeight="1">
-      <c t="s" r="A119" s="14">
-        <v>322</v>
-      </c>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c t="s" r="G119" s="15">
-        <v>323</v>
-      </c>
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
-      <c r="J119" s="16"/>
-      <c t="s" r="K119" s="17">
-        <v>324</v>
-      </c>
-      <c r="L119" s="17"/>
-      <c r="M119" s="17"/>
-      <c r="N119" s="17"/>
-      <c r="O119" s="17"/>
-      <c r="P119" s="17"/>
-      <c r="Q119" s="17"/>
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>325</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>18</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>22</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>326</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>327</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>328</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>329</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>22</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>142</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>330</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>16</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>22</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>220</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>221</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="P121" s="13">
+        <v>8797.6149999999998</v>
+      </c>
+      <c r="Q121" s="13"/>
+    </row>
+    <row r="122" ht="16.5" customHeight="1">
+      <c t="s" r="A122" s="14">
+        <v>331</v>
+      </c>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c t="s" r="G122" s="15">
+        <v>332</v>
+      </c>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="16"/>
+      <c t="s" r="K122" s="17">
+        <v>333</v>
+      </c>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="N122" s="17"/>
+      <c r="O122" s="17"/>
+      <c r="P122" s="17"/>
+      <c r="Q122" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="567">
+  <mergeCells count="582">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5864,10 +5990,25 @@
     <mergeCell ref="H117:K117"/>
     <mergeCell ref="L117:M117"/>
     <mergeCell ref="N117:O117"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="G119:I119"/>
-    <mergeCell ref="K119:Q119"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="K122:Q122"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -272,6 +272,15 @@
     <t>33.6600</t>
   </si>
   <si>
+    <t>CONGESTAL SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -365,7 +374,10 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>23.7600</t>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>DIXVIT 10.000 I.U. 30 TABS.</t>
@@ -536,9 +548,6 @@
     <t>JOYPOX 60MG 3 TAB</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>106.00</t>
   </si>
   <si>
@@ -554,9 +563,6 @@
     <t>LARYPRO 20 LOZENGES</t>
   </si>
   <si>
-    <t>44.00</t>
-  </si>
-  <si>
     <t>LASILACTONE 50/20MG 30 TAB.</t>
   </si>
   <si>
@@ -611,6 +617,15 @@
     <t>280.0000</t>
   </si>
   <si>
+    <t>MONOHEXAL SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>MOODAPEX 50MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -812,12 +827,21 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
     <t>70.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -926,19 +950,16 @@
     <t>راجون احمر 250 مل</t>
   </si>
   <si>
-    <t>35.0000</t>
-  </si>
-  <si>
     <t>رول اون ريكسونا25</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>29.3200</t>
-  </si>
-  <si>
-    <t>14:1</t>
+    <t>31.3200</t>
+  </si>
+  <si>
+    <t>15:1</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1004,7 +1025,7 @@
     <t>مس جانتينا سبراي</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 11:38 PM</t>
+    <t>Friday, 3 October, 2025 11:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2305,7 +2326,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2315,14 +2336,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2352,10 +2373,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2364,14 +2385,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2381,14 +2402,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2397,14 +2418,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2470,7 +2491,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2487,7 +2508,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2503,7 +2524,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2520,7 +2541,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2536,7 +2557,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2553,7 +2574,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2569,7 +2590,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2579,14 +2600,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2595,14 +2616,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2612,14 +2633,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2628,14 +2649,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2645,14 +2666,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2661,14 +2682,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2718,7 +2739,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>95</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2734,7 +2755,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2744,14 +2765,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2760,14 +2781,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2800,21 +2821,21 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>45</v>
+        <v>138</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2826,20 +2847,20 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>141</v>
+        <v>45</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2850,7 +2871,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2866,7 +2887,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2876,14 +2897,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2892,14 +2913,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2909,14 +2930,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2925,14 +2946,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2942,14 +2963,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2958,14 +2979,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2975,14 +2996,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>93</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2991,14 +3012,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3008,14 +3029,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3024,7 +3045,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -3041,11 +3062,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>61</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -3057,14 +3078,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3074,14 +3095,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>158</v>
+        <v>82</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>159</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3090,14 +3111,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>161</v>
+        <v>25</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3114,7 +3135,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>77</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3130,7 +3151,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3140,14 +3161,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>45</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3156,31 +3177,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3189,7 +3210,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3202,15 +3223,15 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>25</v>
@@ -3222,14 +3243,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3239,14 +3260,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3255,14 +3276,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>175</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3272,14 +3293,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>176</v>
+        <v>19</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>177</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>175</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3295,7 +3316,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3305,14 +3326,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>60</v>
+        <v>179</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>29</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3321,14 +3342,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>25</v>
+        <v>182</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3338,14 +3359,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>181</v>
+        <v>60</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>155</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3354,14 +3375,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3371,11 +3392,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>183</v>
+        <v>88</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>25</v>
@@ -3387,14 +3408,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3404,7 +3425,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>128</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3427,7 +3448,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3437,14 +3458,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>188</v>
+        <v>132</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3453,14 +3474,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3470,11 +3491,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3486,14 +3507,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3503,7 +3524,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>39</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3526,7 +3547,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3536,14 +3557,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>171</v>
+        <v>39</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3559,7 +3580,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3569,14 +3590,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3585,7 +3606,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3602,14 +3623,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3618,31 +3639,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>131</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3658,7 +3679,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3675,7 +3696,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>175</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3691,21 +3712,21 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>209</v>
+        <v>135</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>25</v>
@@ -3717,14 +3738,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3734,14 +3755,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3750,14 +3771,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3767,14 +3788,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3783,14 +3804,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3800,11 +3821,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>46</v>
+        <v>217</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>47</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3816,14 +3837,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3833,11 +3854,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>142</v>
+        <v>220</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>83</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3849,14 +3870,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3866,11 +3887,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>46</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3882,31 +3903,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>146</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3915,14 +3936,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>226</v>
+        <v>81</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3932,14 +3953,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>175</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3948,14 +3969,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3965,14 +3986,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>196</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3981,14 +4002,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>231</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4005,7 +4026,7 @@
         <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4021,13 +4042,13 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -4035,7 +4056,7 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>25</v>
@@ -4047,14 +4068,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>238</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4064,14 +4085,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4080,31 +4101,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4113,14 +4134,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>243</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4130,14 +4151,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4146,7 +4167,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4163,14 +4184,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4179,14 +4200,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4196,14 +4217,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>176</v>
+        <v>250</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>177</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4212,31 +4233,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4245,14 +4266,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4262,11 +4283,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>239</v>
+        <v>179</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>112</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>25</v>
@@ -4278,14 +4299,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4295,11 +4316,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>171</v>
+        <v>257</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4311,14 +4332,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>258</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4328,14 +4349,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>260</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4344,14 +4365,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>258</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4361,11 +4382,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>262</v>
+        <v>175</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>37</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4377,14 +4398,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>263</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4394,14 +4415,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>115</v>
+        <v>264</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4410,14 +4431,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4431,10 +4452,10 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>268</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4443,14 +4464,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>270</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4460,14 +4481,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>271</v>
+        <v>118</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4476,14 +4497,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>271</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4493,14 +4514,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>15</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4509,14 +4530,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>274</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4526,14 +4547,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>63</v>
+        <v>275</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>68</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4542,14 +4563,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4559,11 +4580,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>108</v>
+        <v>279</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>109</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>45</v>
@@ -4575,14 +4596,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4592,11 +4613,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>215</v>
+        <v>14</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>216</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4608,14 +4629,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4625,11 +4646,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>279</v>
+        <v>63</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>280</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4641,14 +4662,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>66</v>
+        <v>284</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4658,14 +4679,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>282</v>
+        <v>111</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>283</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4674,14 +4695,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4691,14 +4712,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>285</v>
+        <v>220</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>286</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4707,31 +4728,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>288</v>
+        <v>18</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>135</v>
+        <v>287</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4740,24 +4761,24 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>60</v>
+        <v>290</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
@@ -4780,24 +4801,24 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>293</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>220</v>
+        <v>293</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>221</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4806,14 +4827,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>81</v>
+        <v>296</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4823,14 +4844,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>56</v>
+        <v>139</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>57</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4839,7 +4860,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4856,14 +4877,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>296</v>
+        <v>60</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4872,14 +4893,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4889,14 +4910,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>301</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4912,7 +4933,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>303</v>
+        <v>81</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4922,11 +4943,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>220</v>
+        <v>56</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>221</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4938,14 +4959,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>276</v>
+        <v>18</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4955,14 +4976,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
         <v>305</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4978,7 +4999,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4988,14 +5009,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>267</v>
+        <v>308</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5004,14 +5025,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>18</v>
+        <v>311</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5021,14 +5042,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>271</v>
+        <v>225</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>308</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>309</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5037,14 +5058,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>18</v>
+        <v>284</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5054,14 +5075,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>296</v>
+        <v>203</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>112</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>276</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5070,14 +5091,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>134</v>
+        <v>296</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5087,11 +5108,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>135</v>
+        <v>203</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>136</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5103,14 +5124,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>293</v>
+        <v>18</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5120,14 +5141,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>313</v>
+        <v>279</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>316</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5136,14 +5157,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>288</v>
+        <v>18</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5153,14 +5174,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>252</v>
+        <v>304</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>316</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>12</v>
+        <v>284</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5169,14 +5190,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>266</v>
+        <v>138</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5186,11 +5207,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>220</v>
+        <v>139</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>221</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5202,14 +5223,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>18</v>
+        <v>301</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5219,11 +5240,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5235,14 +5256,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>18</v>
+        <v>296</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5252,14 +5273,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>212</v>
+        <v>257</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>136</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5268,14 +5289,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>323</v>
+        <v>271</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5285,11 +5306,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>324</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5341,7 +5362,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>329</v>
+        <v>18</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5351,11 +5372,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>142</v>
+        <v>217</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>45</v>
@@ -5367,14 +5388,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>16</v>
+        <v>330</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5384,49 +5405,148 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>221</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
-      <c r="P121" s="13">
-        <v>8797.6149999999998</v>
-      </c>
-      <c r="Q121" s="13"/>
-    </row>
-    <row r="122" ht="16.5" customHeight="1">
-      <c t="s" r="A122" s="14">
-        <v>331</v>
-      </c>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c t="s" r="G122" s="15">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
         <v>332</v>
       </c>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="16"/>
-      <c t="s" r="K122" s="17">
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>18</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>22</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
         <v>333</v>
       </c>
-      <c r="L122" s="17"/>
-      <c r="M122" s="17"/>
-      <c r="N122" s="17"/>
-      <c r="O122" s="17"/>
-      <c r="P122" s="17"/>
-      <c r="Q122" s="17"/>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>334</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>335</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>336</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>22</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>146</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>337</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>16</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>22</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>225</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>226</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="P124" s="13">
+        <v>8907.3250000000007</v>
+      </c>
+      <c r="Q124" s="13"/>
+    </row>
+    <row r="125" ht="16.5" customHeight="1">
+      <c t="s" r="A125" s="14">
+        <v>338</v>
+      </c>
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c t="s" r="G125" s="15">
+        <v>339</v>
+      </c>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="16"/>
+      <c t="s" r="K125" s="17">
+        <v>340</v>
+      </c>
+      <c r="L125" s="17"/>
+      <c r="M125" s="17"/>
+      <c r="N125" s="17"/>
+      <c r="O125" s="17"/>
+      <c r="P125" s="17"/>
+      <c r="Q125" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="582">
+  <mergeCells count="597">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6005,10 +6125,25 @@
     <mergeCell ref="H120:K120"/>
     <mergeCell ref="L120:M120"/>
     <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="K122:Q122"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="K125:Q125"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -1025,7 +1025,7 @@
     <t>مس جانتينا سبراي</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 11:44 PM</t>
+    <t>Friday, 3 October, 2025 11:49 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-03_00-00.xlsx
+++ b/DaySale_2025-10-03_00-00.xlsx
@@ -506,13 +506,10 @@
     <t>IKSARONT 2.5 MG 30 F.C. TABLETS</t>
   </si>
   <si>
-    <t>-7:0</t>
-  </si>
-  <si>
     <t>330.00</t>
   </si>
   <si>
-    <t>2640.0000</t>
+    <t>330.0000</t>
   </si>
   <si>
     <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
@@ -1025,7 +1022,7 @@
     <t>مس جانتينا سبراي</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 11:49 PM</t>
+    <t>Friday, 3 October, 2025 11:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3151,7 +3148,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>165</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3161,14 +3158,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3177,7 +3174,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3194,11 +3191,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>45</v>
@@ -3210,7 +3207,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3227,11 +3224,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>25</v>
@@ -3243,7 +3240,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3260,11 +3257,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>25</v>
@@ -3276,7 +3273,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3309,7 +3306,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3326,11 +3323,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>122</v>
@@ -3342,14 +3339,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3375,7 +3372,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3408,7 +3405,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3425,11 +3422,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>25</v>
@@ -3441,7 +3438,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3462,7 +3459,7 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>25</v>
@@ -3474,7 +3471,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3491,11 +3488,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3507,7 +3504,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3524,11 +3521,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3540,7 +3537,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3561,7 +3558,7 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3573,7 +3570,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3590,11 +3587,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>25</v>
@@ -3606,7 +3603,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3623,11 +3620,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>45</v>
@@ -3639,7 +3636,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3656,11 +3653,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3672,7 +3669,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3689,11 +3686,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>25</v>
@@ -3705,7 +3702,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3726,7 +3723,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>25</v>
@@ -3738,7 +3735,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3755,11 +3752,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>122</v>
@@ -3771,7 +3768,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3788,11 +3785,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>25</v>
@@ -3804,7 +3801,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3821,11 +3818,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3837,7 +3834,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3854,11 +3851,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3870,7 +3867,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3903,7 +3900,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3936,7 +3933,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3953,11 +3950,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3969,7 +3966,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3986,11 +3983,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>45</v>
@@ -4002,14 +3999,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4019,11 +4016,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>122</v>
@@ -4035,7 +4032,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4052,11 +4049,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>25</v>
@@ -4068,7 +4065,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4085,11 +4082,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4101,7 +4098,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4118,11 +4115,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>25</v>
@@ -4134,14 +4131,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4151,11 +4148,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>59</v>
@@ -4167,7 +4164,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4184,11 +4181,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4200,7 +4197,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4217,11 +4214,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4233,7 +4230,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4250,11 +4247,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>25</v>
@@ -4266,7 +4263,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4283,11 +4280,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>25</v>
@@ -4299,7 +4296,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4316,11 +4313,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4332,7 +4329,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4349,7 +4346,7 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
@@ -4365,7 +4362,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4382,11 +4379,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4398,14 +4395,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4415,11 +4412,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4431,14 +4428,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4448,7 +4445,7 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
@@ -4464,7 +4461,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4485,7 +4482,7 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>25</v>
@@ -4497,14 +4494,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4514,11 +4511,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>45</v>
@@ -4530,14 +4527,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4547,11 +4544,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>25</v>
@@ -4563,14 +4560,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4580,11 +4577,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>45</v>
@@ -4596,7 +4593,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4629,7 +4626,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4662,14 +4659,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4695,7 +4692,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4712,11 +4709,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4728,7 +4725,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4745,11 +4742,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4761,7 +4758,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4778,11 +4775,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4794,7 +4791,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4811,11 +4808,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>25</v>
@@ -4827,14 +4824,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4848,7 +4845,7 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4860,7 +4857,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4881,7 +4878,7 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4893,14 +4890,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4910,11 +4907,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4926,7 +4923,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4959,7 +4956,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4976,11 +4973,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4992,14 +4989,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5009,11 +5006,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>34</v>
@@ -5025,14 +5022,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5042,11 +5039,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5058,14 +5055,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5075,11 +5072,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5091,14 +5088,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5108,11 +5105,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5124,7 +5121,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5141,14 +5138,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
+        <v>314</v>
+      </c>
+      <c t="s" r="Q112" s="12">
         <v>315</v>
-      </c>
-      <c t="s" r="Q112" s="12">
-        <v>316</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5157,7 +5154,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5174,14 +5171,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5190,7 +5187,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5223,14 +5220,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5240,11 +5237,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5256,14 +5253,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5273,11 +5270,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5289,14 +5286,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5306,11 +5303,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5322,7 +5319,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5339,11 +5336,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5355,7 +5352,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5372,7 +5369,7 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
@@ -5388,14 +5385,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5405,11 +5402,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5421,7 +5418,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5438,11 +5435,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5454,14 +5451,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5487,7 +5484,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5504,11 +5501,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5516,13 +5513,13 @@
     </row>
     <row r="124" ht="25.5" customHeight="1">
       <c r="P124" s="13">
-        <v>8907.3250000000007</v>
+        <v>6597.3249999999998</v>
       </c>
       <c r="Q124" s="13"/>
     </row>
     <row r="125" ht="16.5" customHeight="1">
       <c t="s" r="A125" s="14">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B125" s="14"/>
       <c r="C125" s="14"/>
@@ -5530,13 +5527,13 @@
       <c r="E125" s="14"/>
       <c r="F125" s="14"/>
       <c t="s" r="G125" s="15">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H125" s="15"/>
       <c r="I125" s="15"/>
       <c r="J125" s="16"/>
       <c t="s" r="K125" s="17">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L125" s="17"/>
       <c r="M125" s="17"/>
